--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D22FEF-1777-4FF3-B778-2B38B3530897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D3D99-CF7E-4E4A-A18C-57946A4024A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3360" windowWidth="29130" windowHeight="12660" tabRatio="961" firstSheet="10" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="337">
   <si>
     <t>year</t>
   </si>
@@ -913,21 +913,6 @@
   </si>
   <si>
     <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
   </si>
   <si>
     <t>Average episodes per year: &lt;1 month</t>
@@ -1380,9 +1365,6 @@
     <t>Upper bounds</t>
   </si>
   <si>
-    <t>Upperr bounds</t>
-  </si>
-  <si>
     <t>Lower bound</t>
   </si>
   <si>
@@ -1576,6 +1558,15 @@
   </si>
   <si>
     <t>Anaemic pregnant woman (per pregnancy)</t>
+  </si>
+  <si>
+    <t>Mild (WHZ-score between -2 and -1)</t>
+  </si>
+  <si>
+    <t>High (HAZ-score &lt; -3)</t>
+  </si>
+  <si>
+    <t>Normal (WHZ-score &gt; -1)</t>
   </si>
 </sst>
 </file>
@@ -5147,15 +5138,15 @@
         <v>100</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5163,7 +5154,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5172,7 +5163,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5190,7 +5181,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5341,7 +5332,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -5380,7 +5371,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5390,7 +5381,7 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5430,7 +5421,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5457,7 +5448,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5511,7 +5502,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5520,7 +5511,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5528,7 +5519,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5536,7 +5527,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5544,7 +5535,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5552,7 +5543,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,7 +5556,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5573,7 +5564,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5581,7 +5572,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5629,19 +5620,19 @@
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>205</v>
-      </c>
       <c r="F1" s="53" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5658,7 +5649,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F2" s="81">
         <v>0.2</v>
@@ -5681,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="81">
         <v>0.2</v>
@@ -5704,7 +5695,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="81">
         <v>0.2</v>
@@ -5715,7 +5706,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5727,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F5" s="81">
         <v>0.2</v>
@@ -5738,7 +5729,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5750,7 +5741,7 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F6" s="81">
         <v>0.2</v>
@@ -5773,7 +5764,7 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F7" s="81">
         <v>0.2</v>
@@ -5796,7 +5787,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="81">
         <v>0.2</v>
@@ -5819,7 +5810,7 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F9" s="81">
         <v>0.2</v>
@@ -5830,7 +5821,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5842,7 +5833,7 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F10" s="81">
         <v>0.2</v>
@@ -5853,7 +5844,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5865,7 +5856,7 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F11" s="81">
         <v>0.2</v>
@@ -5876,7 +5867,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5888,7 +5879,7 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F12" s="81">
         <v>0.2</v>
@@ -5899,7 +5890,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5911,7 +5902,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F13" s="81">
         <v>0.2</v>
@@ -5922,7 +5913,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5934,7 +5925,7 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F14" s="81">
         <v>0.2</v>
@@ -5945,7 +5936,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -5957,7 +5948,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F15" s="81">
         <v>0.2</v>
@@ -5980,7 +5971,7 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F16" s="81">
         <v>0.2</v>
@@ -6003,7 +5994,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F17" s="81">
         <v>0.2</v>
@@ -6014,7 +6005,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6026,7 +6017,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F18" s="81">
         <v>0.2</v>
@@ -6037,7 +6028,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6049,7 +6040,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F19" s="81">
         <v>0.01</v>
@@ -6060,7 +6051,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6072,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F20" s="81">
         <v>0.1</v>
@@ -6083,7 +6074,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -6095,7 +6086,7 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F21" s="81">
         <v>0.2</v>
@@ -6106,7 +6097,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -6118,7 +6109,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F22" s="81">
         <v>0.2</v>
@@ -6141,7 +6132,7 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F23" s="81">
         <v>0.2</v>
@@ -6164,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F24" s="81">
         <v>0.2</v>
@@ -6187,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F25" s="81">
         <v>0.2</v>
@@ -6198,7 +6189,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -6210,7 +6201,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F26" s="81">
         <v>0.2</v>
@@ -6233,7 +6224,7 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F27" s="81">
         <v>0.2</v>
@@ -6256,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F28" s="81">
         <v>0.2</v>
@@ -6279,7 +6270,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F29" s="81">
         <v>0.2</v>
@@ -6302,7 +6293,7 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F30" s="81">
         <v>0.5</v>
@@ -6325,7 +6316,7 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F31" s="81">
         <v>0.2</v>
@@ -6348,7 +6339,7 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F32" s="81">
         <v>0.2</v>
@@ -6371,7 +6362,7 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F33" s="81">
         <v>0.2</v>
@@ -6394,7 +6385,7 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F34" s="81">
         <v>0.2</v>
@@ -6417,7 +6408,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F35" s="81">
         <v>0.2</v>
@@ -6440,7 +6431,7 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F36" s="81">
         <v>0.2</v>
@@ -6463,7 +6454,7 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F37" s="81">
         <v>0.2</v>
@@ -6486,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F38" s="81">
         <v>0.2</v>
@@ -6545,15 +6536,15 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>59</v>
@@ -6562,7 +6553,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>59</v>
@@ -6574,16 +6565,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -6694,7 +6685,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -7005,7 +6996,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7049,7 +7040,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -7093,7 +7084,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -7139,7 +7130,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -7566,7 +7557,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7615,7 +7606,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7853,7 +7844,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -7901,7 +7892,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -7949,7 +7940,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -7997,7 +7988,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8045,7 +8036,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8611,22 +8602,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8656,24 +8647,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -8691,7 +8682,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -8709,7 +8700,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -8727,7 +8718,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -8745,7 +8736,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8763,7 +8754,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -8781,7 +8772,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -8799,7 +8790,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -8817,7 +8808,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -8963,7 +8954,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9007,7 +8998,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9051,7 +9042,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9095,7 +9086,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9139,7 +9130,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -9183,7 +9174,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -9227,7 +9218,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -9643,7 +9634,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9687,7 +9678,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9926,7 +9917,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -9971,7 +9962,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10016,7 +10007,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10060,7 +10051,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10104,7 +10095,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10643,16 +10634,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -10664,13 +10655,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10685,7 +10676,7 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
@@ -10701,7 +10692,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10714,7 +10705,7 @@
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10726,11 +10717,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10743,7 +10734,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10754,10 +10745,10 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -10766,14 +10757,14 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10785,14 +10776,14 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10804,14 +10795,14 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10819,11 +10810,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10836,11 +10827,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10853,11 +10844,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10870,11 +10861,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10887,11 +10878,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10899,18 +10890,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -10918,7 +10909,7 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
@@ -10929,17 +10920,17 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -10950,7 +10941,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -10963,16 +10954,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -10982,16 +10973,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11001,16 +10992,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11020,7 +11011,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -11029,26 +11020,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11064,7 +11055,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11072,7 +11063,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11088,7 +11079,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11105,7 +11096,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11113,11 +11104,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11134,7 +11125,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11142,7 +11133,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11158,7 +11149,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11169,11 +11160,11 @@
         <v>58</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11191,7 +11182,7 @@
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -11210,10 +11201,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -11229,10 +11220,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11248,10 +11239,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11267,10 +11258,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11286,10 +11277,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11305,10 +11296,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11325,7 +11316,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11336,17 +11327,17 @@
         <v>60</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11386,19 +11377,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -11410,13 +11401,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11424,25 +11415,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11453,25 +11444,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11482,25 +11473,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11511,25 +11502,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11540,25 +11531,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11570,17 +11561,17 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
@@ -11591,17 +11582,17 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
@@ -11612,17 +11603,17 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
@@ -11633,17 +11624,17 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
@@ -11654,7 +11645,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11663,10 +11654,10 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -11675,7 +11666,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11685,7 +11676,7 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -11694,7 +11685,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11704,7 +11695,7 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -11713,7 +11704,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11723,7 +11714,7 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -11773,7 +11764,7 @@
         <v>113</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>36</v>
@@ -12848,13 +12839,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -12874,13 +12865,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B2" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -12901,7 +12892,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -12923,7 +12914,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -12947,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -12969,7 +12960,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -12990,7 +12981,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13013,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13034,7 +13025,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13055,7 +13046,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13078,7 +13069,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13099,7 +13090,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13120,7 +13111,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13143,7 +13134,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13164,7 +13155,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13185,7 +13176,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13205,10 +13196,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13235,13 +13226,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B19" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13262,7 +13253,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13283,7 +13274,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13306,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13327,7 +13318,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13348,7 +13339,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13371,7 +13362,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13392,7 +13383,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13413,7 +13404,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13436,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13457,7 +13448,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13478,7 +13469,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13501,7 +13492,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13522,7 +13513,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13543,7 +13534,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13563,10 +13554,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13593,13 +13584,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B36" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13620,7 +13611,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13641,7 +13632,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13664,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13685,7 +13676,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13706,7 +13697,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13729,7 +13720,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13750,7 +13741,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13771,7 +13762,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13794,7 +13785,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13815,7 +13806,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -13836,7 +13827,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -13859,7 +13850,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -13880,7 +13871,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -13901,7 +13892,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -13921,10 +13912,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -13944,7 +13935,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B53" s="140"/>
       <c r="C53" s="140"/>
@@ -13956,13 +13947,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>1</v>
@@ -13982,13 +13973,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14014,7 +14005,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14040,7 +14031,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14068,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14094,7 +14085,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14120,7 +14111,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14148,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14174,7 +14165,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14200,7 +14191,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14228,7 +14219,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14254,7 +14245,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14280,7 +14271,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14308,7 +14299,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14334,7 +14325,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14360,7 +14351,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14385,10 +14376,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14420,13 +14411,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B72" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14452,7 +14443,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14478,7 +14469,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14506,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14532,7 +14523,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14558,7 +14549,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14586,7 +14577,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14612,7 +14603,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14638,7 +14629,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14666,7 +14657,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14692,7 +14683,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14718,7 +14709,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14746,7 +14737,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14772,7 +14763,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14798,7 +14789,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14823,10 +14814,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -14858,13 +14849,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="97" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B89" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -14890,7 +14881,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -14916,7 +14907,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -14944,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -14970,7 +14961,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -14996,7 +14987,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15024,7 +15015,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15050,7 +15041,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15076,7 +15067,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15104,7 +15095,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15130,7 +15121,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15156,7 +15147,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15184,7 +15175,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15210,7 +15201,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15236,7 +15227,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15261,10 +15252,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15289,7 +15280,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B106" s="140"/>
       <c r="C106" s="140"/>
@@ -15301,13 +15292,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D107" s="40" t="s">
         <v>1</v>
@@ -15327,13 +15318,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="40" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B108" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15359,7 +15350,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15385,7 +15376,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15413,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15439,7 +15430,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15465,7 +15456,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15493,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15519,7 +15510,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15545,7 +15536,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15573,7 +15564,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15599,7 +15590,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15625,7 +15616,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15653,7 +15644,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15679,7 +15670,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15705,7 +15696,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15730,10 +15721,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15765,13 +15756,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B125" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15797,7 +15788,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15823,7 +15814,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -15851,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -15877,7 +15868,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -15903,7 +15894,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -15931,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -15957,7 +15948,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -15983,7 +15974,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16011,7 +16002,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16037,7 +16028,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16063,7 +16054,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16091,7 +16082,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16117,7 +16108,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16143,7 +16134,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16168,10 +16159,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16203,13 +16194,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="97" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B142" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16235,7 +16226,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16261,7 +16252,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16289,7 +16280,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16315,7 +16306,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16341,7 +16332,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16369,7 +16360,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16395,7 +16386,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16421,7 +16412,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16449,7 +16440,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16475,7 +16466,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16501,7 +16492,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16529,7 +16520,7 @@
         <v>4</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16555,7 +16546,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16581,7 +16572,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16606,10 +16597,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16635,6 +16626,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16644,42 +16671,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16712,7 +16703,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16732,7 +16723,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -16816,7 +16807,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -16841,7 +16832,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -16851,7 +16842,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -16861,7 +16852,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -16879,7 +16870,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -16897,7 +16888,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -16924,7 +16915,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -17078,7 +17069,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B27" s="141"/>
       <c r="C27" s="142"/>
@@ -17088,7 +17079,7 @@
     </row>
     <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17108,7 +17099,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B30" s="104"/>
       <c r="C30" s="105"/>
@@ -17208,7 +17199,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C36" s="139">
         <f>C9*0.7</f>
@@ -17229,7 +17220,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="99" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="110"/>
@@ -17239,7 +17230,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C39" s="108"/>
       <c r="D39" s="95"/>
@@ -17248,7 +17239,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="113" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C40" s="139">
         <f>C13*0.7</f>
@@ -17269,7 +17260,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="113" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C41" s="139">
         <f t="shared" ref="C41:F41" si="6">C14*0.7</f>
@@ -17290,7 +17281,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="113" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C42" s="139">
         <f t="shared" ref="C42:F42" si="7">C15*0.7</f>
@@ -17319,7 +17310,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B44" s="104"/>
       <c r="C44" s="115"/>
@@ -17497,7 +17488,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B54" s="141"/>
       <c r="C54" s="142"/>
@@ -17507,7 +17498,7 @@
     </row>
     <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17527,7 +17518,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B57" s="104"/>
       <c r="C57" s="105"/>
@@ -17627,7 +17618,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C63" s="139">
         <f>C9*1.3</f>
@@ -17648,7 +17639,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="99" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B65" s="100"/>
       <c r="C65" s="110"/>
@@ -17658,7 +17649,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C66" s="108"/>
       <c r="D66" s="95"/>
@@ -17667,7 +17658,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="113" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C67" s="139">
         <f>C13*1.3</f>
@@ -17688,7 +17679,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="113" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C68" s="139">
         <f t="shared" ref="C68:F68" si="22">C14*1.3</f>
@@ -17709,7 +17700,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="113" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C69" s="139">
         <f t="shared" ref="C69:F69" si="23">C15*1.3</f>
@@ -17738,7 +17729,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B71" s="104"/>
       <c r="C71" s="115"/>
@@ -17948,18 +17939,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -17991,7 +17982,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18019,7 +18010,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18047,7 +18038,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -18075,7 +18066,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18106,7 +18097,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18134,7 +18125,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -18162,7 +18153,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -18190,7 +18181,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -18221,7 +18212,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18249,7 +18240,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -18277,7 +18268,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -18305,7 +18296,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -18336,7 +18327,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18364,7 +18355,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -18392,7 +18383,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -18420,7 +18411,7 @@
     </row>
     <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -18451,7 +18442,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18479,7 +18470,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -18507,7 +18498,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -18535,7 +18526,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -18566,7 +18557,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18594,7 +18585,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -18622,7 +18613,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -18650,7 +18641,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18678,18 +18669,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -18721,7 +18712,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -18749,7 +18740,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -18836,7 +18827,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -18864,7 +18855,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18951,7 +18942,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -18979,7 +18970,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -19066,7 +19057,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19094,7 +19085,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -19181,7 +19172,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19209,7 +19200,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -19296,7 +19287,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19324,7 +19315,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -19412,7 +19403,7 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -19420,10 +19411,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D56" s="103" t="s">
         <v>53</v>
@@ -19449,7 +19440,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -19471,7 +19462,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -19496,7 +19487,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -19518,7 +19509,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -19543,7 +19534,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -19565,7 +19556,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -19591,7 +19582,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -19599,10 +19590,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -19634,7 +19625,7 @@
         <v>73</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19662,7 +19653,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19690,7 +19681,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19718,7 +19709,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19749,7 +19740,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19777,7 +19768,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19805,7 +19796,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -19833,7 +19824,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -19864,7 +19855,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -19892,7 +19883,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -19920,7 +19911,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -19948,7 +19939,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -19979,7 +19970,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20007,7 +19998,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20035,7 +20026,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20063,7 +20054,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20094,7 +20085,7 @@
         <v>71</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20122,7 +20113,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20150,7 +20141,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20178,7 +20169,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20209,7 +20200,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20237,7 +20228,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20265,7 +20256,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20293,7 +20284,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20324,7 +20315,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20352,7 +20343,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20380,7 +20371,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20408,7 +20399,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20439,7 +20430,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20467,7 +20458,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20495,7 +20486,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20523,7 +20514,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20554,7 +20545,7 @@
         <v>20</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20582,7 +20573,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20610,7 +20601,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20638,7 +20629,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20666,7 +20657,7 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -20674,10 +20665,10 @@
         <v>71</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -20707,7 +20698,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20735,7 +20726,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20763,7 +20754,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20791,7 +20782,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -20819,13 +20810,13 @@
     </row>
     <row r="110" spans="1:16" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H110" s="140"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B111" s="100"/>
       <c r="C111" s="100"/>
@@ -20837,13 +20828,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B112" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C112" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D112" s="103" t="s">
         <v>1</v>
@@ -20867,7 +20858,7 @@
         <v>71</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -20892,7 +20883,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D114" s="139">
         <f t="shared" ref="D114:H114" si="1">D4*0.8</f>
@@ -20917,7 +20908,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D115" s="139">
         <f t="shared" ref="D115:H115" si="2">D5*0.8</f>
@@ -20942,7 +20933,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D116" s="139">
         <f t="shared" ref="D116:H116" si="3">D6*0.8</f>
@@ -20970,7 +20961,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -20995,7 +20986,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D118" s="139">
         <f t="shared" ref="D118:H118" si="5">D8*0.8</f>
@@ -21020,7 +21011,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D119" s="139">
         <f t="shared" ref="D119:H119" si="6">D9*0.8</f>
@@ -21045,7 +21036,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D120" s="139">
         <f t="shared" ref="D120:H120" si="7">D10*0.8</f>
@@ -21073,7 +21064,7 @@
         <v>18</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21098,7 +21089,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D122" s="139">
         <f t="shared" ref="D122:H122" si="9">D12*0.8</f>
@@ -21123,7 +21114,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D123" s="139">
         <f t="shared" ref="D123:H123" si="10">D13*0.8</f>
@@ -21148,7 +21139,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D124" s="139">
         <f t="shared" ref="D124:H124" si="11">D14*0.8</f>
@@ -21176,7 +21167,7 @@
         <v>19</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21201,7 +21192,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D126" s="139">
         <f t="shared" ref="D126:H126" si="13">D16*0.8</f>
@@ -21226,7 +21217,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D127" s="139">
         <f t="shared" ref="D127:H127" si="14">D17*0.8</f>
@@ -21251,7 +21242,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D128" s="139">
         <f t="shared" ref="D128:H128" si="15">D18*0.8</f>
@@ -21279,7 +21270,7 @@
         <v>17</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21304,7 +21295,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D130" s="139">
         <f t="shared" ref="D130:H130" si="17">D20*0.8</f>
@@ -21329,7 +21320,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C131" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D131" s="139">
         <f t="shared" ref="D131:H131" si="18">D21*0.8</f>
@@ -21354,7 +21345,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D132" s="139">
         <f t="shared" ref="D132:H132" si="19">D22*0.8</f>
@@ -21382,7 +21373,7 @@
         <v>23</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21407,7 +21398,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D134" s="139">
         <f t="shared" ref="D134:H134" si="21">D24*0.8</f>
@@ -21432,7 +21423,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D135" s="139">
         <f t="shared" ref="D135:H135" si="22">D25*0.8</f>
@@ -21457,7 +21448,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D136" s="139">
         <f t="shared" ref="D136:H136" si="23">D26*0.8</f>
@@ -21482,7 +21473,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="99" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B138" s="100"/>
       <c r="C138" s="100"/>
@@ -21494,13 +21485,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B139" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C139" s="94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D139" s="103" t="s">
         <v>1</v>
@@ -21524,7 +21515,7 @@
         <v>71</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21549,7 +21540,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D141" s="139">
         <f t="shared" ref="D141:H141" si="25">D31*0.7</f>
@@ -21627,7 +21618,7 @@
         <v>16</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21652,7 +21643,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C145" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D145" s="139">
         <f t="shared" ref="D145:H145" si="29">D35*0.7</f>
@@ -21730,7 +21721,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -21755,7 +21746,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C149" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D149" s="139">
         <f t="shared" ref="D149:H149" si="33">D39*0.7</f>
@@ -21833,7 +21824,7 @@
         <v>19</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -21858,7 +21849,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C153" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D153" s="139">
         <f t="shared" ref="D153:H153" si="37">D43*0.7</f>
@@ -21936,7 +21927,7 @@
         <v>17</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -21961,7 +21952,7 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C157" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D157" s="139">
         <f t="shared" ref="D157:H157" si="41">D47*0.7</f>
@@ -22039,7 +22030,7 @@
         <v>23</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22064,7 +22055,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D161" s="139">
         <f t="shared" ref="D161:H161" si="45">D51*0.7</f>
@@ -22143,7 +22134,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B165" s="100"/>
       <c r="C165" s="100"/>
@@ -22158,10 +22149,10 @@
         <v>70</v>
       </c>
       <c r="B166" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C166" s="123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D166" s="103" t="s">
         <v>53</v>
@@ -22183,7 +22174,7 @@
         <v>38</v>
       </c>
       <c r="C167" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D167" s="139">
         <f>D57*0.7</f>
@@ -22205,7 +22196,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D168" s="139">
         <f t="shared" ref="D168:G168" si="49">D58*0.7</f>
@@ -22230,7 +22221,7 @@
         <v>39</v>
       </c>
       <c r="C169" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D169" s="139">
         <f t="shared" ref="D169:G169" si="50">D59*0.7</f>
@@ -22252,7 +22243,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C170" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D170" s="139">
         <f t="shared" ref="D170:G170" si="51">D60*0.7</f>
@@ -22277,7 +22268,7 @@
         <v>40</v>
       </c>
       <c r="C171" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D171" s="139">
         <f t="shared" ref="D171:G171" si="52">D61*0.7</f>
@@ -22299,7 +22290,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C172" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D172" s="139">
         <f t="shared" ref="D172:G172" si="53">D62*0.7</f>
@@ -22325,7 +22316,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B174" s="100"/>
       <c r="C174" s="100"/>
@@ -22340,10 +22331,10 @@
         <v>24</v>
       </c>
       <c r="B175" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C175" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D175" s="103" t="s">
         <v>1</v>
@@ -22367,7 +22358,7 @@
         <v>73</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22391,7 +22382,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22415,7 +22406,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22439,7 +22430,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22466,7 +22457,7 @@
         <v>7</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22490,7 +22481,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22514,7 +22505,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22538,7 +22529,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22565,7 +22556,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22589,7 +22580,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22613,7 +22604,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22637,7 +22628,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22664,7 +22655,7 @@
         <v>13</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22688,7 +22679,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22712,7 +22703,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22736,7 +22727,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22763,7 +22754,7 @@
         <v>71</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22787,7 +22778,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22811,7 +22802,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -22835,7 +22826,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -22862,7 +22853,7 @@
         <v>16</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -22886,7 +22877,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -22910,7 +22901,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -22934,7 +22925,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -22961,7 +22952,7 @@
         <v>18</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -22985,7 +22976,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23009,7 +23000,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23033,7 +23024,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23060,7 +23051,7 @@
         <v>17</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23084,7 +23075,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23108,7 +23099,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23132,7 +23123,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23159,7 +23150,7 @@
         <v>20</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23183,7 +23174,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23207,7 +23198,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23231,7 +23222,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23255,7 +23246,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B213" s="100"/>
       <c r="C213" s="100"/>
@@ -23270,10 +23261,10 @@
         <v>71</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C214" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D214" s="103" t="s">
         <v>1</v>
@@ -23295,7 +23286,7 @@
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23319,7 +23310,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23343,7 +23334,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23367,7 +23358,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23391,13 +23382,13 @@
     </row>
     <row r="220" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H220" s="140"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B221" s="100"/>
       <c r="C221" s="100"/>
@@ -23410,13 +23401,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B222" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C222" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D222" s="103" t="s">
         <v>1</v>
@@ -23441,7 +23432,7 @@
         <v>71</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23467,7 +23458,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C224" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D224" s="139">
         <f t="shared" ref="D224:H224" si="95">D4*1.2</f>
@@ -23493,7 +23484,7 @@
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C225" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D225" s="139">
         <f t="shared" ref="D225:H225" si="96">D5*1.2</f>
@@ -23519,7 +23510,7 @@
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C226" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D226" s="139">
         <f t="shared" ref="D226:H226" si="97">D6*1.2</f>
@@ -23548,7 +23539,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23574,7 +23565,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C228" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D228" s="139">
         <f t="shared" ref="D228:H228" si="99">D8*1.2</f>
@@ -23600,7 +23591,7 @@
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C229" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D229" s="139">
         <f t="shared" ref="D229:H229" si="100">D9*1.2</f>
@@ -23626,7 +23617,7 @@
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C230" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D230" s="139">
         <f t="shared" ref="D230:H230" si="101">D10*1.2</f>
@@ -23655,7 +23646,7 @@
         <v>18</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23681,7 +23672,7 @@
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C232" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D232" s="139">
         <f t="shared" ref="D232:H232" si="103">D12*1.2</f>
@@ -23707,7 +23698,7 @@
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C233" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D233" s="139">
         <f t="shared" ref="D233:H233" si="104">D13*1.2</f>
@@ -23733,7 +23724,7 @@
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C234" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D234" s="139">
         <f t="shared" ref="D234:H234" si="105">D14*1.2</f>
@@ -23762,7 +23753,7 @@
         <v>19</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -23788,7 +23779,7 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C236" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D236" s="139">
         <f t="shared" ref="D236:H236" si="107">D16*1.2</f>
@@ -23814,7 +23805,7 @@
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C237" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D237" s="139">
         <f t="shared" ref="D237:H237" si="108">D17*1.2</f>
@@ -23840,7 +23831,7 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C238" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D238" s="139">
         <f t="shared" ref="D238:H238" si="109">D18*1.2</f>
@@ -23869,7 +23860,7 @@
         <v>17</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -23895,7 +23886,7 @@
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C240" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D240" s="139">
         <f t="shared" ref="D240:H240" si="111">D20*1.2</f>
@@ -23921,7 +23912,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C241" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D241" s="139">
         <f t="shared" ref="D241:H241" si="112">D21*1.2</f>
@@ -23947,7 +23938,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C242" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D242" s="139">
         <f t="shared" ref="D242:H242" si="113">D22*1.2</f>
@@ -23976,7 +23967,7 @@
         <v>23</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24002,7 +23993,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C244" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D244" s="139">
         <f t="shared" ref="D244:H244" si="115">D24*1.2</f>
@@ -24028,7 +24019,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C245" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D245" s="139">
         <f t="shared" ref="D245:H245" si="116">D25*1.2</f>
@@ -24054,7 +24045,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C246" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D246" s="139">
         <f t="shared" ref="D246:H246" si="117">D26*1.2</f>
@@ -24080,7 +24071,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="99" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B248" s="100"/>
       <c r="C248" s="100"/>
@@ -24093,13 +24084,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B249" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C249" s="94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D249" s="103" t="s">
         <v>1</v>
@@ -24124,7 +24115,7 @@
         <v>71</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24150,7 +24141,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C251" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D251" s="139">
         <f t="shared" ref="D251:H251" si="119">D31*1.2</f>
@@ -24231,7 +24222,7 @@
         <v>16</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24257,7 +24248,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C255" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D255" s="139">
         <f t="shared" ref="D255:H255" si="123">D35*1.2</f>
@@ -24338,7 +24329,7 @@
         <v>18</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24364,7 +24355,7 @@
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C259" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D259" s="139">
         <f t="shared" ref="D259:H259" si="127">D39*1.2</f>
@@ -24445,7 +24436,7 @@
         <v>19</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24471,7 +24462,7 @@
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C263" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D263" s="139">
         <f t="shared" ref="D263:H263" si="131">D43*1.2</f>
@@ -24552,7 +24543,7 @@
         <v>17</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24578,7 +24569,7 @@
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C267" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D267" s="139">
         <f t="shared" ref="D267:H267" si="135">D47*1.2</f>
@@ -24659,7 +24650,7 @@
         <v>23</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24685,7 +24676,7 @@
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C271" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D271" s="139">
         <f t="shared" ref="D271:H271" si="139">D51*1.2</f>
@@ -24767,7 +24758,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B275" s="100"/>
       <c r="C275" s="100"/>
@@ -24783,10 +24774,10 @@
         <v>70</v>
       </c>
       <c r="B276" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C276" s="123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D276" s="103" t="s">
         <v>53</v>
@@ -24809,7 +24800,7 @@
         <v>38</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D277" s="139">
         <f>D57*1.2</f>
@@ -24831,7 +24822,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D278" s="139">
         <f t="shared" ref="D278:G278" si="143">D58*1.2</f>
@@ -24856,7 +24847,7 @@
         <v>39</v>
       </c>
       <c r="C279" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D279" s="139">
         <f t="shared" ref="D279:G279" si="144">D59*1.2</f>
@@ -24878,7 +24869,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D280" s="139">
         <f t="shared" ref="D280:G280" si="145">D60*1.2</f>
@@ -24903,7 +24894,7 @@
         <v>40</v>
       </c>
       <c r="C281" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D281" s="139">
         <f t="shared" ref="D281:G281" si="146">D61*1.2</f>
@@ -24925,7 +24916,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C282" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D282" s="139">
         <f t="shared" ref="D282:G282" si="147">D62*1.2</f>
@@ -24951,7 +24942,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B284" s="100"/>
       <c r="C284" s="100"/>
@@ -24967,10 +24958,10 @@
         <v>24</v>
       </c>
       <c r="B285" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C285" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D285" s="103" t="s">
         <v>1</v>
@@ -24995,7 +24986,7 @@
         <v>73</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25020,7 +25011,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25045,7 +25036,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25070,7 +25061,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25098,7 +25089,7 @@
         <v>7</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25123,7 +25114,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25148,7 +25139,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25173,7 +25164,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25201,7 +25192,7 @@
         <v>8</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25226,7 +25217,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25251,7 +25242,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25276,7 +25267,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25304,7 +25295,7 @@
         <v>13</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25329,7 +25320,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25354,7 +25345,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25379,7 +25370,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25407,7 +25398,7 @@
         <v>71</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25432,7 +25423,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25457,7 +25448,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25482,7 +25473,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25510,7 +25501,7 @@
         <v>16</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25535,7 +25526,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25560,7 +25551,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25585,7 +25576,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25613,7 +25604,7 @@
         <v>18</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25638,7 +25629,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25663,7 +25654,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25688,7 +25679,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25716,7 +25707,7 @@
         <v>17</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25741,7 +25732,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25766,7 +25757,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25791,7 +25782,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25819,7 +25810,7 @@
         <v>20</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -25844,7 +25835,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -25869,7 +25860,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -25894,7 +25885,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -25919,7 +25910,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B323" s="100"/>
       <c r="C323" s="100"/>
@@ -25935,10 +25926,10 @@
         <v>71</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C324" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D324" s="103" t="s">
         <v>1</v>
@@ -25961,7 +25952,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -25986,7 +25977,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26011,7 +26002,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26036,7 +26027,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26094,7 +26085,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26120,10 +26111,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26141,7 +26132,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -26161,7 +26152,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26186,7 +26177,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -26234,13 +26225,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -26264,15 +26255,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -26293,7 +26284,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -26316,7 +26307,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -26337,7 +26328,7 @@
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26356,7 +26347,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -26373,12 +26364,12 @@
     </row>
     <row r="22" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
@@ -26410,10 +26401,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="113" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C25" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D25" s="136">
         <f>D3*0.9</f>
@@ -26435,7 +26426,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="117" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C26" s="136">
         <f t="shared" si="0"/>
@@ -26460,12 +26451,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="104" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="117" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C28" s="136">
         <f>C6*0.9</f>
@@ -26490,7 +26481,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="117" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:G29" si="2">C7*0.9</f>
@@ -26515,7 +26506,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="117" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:G30" si="3">C8*0.9</f>
@@ -26548,7 +26539,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="99" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="100"/>
@@ -26560,7 +26551,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="104"/>
       <c r="B33" s="113" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C33" s="136">
         <f>C11*0.9</f>
@@ -26586,7 +26577,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B35" s="100"/>
       <c r="C35" s="100"/>
@@ -26597,10 +26588,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C36" s="136">
         <f>C14*0.9</f>
@@ -26626,7 +26617,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="117" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C37" s="136">
         <f t="shared" ref="C37:G37" si="6">C15*0.9</f>
@@ -26654,7 +26645,7 @@
         <v>70</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" ref="C38:G38" si="7">C16*0.9</f>
@@ -26679,7 +26670,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="99" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="100"/>
@@ -26707,7 +26698,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="113" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C42" s="136">
         <f>C20*0.9</f>
@@ -26728,12 +26719,12 @@
     </row>
     <row r="44" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="100"/>
@@ -26765,10 +26756,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="113" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C47" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D47" s="136">
         <f>D3*1.05</f>
@@ -26790,7 +26781,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="40"/>
       <c r="B48" s="117" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C48" s="136">
         <f t="shared" si="9"/>
@@ -26815,12 +26806,12 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="104" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C50" s="136">
         <f>C6*1.05</f>
@@ -26845,7 +26836,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:G51" si="11">C7*1.05</f>
@@ -26870,7 +26861,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:G52" si="12">C8*1.05</f>
@@ -26903,7 +26894,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="99" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B54" s="100"/>
       <c r="C54" s="100"/>
@@ -26915,7 +26906,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="104"/>
       <c r="B55" s="113" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C55" s="136">
         <f>C11*1.1</f>
@@ -26941,7 +26932,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B57" s="100"/>
       <c r="C57" s="100"/>
@@ -26952,10 +26943,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C58" s="136">
         <f>C14*1.05</f>
@@ -26981,7 +26972,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="40"/>
       <c r="B59" s="117" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C59" s="136">
         <f t="shared" ref="C59:G59" si="15">C15*1.05</f>
@@ -27009,7 +27000,7 @@
         <v>70</v>
       </c>
       <c r="B60" s="113" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C60" s="136">
         <f t="shared" ref="C60:G60" si="16">C16*1.05</f>
@@ -27034,7 +27025,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="99" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B62" s="100"/>
       <c r="C62" s="100"/>
@@ -27062,7 +27053,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B64" s="113" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C64" s="136">
         <f>C20*1.05</f>
@@ -27135,7 +27126,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -27153,7 +27144,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -27170,10 +27161,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C4" s="136">
         <v>0.15</v>
@@ -27191,7 +27182,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -27208,10 +27199,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C6" s="136">
         <v>0.15</v>
@@ -27229,7 +27220,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -27249,7 +27240,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -27267,7 +27258,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -27287,7 +27278,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -27305,7 +27296,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -27325,7 +27316,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C12" s="136">
         <v>0.23</v>
@@ -27343,7 +27334,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -27360,7 +27351,7 @@
     </row>
     <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27386,7 +27377,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C17" s="136">
         <f>C2*0.9</f>
@@ -27408,7 +27399,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="90"/>
       <c r="B18" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C18" s="136">
         <f t="shared" ref="C18:F18" si="1">C3*0.9</f>
@@ -27429,10 +27420,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C19" s="136">
         <f t="shared" ref="C19:F19" si="2">C4*0.9</f>
@@ -27454,7 +27445,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
       <c r="B20" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C20" s="136">
         <f t="shared" ref="C20:F20" si="3">C5*0.9</f>
@@ -27475,10 +27466,10 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C21" s="136">
         <f t="shared" ref="C21:F21" si="4">C6*0.9</f>
@@ -27500,7 +27491,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="90"/>
       <c r="B22" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C22" s="136">
         <f t="shared" ref="C22:F22" si="5">C7*0.9</f>
@@ -27524,7 +27515,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C23" s="136">
         <f t="shared" ref="C23:F23" si="6">C8*0.9</f>
@@ -27546,7 +27537,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="90"/>
       <c r="B24" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C24" s="136">
         <f t="shared" ref="C24:F24" si="7">C9*0.9</f>
@@ -27570,7 +27561,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C25" s="136">
         <f t="shared" ref="C25:F25" si="8">C10*0.9</f>
@@ -27592,7 +27583,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90"/>
       <c r="B26" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C26" s="136">
         <f t="shared" ref="C26:F26" si="9">C11*0.9</f>
@@ -27616,7 +27607,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:F27" si="10">C12*0.9</f>
@@ -27638,7 +27629,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="90"/>
       <c r="B28" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:F28" si="11">C13*0.9</f>
@@ -27659,7 +27650,7 @@
     </row>
     <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27685,7 +27676,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C32" s="136">
         <f>C2*1.05</f>
@@ -27707,7 +27698,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="90"/>
       <c r="B33" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:F33" si="13">C3*1.05</f>
@@ -27728,10 +27719,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C34" s="136">
         <f t="shared" ref="C34:F34" si="14">C4*1.05</f>
@@ -27753,7 +27744,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="90"/>
       <c r="B35" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C35" s="136">
         <f t="shared" ref="C35:F35" si="15">C5*1.05</f>
@@ -27774,10 +27765,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C36" s="136">
         <f t="shared" ref="C36:F36" si="16">C6*1.05</f>
@@ -27799,7 +27790,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="90"/>
       <c r="B37" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C37" s="136">
         <f t="shared" ref="C37:F37" si="17">C7*1.05</f>
@@ -27823,7 +27814,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" ref="C38:F38" si="18">C8*1.05</f>
@@ -27845,7 +27836,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="90"/>
       <c r="B39" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C39" s="136">
         <f t="shared" ref="C39:F39" si="19">C9*1.05</f>
@@ -27869,7 +27860,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C40" s="136">
         <f t="shared" ref="C40:F40" si="20">C10*1.05</f>
@@ -27891,7 +27882,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="90"/>
       <c r="B41" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C41" s="136">
         <f t="shared" ref="C41:F41" si="21">C11*1.05</f>
@@ -27915,7 +27906,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:F42" si="22">C12*1.05</f>
@@ -27937,7 +27928,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90"/>
       <c r="B43" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:F43" si="23">C13*1.05</f>
@@ -27973,8 +27964,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28030,12 +28021,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28079,7 +28070,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28123,7 +28114,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28167,7 +28158,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28211,7 +28202,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28255,7 +28246,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28299,7 +28290,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28387,7 +28378,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -28475,7 +28466,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -28563,7 +28554,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B16" s="59"/>
     </row>
@@ -28745,7 +28736,7 @@
     </row>
     <row r="22" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -28793,12 +28784,12 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C25" s="136">
         <f>C3*0.9</f>
@@ -28855,7 +28846,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C26" s="136">
         <f t="shared" ref="C26:O26" si="1">C4*0.9</f>
@@ -28912,7 +28903,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="2">C5*0.9</f>
@@ -28969,7 +28960,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="3">C6*0.9</f>
@@ -29026,7 +29017,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="4">C7*0.9</f>
@@ -29083,7 +29074,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="5">C8*0.9</f>
@@ -29140,7 +29131,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="6">C9*0.9</f>
@@ -29254,7 +29245,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="90" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="8">C11*0.9</f>
@@ -29368,7 +29359,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35" s="136">
         <f t="shared" ref="C35:O35" si="10">C13*0.9</f>
@@ -29482,7 +29473,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B38" s="59"/>
     </row>
@@ -29716,7 +29707,7 @@
     </row>
     <row r="44" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="140" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -29764,12 +29755,12 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B47" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" s="136">
         <f>C3*1.05</f>
@@ -29826,7 +29817,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B48" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C48" s="136">
         <f t="shared" ref="C48:O48" si="17">C4*1.05</f>
@@ -29883,7 +29874,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C49" s="136">
         <f t="shared" ref="C49:O49" si="18">C5*1.05</f>
@@ -29940,7 +29931,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="19">C6*1.05</f>
@@ -29997,7 +29988,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="20">C7*1.05</f>
@@ -30054,7 +30045,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="21">C8*1.05</f>
@@ -30111,7 +30102,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="22">C9*1.05</f>
@@ -30225,7 +30216,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="24">C11*1.05</f>
@@ -30339,7 +30330,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B57" s="59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C57" s="136">
         <f t="shared" ref="C57:O57" si="26">C13*1.05</f>
@@ -30453,7 +30444,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B60" s="59"/>
     </row>
@@ -30735,7 +30726,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -30760,7 +30751,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -30771,7 +30762,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -30791,7 +30782,7 @@
     </row>
     <row r="7" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -30815,7 +30806,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -30845,7 +30836,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="127"/>
@@ -30856,7 +30847,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -30881,7 +30872,7 @@
     </row>
     <row r="14" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="140" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -30905,7 +30896,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -30935,7 +30926,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="127"/>
@@ -30946,7 +30937,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31008,10 +30999,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -31037,7 +31028,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -31057,7 +31048,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -31077,7 +31068,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -31103,7 +31094,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -31123,7 +31114,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -31146,7 +31137,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -31166,7 +31157,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -31186,13 +31177,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -31212,7 +31203,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -31235,7 +31226,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -31255,7 +31246,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -31281,7 +31272,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -31301,7 +31292,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -31325,7 +31316,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -31346,7 +31337,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -31373,7 +31364,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -31394,7 +31385,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D18" s="136">
         <v>0.46</v>
@@ -31421,7 +31412,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -31441,7 +31432,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D20" s="136">
         <v>0.46</v>
@@ -31467,7 +31458,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -31487,7 +31478,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D22" s="136">
         <v>0.46</v>
@@ -31513,7 +31504,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -31533,7 +31524,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -31553,7 +31544,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -31579,7 +31570,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -31599,7 +31590,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -31619,7 +31610,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -31645,7 +31636,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -31665,7 +31656,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -31685,7 +31676,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -31711,7 +31702,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -31731,7 +31722,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -31751,7 +31742,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -31777,7 +31768,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -31797,7 +31788,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -31817,7 +31808,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -31843,7 +31834,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -31863,7 +31854,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -31883,7 +31874,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -31906,7 +31897,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -31926,7 +31917,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D42" s="136">
         <v>0.49</v>
@@ -31946,7 +31937,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D43" s="136">
         <v>0.52</v>
@@ -31972,7 +31963,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -31992,7 +31983,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D45" s="136">
         <v>0.93</v>
@@ -32018,7 +32009,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -32038,7 +32029,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D47" s="136">
         <v>0.86</v>
@@ -32058,13 +32049,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -32084,7 +32075,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D49" s="136">
         <v>0.51</v>
@@ -32104,7 +32095,7 @@
     </row>
     <row r="51" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="144" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B51" s="145"/>
       <c r="C51" s="145"/>
@@ -32114,10 +32105,10 @@
         <v>69</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>1</v>
@@ -32143,7 +32134,7 @@
         <v>71</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D53" s="136">
         <f>D2*0.9</f>
@@ -32168,7 +32159,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C54" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D54" s="136">
         <f t="shared" ref="D54:H54" si="1">D3*0.9</f>
@@ -32193,7 +32184,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C55" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D55" s="136">
         <f t="shared" ref="D55:H55" si="2">D4*0.9</f>
@@ -32224,7 +32215,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D56" s="136">
         <f t="shared" ref="D56:H56" si="3">D5*0.9</f>
@@ -32249,7 +32240,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C57" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D57" s="136">
         <f t="shared" ref="D57:H57" si="4">D6*0.9</f>
@@ -32277,7 +32268,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D58" s="136">
         <f t="shared" ref="D58:H58" si="5">D7*0.9</f>
@@ -32302,7 +32293,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D59" s="136">
         <f t="shared" ref="D59:H59" si="6">D8*0.9</f>
@@ -32327,13 +32318,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B60" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D60" s="136">
         <f t="shared" ref="D60:H60" si="7">D9*0.9</f>
@@ -32358,7 +32349,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D61" s="136">
         <f t="shared" ref="D61:H61" si="8">D10*0.9</f>
@@ -32386,7 +32377,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D62" s="136">
         <f t="shared" ref="D62:H62" si="9">D11*0.9</f>
@@ -32411,7 +32402,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D63" s="136">
         <f t="shared" ref="D63:H63" si="10">D12*0.9</f>
@@ -32442,7 +32433,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D64" s="136">
         <f t="shared" ref="D64:H64" si="11">D13*0.9</f>
@@ -32467,7 +32458,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D65" s="136">
         <f t="shared" ref="D65:H65" si="12">D14*0.9</f>
@@ -32495,7 +32486,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D66" s="136">
         <f t="shared" ref="D66:H66" si="13">D15*0.9</f>
@@ -32520,7 +32511,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D67" s="136">
         <f t="shared" ref="D67:H67" si="14">D16*0.9</f>
@@ -32551,7 +32542,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D68" s="136">
         <f t="shared" ref="D68:H68" si="15">D17*0.9</f>
@@ -32576,7 +32567,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D69" s="136">
         <f t="shared" ref="D69:H69" si="16">D18*0.9</f>
@@ -32607,7 +32598,7 @@
         <v>27</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D70" s="136">
         <f t="shared" ref="D70:H70" si="17">D19*0.9</f>
@@ -32632,7 +32623,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D71" s="136">
         <f t="shared" ref="D71:H71" si="18">D20*0.9</f>
@@ -32663,7 +32654,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D72" s="136">
         <f t="shared" ref="D72:H72" si="19">D21*0.9</f>
@@ -32688,7 +32679,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D73" s="136">
         <f t="shared" ref="D73:H73" si="20">D22*0.9</f>
@@ -32719,7 +32710,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D74" s="136">
         <f t="shared" ref="D74:H74" si="21">D23*0.9</f>
@@ -32744,7 +32735,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D75" s="136">
         <f t="shared" ref="D75:H75" si="22">D24*0.9</f>
@@ -32769,7 +32760,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C76" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D76" s="136">
         <f t="shared" ref="D76:H76" si="23">D25*0.9</f>
@@ -32800,7 +32791,7 @@
         <v>71</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D77" s="136">
         <f t="shared" ref="D77:H77" si="24">D26*0.9</f>
@@ -32825,7 +32816,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C78" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D78" s="136">
         <f t="shared" ref="D78:H78" si="25">D27*0.9</f>
@@ -32850,7 +32841,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D79" s="136">
         <f t="shared" ref="D79:H79" si="26">D28*0.9</f>
@@ -32881,7 +32872,7 @@
         <v>71</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D80" s="136">
         <f t="shared" ref="D80:H80" si="27">D29*0.9</f>
@@ -32906,7 +32897,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D81" s="136">
         <f t="shared" ref="D81:H81" si="28">D30*0.9</f>
@@ -32931,7 +32922,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C82" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D82" s="136">
         <f t="shared" ref="D82:H82" si="29">D31*0.9</f>
@@ -32962,7 +32953,7 @@
         <v>71</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D83" s="136">
         <f t="shared" ref="D83:H83" si="30">D32*0.9</f>
@@ -32987,7 +32978,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D84" s="136">
         <f t="shared" ref="D84:H84" si="31">D33*0.9</f>
@@ -33012,7 +33003,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C85" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D85" s="136">
         <f t="shared" ref="D85:H85" si="32">D34*0.9</f>
@@ -33043,7 +33034,7 @@
         <v>71</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D86" s="136">
         <f t="shared" ref="D86:H86" si="33">D35*0.9</f>
@@ -33068,7 +33059,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D87" s="136">
         <f t="shared" ref="D87:H87" si="34">D36*0.9</f>
@@ -33093,7 +33084,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C88" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D88" s="136">
         <f t="shared" ref="D88:H88" si="35">D37*0.9</f>
@@ -33124,7 +33115,7 @@
         <v>71</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D89" s="136">
         <f t="shared" ref="D89:H89" si="36">D38*0.9</f>
@@ -33149,7 +33140,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D90" s="136">
         <f t="shared" ref="D90:H90" si="37">D39*0.9</f>
@@ -33174,7 +33165,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C91" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D91" s="136">
         <f t="shared" ref="D91:H91" si="38">D40*0.9</f>
@@ -33202,7 +33193,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D92" s="136">
         <f t="shared" ref="D92:H92" si="39">D41*0.9</f>
@@ -33227,7 +33218,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D93" s="136">
         <f t="shared" ref="D93:H93" si="40">D42*0.9</f>
@@ -33252,7 +33243,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C94" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D94" s="136">
         <f t="shared" ref="D94:H94" si="41">D43*0.9</f>
@@ -33283,7 +33274,7 @@
         <v>71</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D95" s="136">
         <f t="shared" ref="D95:H95" si="42">D44*0.9</f>
@@ -33308,7 +33299,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D96" s="136">
         <f t="shared" ref="D96:H96" si="43">D45*0.9</f>
@@ -33339,7 +33330,7 @@
         <v>71</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D97" s="136">
         <f t="shared" ref="D97:H97" si="44">D46*0.9</f>
@@ -33364,7 +33355,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D98" s="136">
         <f t="shared" ref="D98:H98" si="45">D47*0.9</f>
@@ -33389,13 +33380,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B99" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D99" s="136">
         <f t="shared" ref="D99:H99" si="46">D48*0.9</f>
@@ -33420,7 +33411,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D100" s="136">
         <f t="shared" ref="D100:H100" si="47">D49*0.9</f>
@@ -33445,7 +33436,7 @@
     </row>
     <row r="102" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="144" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B102" s="145"/>
       <c r="C102" s="145"/>
@@ -33455,10 +33446,10 @@
         <v>69</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C103" s="125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D103" s="40" t="s">
         <v>1</v>
@@ -33484,7 +33475,7 @@
         <v>71</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D104" s="136">
         <f>D2*1.05</f>
@@ -33509,7 +33500,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C105" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D105" s="136">
         <f t="shared" ref="D105:H105" si="49">D3*1.05</f>
@@ -33534,7 +33525,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D106" s="136">
         <f t="shared" ref="D106:H106" si="50">D4*1.05</f>
@@ -33565,7 +33556,7 @@
         <v>66</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D107" s="136">
         <f t="shared" ref="D107:H107" si="51">D5*1.05</f>
@@ -33590,7 +33581,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D108" s="136">
         <f t="shared" ref="D108:H108" si="52">D6*1.05</f>
@@ -33618,7 +33609,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D109" s="136">
         <f t="shared" ref="D109:H109" si="53">D7*1.05</f>
@@ -33643,7 +33634,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C110" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D110" s="136">
         <f t="shared" ref="D110:H110" si="54">D8*1.05</f>
@@ -33668,13 +33659,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B111" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D111" s="136">
         <f t="shared" ref="D111:H111" si="55">D9*1.05</f>
@@ -33699,7 +33690,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C112" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D112" s="136">
         <f t="shared" ref="D112:H112" si="56">D10*1.05</f>
@@ -33727,7 +33718,7 @@
         <v>65</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D113" s="136">
         <f t="shared" ref="D113:H113" si="57">D11*1.05</f>
@@ -33752,7 +33743,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D114" s="136">
         <f t="shared" ref="D114:H114" si="58">D12*1.05</f>
@@ -33783,7 +33774,7 @@
         <v>66</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D115" s="136">
         <f t="shared" ref="D115:H115" si="59">D13*1.05</f>
@@ -33808,7 +33799,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D116" s="136">
         <f t="shared" ref="D116:H116" si="60">D14*1.05</f>
@@ -33836,7 +33827,7 @@
         <v>65</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D117" s="136">
         <f t="shared" ref="D117:H117" si="61">D15*1.05</f>
@@ -33861,7 +33852,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D118" s="136">
         <f t="shared" ref="D118:H118" si="62">D16*1.05</f>
@@ -33892,7 +33883,7 @@
         <v>27</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D119" s="136">
         <f t="shared" ref="D119:H119" si="63">D17*1.05</f>
@@ -33917,7 +33908,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D120" s="136">
         <f t="shared" ref="D120:H120" si="64">D18*1.05</f>
@@ -33948,7 +33939,7 @@
         <v>27</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D121" s="136">
         <f t="shared" ref="D121:H121" si="65">D19*1.05</f>
@@ -33973,7 +33964,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D122" s="136">
         <f t="shared" ref="D122:H122" si="66">D20*1.05</f>
@@ -34004,7 +33995,7 @@
         <v>27</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D123" s="136">
         <f t="shared" ref="D123:H123" si="67">D21*1.05</f>
@@ -34029,7 +34020,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D124" s="136">
         <f t="shared" ref="D124:H124" si="68">D22*1.05</f>
@@ -34060,7 +34051,7 @@
         <v>71</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D125" s="136">
         <f t="shared" ref="D125:H125" si="69">D23*1.05</f>
@@ -34085,7 +34076,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D126" s="136">
         <f t="shared" ref="D126:H126" si="70">D24*1.05</f>
@@ -34110,7 +34101,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D127" s="136">
         <f t="shared" ref="D127:H127" si="71">D25*1.05</f>
@@ -34141,7 +34132,7 @@
         <v>71</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D128" s="136">
         <f t="shared" ref="D128:H128" si="72">D26*1.05</f>
@@ -34166,7 +34157,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C129" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D129" s="136">
         <f t="shared" ref="D129:H129" si="73">D27*1.05</f>
@@ -34191,7 +34182,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D130" s="136">
         <f t="shared" ref="D130:H130" si="74">D28*1.05</f>
@@ -34222,7 +34213,7 @@
         <v>71</v>
       </c>
       <c r="C131" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D131" s="136">
         <f t="shared" ref="D131:H131" si="75">D29*1.05</f>
@@ -34247,7 +34238,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D132" s="136">
         <f t="shared" ref="D132:H132" si="76">D30*1.05</f>
@@ -34272,7 +34263,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C133" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D133" s="136">
         <f t="shared" ref="D133:H133" si="77">D31*1.05</f>
@@ -34303,7 +34294,7 @@
         <v>71</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D134" s="136">
         <f t="shared" ref="D134:H134" si="78">D32*1.05</f>
@@ -34328,7 +34319,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D135" s="136">
         <f t="shared" ref="D135:H135" si="79">D33*1.05</f>
@@ -34353,7 +34344,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D136" s="136">
         <f t="shared" ref="D136:H136" si="80">D34*1.05</f>
@@ -34384,7 +34375,7 @@
         <v>71</v>
       </c>
       <c r="C137" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D137" s="136">
         <f t="shared" ref="D137:H137" si="81">D35*1.05</f>
@@ -34409,7 +34400,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D138" s="136">
         <f t="shared" ref="D138:H138" si="82">D36*1.05</f>
@@ -34434,7 +34425,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D139" s="136">
         <f t="shared" ref="D139:H139" si="83">D37*1.05</f>
@@ -34465,7 +34456,7 @@
         <v>71</v>
       </c>
       <c r="C140" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D140" s="136">
         <f t="shared" ref="D140:H140" si="84">D38*1.05</f>
@@ -34490,7 +34481,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D141" s="136">
         <f t="shared" ref="D141:H141" si="85">D39*1.05</f>
@@ -34515,7 +34506,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D142" s="136">
         <f t="shared" ref="D142:H142" si="86">D40*1.05</f>
@@ -34543,7 +34534,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D143" s="136">
         <f t="shared" ref="D143:H143" si="87">D41*1.05</f>
@@ -34568,7 +34559,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D144" s="136">
         <f t="shared" ref="D144:H144" si="88">D42*1.05</f>
@@ -34593,7 +34584,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C145" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D145" s="136">
         <f t="shared" ref="D145:H145" si="89">D43*1.05</f>
@@ -34624,7 +34615,7 @@
         <v>71</v>
       </c>
       <c r="C146" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D146" s="136">
         <f t="shared" ref="D146:H146" si="90">D44*1.05</f>
@@ -34649,7 +34640,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C147" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D147" s="136">
         <f t="shared" ref="D147:H147" si="91">D45*1.05</f>
@@ -34680,7 +34671,7 @@
         <v>71</v>
       </c>
       <c r="C148" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D148" s="136">
         <f t="shared" ref="D148:H148" si="92">D46*1.05</f>
@@ -34705,7 +34696,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C149" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D149" s="136">
         <f t="shared" ref="D149:H149" si="93">D47*1.05</f>
@@ -34730,13 +34721,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B150" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C150" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D150" s="136">
         <f t="shared" ref="D150:H150" si="94">D48*1.05</f>
@@ -34761,7 +34752,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C151" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D151" s="136">
         <f t="shared" ref="D151:H151" si="95">D49*1.05</f>
@@ -34819,7 +34810,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
@@ -34844,7 +34835,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -34862,7 +34853,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -34886,7 +34877,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -34905,7 +34896,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -34929,7 +34920,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -34948,7 +34939,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D7" s="136">
         <v>0.6</v>
@@ -34966,7 +34957,7 @@
     </row>
     <row r="9" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -34974,7 +34965,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
@@ -34998,7 +34989,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D11" s="136">
         <f>D2*0.9</f>
@@ -35019,7 +35010,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D12" s="136">
         <f t="shared" ref="D12:G12" si="1">D3*0.9</f>
@@ -35046,7 +35037,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D13" s="136">
         <f t="shared" ref="D13:G13" si="2">D4*0.9</f>
@@ -35068,7 +35059,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="C14" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D14" s="136">
         <f t="shared" ref="D14:G14" si="3">D5*0.9</f>
@@ -35095,7 +35086,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D15" s="136">
         <f t="shared" ref="D15:G15" si="4">D6*0.9</f>
@@ -35117,7 +35108,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="C16" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D16" s="136">
         <f t="shared" ref="D16:G16" si="5">D7*0.9</f>
@@ -35138,7 +35129,7 @@
     </row>
     <row r="18" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="140" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -35146,7 +35137,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
@@ -35170,7 +35161,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D20" s="136">
         <f>D2*1.05</f>
@@ -35191,7 +35182,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D21" s="136">
         <f t="shared" ref="D21:G21" si="7">D3*1.05</f>
@@ -35218,7 +35209,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D22" s="136">
         <f t="shared" ref="D22:G22" si="8">D4*1.05</f>
@@ -35240,7 +35231,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="C23" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D23" s="136">
         <f t="shared" ref="D23:G23" si="9">D5*1.05</f>
@@ -35267,7 +35258,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D24" s="136">
         <f t="shared" ref="D24:G24" si="10">D6*1.05</f>
@@ -35289,7 +35280,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="C25" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D25" s="136">
         <f t="shared" ref="D25:G25" si="11">D7*1.05</f>
@@ -35348,10 +35339,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -35427,7 +35418,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35450,7 +35441,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -35621,7 +35612,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35656,7 +35647,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>32</v>
@@ -35741,7 +35732,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35763,8 +35754,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35875,7 +35866,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -35914,7 +35905,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35939,7 +35930,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -35964,7 +35955,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -35984,7 +35975,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36062,7 +36053,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36176,7 +36167,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UgItZ1fUYYw4jxcRhHXwNHcUu0vhqIwiw+M/NqOF+Kwcup1Gz7SX/l9bwOv86KrlD68qT5UZTPKIb6eti+eUeQ==" saltValue="m4hom2mHEDeB1snGKNG4rA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36229,7 +36220,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36249,7 +36240,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36269,7 +36260,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36289,7 +36280,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -36338,10 +36329,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -36373,10 +36364,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -36393,10 +36384,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -36413,10 +36404,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -36444,7 +36435,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -36458,10 +36449,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -36475,7 +36466,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -36492,7 +36483,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -36506,7 +36497,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -36541,15 +36532,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -36557,7 +36548,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -36565,7 +36556,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -36573,7 +36564,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -36581,7 +36572,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -36589,7 +36580,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
@@ -36621,24 +36612,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>32</v>
@@ -36709,7 +36700,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -36717,7 +36708,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -36782,24 +36773,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36813,7 +36804,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36827,7 +36818,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36841,7 +36832,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36855,7 +36846,7 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36865,7 +36856,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
@@ -36899,16 +36890,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -36919,19 +36910,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D3" s="80"/>
     </row>

--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076B27B-87EB-4424-A17F-D35590C2661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D5944-C217-4BBB-BB4C-3741553DACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="9" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1620,11 +1620,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1938,7 +1938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2656,7 +2656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2692,8 +2692,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2703,7 +2703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2713,16 +2713,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,7 +2755,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2770,7 +2770,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2800,7 +2800,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2819,28 +2819,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2943,7 +2943,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2973,7 +2973,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5172,14 +5172,14 @@
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5190,14 +5190,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>188</v>
@@ -5206,7 +5206,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>187</v>
@@ -5215,7 +5215,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5284,7 +5284,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>124</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>130</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5650,23 +5650,23 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="35"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -5707,10 +5707,10 @@
         <v>196</v>
       </c>
       <c r="F2" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,10 +5730,10 @@
         <v>196</v>
       </c>
       <c r="F3" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5753,10 +5753,10 @@
         <v>196</v>
       </c>
       <c r="F4" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,10 +5776,10 @@
         <v>196</v>
       </c>
       <c r="F5" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,10 +5799,10 @@
         <v>196</v>
       </c>
       <c r="F6" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>196</v>
       </c>
       <c r="F7" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,10 +5845,10 @@
         <v>196</v>
       </c>
       <c r="F8" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>196</v>
       </c>
       <c r="F9" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,10 +5891,10 @@
         <v>196</v>
       </c>
       <c r="F10" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5914,10 +5914,10 @@
         <v>196</v>
       </c>
       <c r="F11" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,10 +5937,10 @@
         <v>196</v>
       </c>
       <c r="F12" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,10 +5960,10 @@
         <v>196</v>
       </c>
       <c r="F13" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,10 +5983,10 @@
         <v>196</v>
       </c>
       <c r="F14" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,10 +6006,10 @@
         <v>196</v>
       </c>
       <c r="F15" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,13 +6026,13 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6052,10 +6052,10 @@
         <v>196</v>
       </c>
       <c r="F17" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,13 +6072,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6098,10 +6098,10 @@
         <v>196</v>
       </c>
       <c r="F19" s="81">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G19" s="81">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,10 +6121,10 @@
         <v>196</v>
       </c>
       <c r="F20" s="81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G20" s="81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,10 +6144,10 @@
         <v>196</v>
       </c>
       <c r="F21" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,10 +6167,10 @@
         <v>196</v>
       </c>
       <c r="F22" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,10 +6190,10 @@
         <v>196</v>
       </c>
       <c r="F23" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6213,10 +6213,10 @@
         <v>196</v>
       </c>
       <c r="F24" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6236,10 +6236,10 @@
         <v>196</v>
       </c>
       <c r="F25" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,10 +6259,10 @@
         <v>196</v>
       </c>
       <c r="F26" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6282,10 +6282,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6305,10 +6305,10 @@
         <v>196</v>
       </c>
       <c r="F28" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,10 +6328,10 @@
         <v>196</v>
       </c>
       <c r="F29" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,10 +6351,10 @@
         <v>196</v>
       </c>
       <c r="F30" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,10 +6374,10 @@
         <v>196</v>
       </c>
       <c r="F31" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>196</v>
       </c>
       <c r="F32" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6420,10 +6420,10 @@
         <v>196</v>
       </c>
       <c r="F33" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,10 +6443,10 @@
         <v>196</v>
       </c>
       <c r="F34" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,10 +6466,10 @@
         <v>196</v>
       </c>
       <c r="F35" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,10 +6489,10 @@
         <v>196</v>
       </c>
       <c r="F36" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,10 +6512,10 @@
         <v>196</v>
       </c>
       <c r="F37" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,10 +6535,10 @@
         <v>196</v>
       </c>
       <c r="F38" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6558,10 +6558,10 @@
         <v>196</v>
       </c>
       <c r="F39" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,15 +6601,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>182</v>
       </c>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>202</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>132</v>
       </c>
@@ -6656,77 +6656,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -6750,85 +6750,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6848,7 +6848,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6962,19 +6962,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7582,7 +7582,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>182</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>202</v>
@@ -7963,7 +7963,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>37</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8722,7 +8722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -8760,16 +8760,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>153</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>152</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>151</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>150</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>149</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>148</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>147</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>146</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>145</v>
       </c>
@@ -8969,20 +8969,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>144</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>168</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>193</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>194</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>131</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>132</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>337</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>67</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>28</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>85</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
         <v>60</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="52"/>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
@@ -9708,7 +9708,7 @@
       <c r="N17" s="129"/>
       <c r="O17" s="129"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
         <v>86</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="90" t="s">
         <v>182</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="90" t="s">
         <v>202</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="91" t="s">
         <v>57</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>88</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>87</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52" t="s">
         <v>59</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="52"/>
       <c r="C26" s="129"/>
       <c r="D26" s="129"/>
@@ -10080,7 +10080,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>37</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="P27" s="92"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="59" t="s">
         <v>183</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
         <v>201</v>
@@ -10217,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>184</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="59" t="s">
         <v>185</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="52"/>
       <c r="C32" s="130"/>
       <c r="D32" s="130"/>
@@ -10321,7 +10321,7 @@
       <c r="N32" s="129"/>
       <c r="O32" s="129"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>35</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>64</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>62</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>47</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="52" t="s">
         <v>34</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
         <v>83</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>82</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>81</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>79</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="52" t="s">
         <v>80</v>
       </c>
@@ -10782,22 +10782,22 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>144</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>192</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -10938,7 +10938,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>183</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>201</v>
       </c>
@@ -11010,7 +11010,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>184</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>185</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>182</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>202</v>
       </c>
@@ -11082,7 +11082,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>168</v>
       </c>
@@ -11139,7 +11139,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>193</v>
       </c>
@@ -11158,7 +11158,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>194</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>190</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>131</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -11253,7 +11253,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -11270,7 +11270,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>132</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -11306,7 +11306,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>337</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>67</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>28</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>83</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>82</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>81</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>79</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>80</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>85</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>60</v>
       </c>
@@ -11549,22 +11549,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>211</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11657,7 +11657,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11715,7 +11715,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11923,14 +11923,14 @@
       <selection activeCell="K3" sqref="K3:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -13018,15 +13018,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>212</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>213</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
         <v>170</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
         <v>169</v>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="148" t="s">
         <v>1</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
         <v>170</v>
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
         <v>169</v>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="148" t="s">
         <v>2</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
         <v>170</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
         <v>169</v>
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="148" t="s">
         <v>3</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
         <v>170</v>
@@ -13297,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
         <v>169</v>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="148" t="s">
         <v>4</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
         <v>170</v>
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
         <v>169</v>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>167</v>
       </c>
@@ -13406,14 +13406,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>214</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
         <v>170</v>
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
         <v>169</v>
@@ -13481,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="148" t="s">
         <v>1</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
         <v>170</v>
@@ -13525,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
         <v>169</v>
@@ -13546,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="148" t="s">
         <v>2</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
         <v>170</v>
@@ -13590,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
         <v>169</v>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="148" t="s">
         <v>3</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
         <v>170</v>
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
         <v>169</v>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="148" t="s">
         <v>4</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
         <v>170</v>
@@ -13720,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
         <v>169</v>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>167</v>
       </c>
@@ -13764,14 +13764,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="97" t="s">
         <v>215</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
         <v>170</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
         <v>169</v>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="148" t="s">
         <v>1</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
         <v>170</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
         <v>169</v>
@@ -13904,7 +13904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="148" t="s">
         <v>2</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
         <v>170</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
         <v>169</v>
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="148" t="s">
         <v>3</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
         <v>170</v>
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
         <v>169</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="148" t="s">
         <v>4</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
         <v>170</v>
@@ -14078,7 +14078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
         <v>169</v>
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="98" t="s">
         <v>167</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="140" t="s">
         <v>267</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="G53" s="140"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>212</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>311</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
         <v>170</v>
@@ -14217,7 +14217,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
         <v>169</v>
@@ -14243,7 +14243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="148" t="s">
         <v>1</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
         <v>170</v>
@@ -14297,7 +14297,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
         <v>169</v>
@@ -14323,7 +14323,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="148" t="s">
         <v>2</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
         <v>170</v>
@@ -14377,7 +14377,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
         <v>169</v>
@@ -14403,7 +14403,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="148" t="s">
         <v>3</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
         <v>170</v>
@@ -14457,7 +14457,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
         <v>169</v>
@@ -14483,7 +14483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="148" t="s">
         <v>4</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
         <v>170</v>
@@ -14537,7 +14537,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
         <v>169</v>
@@ -14563,7 +14563,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="138" t="s">
         <v>167</v>
       </c>
@@ -14591,14 +14591,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="132"/>
       <c r="E71" s="132"/>
       <c r="F71" s="132"/>
       <c r="G71" s="132"/>
       <c r="H71" s="132"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>312</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
         <v>170</v>
@@ -14655,7 +14655,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
         <v>169</v>
@@ -14681,7 +14681,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="148" t="s">
         <v>1</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
         <v>170</v>
@@ -14735,7 +14735,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
         <v>169</v>
@@ -14761,7 +14761,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="148" t="s">
         <v>2</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
         <v>170</v>
@@ -14815,7 +14815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
         <v>169</v>
@@ -14841,7 +14841,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="148" t="s">
         <v>3</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
         <v>170</v>
@@ -14895,7 +14895,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
         <v>169</v>
@@ -14921,7 +14921,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="148" t="s">
         <v>4</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
         <v>170</v>
@@ -14975,7 +14975,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
         <v>169</v>
@@ -15001,7 +15001,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="138" t="s">
         <v>167</v>
       </c>
@@ -15029,14 +15029,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D88" s="132"/>
       <c r="E88" s="132"/>
       <c r="F88" s="132"/>
       <c r="G88" s="132"/>
       <c r="H88" s="132"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="97" t="s">
         <v>313</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
         <v>170</v>
@@ -15093,7 +15093,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
         <v>169</v>
@@ -15119,7 +15119,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="148" t="s">
         <v>1</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
         <v>170</v>
@@ -15173,7 +15173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
         <v>169</v>
@@ -15199,7 +15199,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="148" t="s">
         <v>2</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
         <v>170</v>
@@ -15253,7 +15253,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
         <v>169</v>
@@ -15279,7 +15279,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="148" t="s">
         <v>3</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="98" t="s">
         <v>167</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="140" t="s">
         <v>268</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="G106" s="140"/>
       <c r="H106" s="140"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>212</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
         <v>314</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="138" t="s">
         <v>167</v>
       </c>
@@ -15943,7 +15943,7 @@
       <c r="G124" s="132"/>
       <c r="H124" s="132"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>315</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="138" t="s">
         <v>167</v>
       </c>
@@ -16381,7 +16381,7 @@
       <c r="G141" s="132"/>
       <c r="H141" s="132"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="97" t="s">
         <v>316</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="98" t="s">
         <v>167</v>
       </c>
@@ -16815,12 +16815,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16830,36 +16854,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16880,22 +16880,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -16910,7 +16910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>217</v>
       </c>
@@ -16994,7 +16994,7 @@
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>218</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>219</v>
       </c>
@@ -17029,7 +17029,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>220</v>
       </c>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -17102,7 +17102,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>224</v>
       </c>
@@ -17256,7 +17256,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="140" t="s">
         <v>267</v>
       </c>
@@ -17266,12 +17266,12 @@
       <c r="E27" s="143"/>
       <c r="F27" s="143"/>
     </row>
-    <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
         <v>26</v>
@@ -17286,7 +17286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>297</v>
       </c>
@@ -17386,7 +17386,7 @@
       <c r="E35" s="95"/>
       <c r="F35" s="95"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>304</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
         <v>219</v>
       </c>
@@ -17417,7 +17417,7 @@
       <c r="E38" s="111"/>
       <c r="F38" s="111"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>298</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="113"/>
       <c r="C43" s="114"/>
@@ -17497,7 +17497,7 @@
       <c r="E43" s="95"/>
       <c r="F43" s="95"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>302</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="140" t="s">
         <v>268</v>
       </c>
@@ -17685,12 +17685,12 @@
       <c r="E54" s="143"/>
       <c r="F54" s="143"/>
     </row>
-    <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
         <v>26</v>
@@ -17705,7 +17705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>303</v>
       </c>
@@ -17805,7 +17805,7 @@
       <c r="E62" s="95"/>
       <c r="F62" s="95"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>305</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>219</v>
       </c>
@@ -17836,7 +17836,7 @@
       <c r="E65" s="111"/>
       <c r="F65" s="111"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>306</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="113"/>
       <c r="C70" s="114"/>
@@ -17916,7 +17916,7 @@
       <c r="E70" s="95"/>
       <c r="F70" s="95"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>310</v>
       </c>
@@ -18115,23 +18115,23 @@
       <selection activeCell="I328" sqref="I328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>206</v>
       </c>
@@ -18165,7 +18165,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -18598,7 +18598,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>231</v>
       </c>
@@ -18856,12 +18856,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="121" t="s">
         <v>233</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -19590,12 +19590,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -19623,7 +19623,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -19769,12 +19769,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="99" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -19808,7 +19808,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -20844,12 +20844,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -20883,7 +20883,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -20997,13 +20997,13 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="110" spans="1:16" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="140" t="s">
         <v>267</v>
       </c>
       <c r="H110" s="140"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>225</v>
       </c>
@@ -21015,7 +21015,7 @@
       <c r="G111" s="100"/>
       <c r="H111" s="100"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="118" t="s">
         <v>206</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
         <v>71</v>
@@ -21660,7 +21660,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>232</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="G138" s="100"/>
       <c r="H138" s="100"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="121" t="s">
         <v>233</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
         <v>71</v>
@@ -22321,7 +22321,7 @@
       <c r="C164" s="43"/>
       <c r="D164" s="43"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="99" t="s">
         <v>235</v>
       </c>
@@ -22333,7 +22333,7 @@
       <c r="G165" s="100"/>
       <c r="H165" s="100"/>
     </row>
-    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="121" t="s">
         <v>70</v>
       </c>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="H166" s="120"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
         <v>38</v>
@@ -22503,7 +22503,7 @@
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="99" t="s">
         <v>239</v>
       </c>
@@ -22515,7 +22515,7 @@
       <c r="G174" s="100"/>
       <c r="H174" s="100"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="121" t="s">
         <v>24</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
         <v>73</v>
@@ -23433,7 +23433,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="99" t="s">
         <v>241</v>
       </c>
@@ -23445,7 +23445,7 @@
       <c r="G213" s="100"/>
       <c r="H213" s="100"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="121" t="s">
         <v>71</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
@@ -23569,13 +23569,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="140" t="s">
         <v>268</v>
       </c>
       <c r="H220" s="140"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="99" t="s">
         <v>225</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="H221" s="100"/>
       <c r="I221" s="100"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="118" t="s">
         <v>206</v>
       </c>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="I222" s="120"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
         <v>71</v>
@@ -24258,7 +24258,7 @@
       </c>
       <c r="I246" s="118"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="99" t="s">
         <v>232</v>
       </c>
@@ -24271,7 +24271,7 @@
       <c r="H248" s="100"/>
       <c r="I248" s="100"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="121" t="s">
         <v>233</v>
       </c>
@@ -24298,7 +24298,7 @@
       </c>
       <c r="I249" s="120"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
         <v>71</v>
@@ -24945,7 +24945,7 @@
       <c r="C274" s="43"/>
       <c r="D274" s="43"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="99" t="s">
         <v>235</v>
       </c>
@@ -24958,7 +24958,7 @@
       <c r="H275" s="100"/>
       <c r="I275" s="100"/>
     </row>
-    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="121" t="s">
         <v>70</v>
       </c>
@@ -24983,7 +24983,7 @@
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
         <v>38</v>
@@ -25129,7 +25129,7 @@
       <c r="C283" s="43"/>
       <c r="D283" s="43"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="99" t="s">
         <v>239</v>
       </c>
@@ -25142,7 +25142,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="121" t="s">
         <v>24</v>
       </c>
@@ -25169,7 +25169,7 @@
       </c>
       <c r="I285" s="120"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
         <v>73</v>
@@ -26097,7 +26097,7 @@
       </c>
       <c r="I321" s="118"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="99" t="s">
         <v>241</v>
       </c>
@@ -26110,7 +26110,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="121" t="s">
         <v>71</v>
       </c>
@@ -26137,7 +26137,7 @@
       </c>
       <c r="I324" s="120"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
@@ -26260,24 +26260,24 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>245</v>
@@ -26339,7 +26339,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>246</v>
       </c>
@@ -26432,12 +26432,12 @@
       <c r="F10" s="117"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="113" t="s">
         <v>190</v>
@@ -26458,16 +26458,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="113"/>
     </row>
-    <row r="14" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="125" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="117" t="s">
         <v>250</v>
@@ -26511,7 +26511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="125" t="s">
         <v>70</v>
       </c>
@@ -26535,12 +26535,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="56" t="s">
         <v>49</v>
       </c>
@@ -26571,12 +26571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
         <v>242</v>
       </c>
@@ -26587,7 +26587,7 @@
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>25</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="117" t="s">
         <v>278</v>
@@ -26658,7 +26658,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="104" t="s">
         <v>319</v>
       </c>
@@ -26771,7 +26771,7 @@
       <c r="F33" s="117"/>
       <c r="G33" s="117"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>320</v>
       </c>
@@ -26782,7 +26782,7 @@
       <c r="F34" s="100"/>
       <c r="G34" s="100"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="104"/>
       <c r="B35" s="113" t="s">
         <v>282</v>
@@ -26805,11 +26805,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="104"/>
       <c r="B36" s="113"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
         <v>248</v>
       </c>
@@ -26820,7 +26820,7 @@
       <c r="F37" s="100"/>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="125" t="s">
         <v>233</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="117" t="s">
         <v>284</v>
@@ -26874,7 +26874,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="125" t="s">
         <v>70</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
         <v>321</v>
       </c>
@@ -26913,7 +26913,7 @@
       <c r="F42" s="100"/>
       <c r="G42" s="100"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
@@ -26951,12 +26951,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
         <v>242</v>
       </c>
@@ -26967,7 +26967,7 @@
       <c r="F47" s="100"/>
       <c r="G47" s="100"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="125" t="s">
         <v>25</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="117" t="s">
         <v>288</v>
@@ -27038,7 +27038,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="104" t="s">
         <v>324</v>
       </c>
@@ -27151,7 +27151,7 @@
       <c r="F56" s="117"/>
       <c r="G56" s="117"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
         <v>322</v>
       </c>
@@ -27162,7 +27162,7 @@
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="104"/>
       <c r="B58" s="113" t="s">
         <v>292</v>
@@ -27185,11 +27185,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="104"/>
       <c r="B59" s="113"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>248</v>
       </c>
@@ -27200,7 +27200,7 @@
       <c r="F60" s="100"/>
       <c r="G60" s="100"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>233</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="117" t="s">
         <v>294</v>
@@ -27254,7 +27254,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="s">
         <v>70</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>323</v>
       </c>
@@ -27293,7 +27293,7 @@
       <c r="F65" s="100"/>
       <c r="G65" s="100"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
@@ -27353,16 +27353,16 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -27608,12 +27608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
         <v>69</v>
       </c>
@@ -27907,12 +27907,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="119" t="s">
         <v>69</v>
       </c>
@@ -28223,19 +28223,19 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -28278,7 +28278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>255</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>132</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>256</v>
       </c>
@@ -29037,12 +29037,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29085,7 +29085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>271</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>272</v>
       </c>
@@ -30065,12 +30065,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30113,7 +30113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>273</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>274</v>
       </c>
@@ -31114,15 +31114,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -31141,12 +31141,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>258</v>
       </c>
@@ -31177,7 +31177,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
         <v>178</v>
       </c>
@@ -31197,12 +31197,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
@@ -31221,12 +31221,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>67</v>
       </c>
@@ -31251,7 +31251,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>275</v>
       </c>
@@ -31262,7 +31262,7 @@
       <c r="F11" s="127"/>
       <c r="G11" s="127"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="90" t="s">
         <v>178</v>
       </c>
@@ -31287,12 +31287,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
@@ -31311,12 +31311,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="59" t="s">
         <v>67</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>277</v>
       </c>
@@ -31352,7 +31352,7 @@
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>178</v>
       </c>
@@ -31398,20 +31398,20 @@
       <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -31437,7 +31437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>262</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>263</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>263</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -31572,7 +31572,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>263</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>131</v>
       </c>
@@ -31618,7 +31618,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>263</v>
       </c>
@@ -31638,7 +31638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>263</v>
       </c>
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>337</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>263</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -31750,7 +31750,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>263</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>61</v>
       </c>
@@ -31796,7 +31796,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>263</v>
       </c>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
         <v>65</v>
       </c>
@@ -31841,7 +31841,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>263</v>
       </c>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>62</v>
       </c>
@@ -31889,7 +31889,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>262</v>
       </c>
@@ -31910,7 +31910,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>63</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>262</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>64</v>
       </c>
@@ -31982,7 +31982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="52" t="s">
         <v>262</v>
       </c>
@@ -32002,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>79</v>
       </c>
@@ -32028,7 +32028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>262</v>
       </c>
@@ -32048,7 +32048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="52" t="s">
         <v>263</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>80</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>262</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="52" t="s">
         <v>263</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>81</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>262</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="52" t="s">
         <v>263</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>82</v>
       </c>
@@ -32226,7 +32226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>262</v>
       </c>
@@ -32246,7 +32246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="52" t="s">
         <v>263</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>83</v>
       </c>
@@ -32292,7 +32292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>262</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="52" t="s">
         <v>263</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>60</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>262</v>
       </c>
@@ -32378,7 +32378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="52" t="s">
         <v>263</v>
       </c>
@@ -32398,7 +32398,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="52" t="s">
         <v>16</v>
       </c>
@@ -32421,7 +32421,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="52" t="s">
         <v>262</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>263</v>
       </c>
@@ -32461,7 +32461,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>84</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>262</v>
       </c>
@@ -32507,7 +32507,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>85</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="52" t="s">
         <v>262</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>190</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="52" t="s">
         <v>262</v>
       </c>
@@ -32599,14 +32599,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="144" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="145"/>
       <c r="C55" s="145"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>69</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>28</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="52" t="s">
         <v>262</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>0.47820895522388057</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="52" t="s">
         <v>263</v>
       </c>
@@ -32713,7 +32713,7 @@
         <v>0.34656716417910466</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>58</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="52" t="s">
         <v>263</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
         <v>65</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="52" t="s">
         <v>263</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
         <v>131</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="52" t="s">
         <v>263</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
         <v>65</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="52" t="s">
         <v>263</v>
       </c>
@@ -32931,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
         <v>337</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="52" t="s">
         <v>263</v>
       </c>
@@ -32987,7 +32987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
         <v>65</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="52" t="s">
         <v>263</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>61</v>
       </c>
@@ -33071,7 +33071,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="52" t="s">
         <v>263</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
         <v>65</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="52" t="s">
         <v>263</v>
       </c>
@@ -33149,7 +33149,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
         <v>62</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="52" t="s">
         <v>262</v>
       </c>
@@ -33205,7 +33205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
         <v>63</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="52" t="s">
         <v>262</v>
       </c>
@@ -33261,7 +33261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
         <v>64</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="52" t="s">
         <v>262</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
         <v>79</v>
       </c>
@@ -33348,7 +33348,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="52" t="s">
         <v>262</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="52" t="s">
         <v>263</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>80</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="52" t="s">
         <v>262</v>
       </c>
@@ -33454,7 +33454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="52" t="s">
         <v>263</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
         <v>81</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="52" t="s">
         <v>262</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="52" t="s">
         <v>263</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
         <v>82</v>
       </c>
@@ -33591,7 +33591,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="52" t="s">
         <v>262</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="52" t="s">
         <v>263</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
         <v>83</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="52" t="s">
         <v>262</v>
       </c>
@@ -33697,7 +33697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="52" t="s">
         <v>263</v>
       </c>
@@ -33722,7 +33722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
         <v>60</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="52" t="s">
         <v>262</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="52" t="s">
         <v>263</v>
       </c>
@@ -33803,7 +33803,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="52" t="s">
         <v>16</v>
       </c>
@@ -33831,7 +33831,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="52" t="s">
         <v>262</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="52" t="s">
         <v>263</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
         <v>84</v>
       </c>
@@ -33912,7 +33912,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="52" t="s">
         <v>262</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>0.83700000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
         <v>85</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="52" t="s">
         <v>262</v>
       </c>
@@ -33993,7 +33993,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
         <v>190</v>
       </c>
@@ -34024,7 +34024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="52" t="s">
         <v>262</v>
       </c>
@@ -34049,14 +34049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="144" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="145"/>
       <c r="C110" s="145"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>69</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="52" t="s">
         <v>28</v>
       </c>
@@ -34113,7 +34113,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="52" t="s">
         <v>262</v>
       </c>
@@ -34138,7 +34138,7 @@
         <v>0.55791044776119403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="52" t="s">
         <v>263</v>
       </c>
@@ -34163,7 +34163,7 @@
         <v>0.40432835820895546</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
         <v>58</v>
       </c>
@@ -34194,7 +34194,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="52" t="s">
         <v>263</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
         <v>65</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="52" t="s">
         <v>263</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
         <v>131</v>
       </c>
@@ -34303,7 +34303,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="52" t="s">
         <v>263</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
         <v>65</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="52" t="s">
         <v>263</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
         <v>337</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="52" t="s">
         <v>263</v>
       </c>
@@ -34437,7 +34437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
         <v>65</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="52" t="s">
         <v>263</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
         <v>61</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="52" t="s">
         <v>263</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
         <v>65</v>
       </c>
@@ -34574,7 +34574,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="52" t="s">
         <v>263</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="52" t="s">
         <v>62</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="52" t="s">
         <v>262</v>
       </c>
@@ -34655,7 +34655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="52" t="s">
         <v>63</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="52" t="s">
         <v>262</v>
       </c>
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="52" t="s">
         <v>64</v>
       </c>
@@ -34742,7 +34742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="52" t="s">
         <v>262</v>
       </c>
@@ -34767,7 +34767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="52" t="s">
         <v>79</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="52" t="s">
         <v>262</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="52" t="s">
         <v>263</v>
       </c>
@@ -34848,7 +34848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
         <v>80</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="52" t="s">
         <v>262</v>
       </c>
@@ -34904,7 +34904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="52" t="s">
         <v>263</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="52" t="s">
         <v>81</v>
       </c>
@@ -34960,7 +34960,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="52" t="s">
         <v>262</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="52" t="s">
         <v>263</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="52" t="s">
         <v>82</v>
       </c>
@@ -35041,7 +35041,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="52" t="s">
         <v>262</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="52" t="s">
         <v>263</v>
       </c>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="52" t="s">
         <v>83</v>
       </c>
@@ -35122,7 +35122,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="52" t="s">
         <v>262</v>
       </c>
@@ -35147,7 +35147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="52" t="s">
         <v>263</v>
       </c>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="52" t="s">
         <v>60</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="52" t="s">
         <v>262</v>
       </c>
@@ -35228,7 +35228,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="52" t="s">
         <v>263</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="52" t="s">
         <v>16</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="52" t="s">
         <v>262</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="52" t="s">
         <v>263</v>
       </c>
@@ -35331,7 +35331,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="52" t="s">
         <v>84</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="52" t="s">
         <v>262</v>
       </c>
@@ -35387,7 +35387,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="52" t="s">
         <v>85</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="52" t="s">
         <v>262</v>
       </c>
@@ -35443,7 +35443,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="52" t="s">
         <v>190</v>
       </c>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="52" t="s">
         <v>262</v>
       </c>
@@ -35520,16 +35520,16 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -35551,7 +35551,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -35575,7 +35575,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>262</v>
       </c>
@@ -35593,7 +35593,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -35617,7 +35617,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>262</v>
@@ -35636,7 +35636,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -35660,7 +35660,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>262</v>
@@ -35679,12 +35679,12 @@
       </c>
       <c r="H7" s="128"/>
     </row>
-    <row r="9" spans="1:8" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>69</v>
       </c>
@@ -35705,7 +35705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>86</v>
       </c>
@@ -35732,7 +35732,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="35" t="s">
         <v>262</v>
       </c>
@@ -35753,7 +35753,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>87</v>
       </c>
@@ -35780,7 +35780,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="C14" s="35" t="s">
         <v>262</v>
@@ -35802,7 +35802,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>88</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="C16" s="35" t="s">
         <v>262</v>
@@ -35851,12 +35851,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>69</v>
       </c>
@@ -35877,7 +35877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>86</v>
       </c>
@@ -35904,7 +35904,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="35" t="s">
         <v>262</v>
       </c>
@@ -35925,7 +35925,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>87</v>
       </c>
@@ -35952,7 +35952,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="C23" s="35" t="s">
         <v>262</v>
@@ -35974,7 +35974,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>88</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="C25" s="35" t="s">
         <v>262</v>
@@ -36043,14 +36043,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -36061,7 +36061,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -36160,7 +36160,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -36366,7 +36366,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -36482,13 +36482,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -36909,13 +36909,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -37045,13 +37045,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -37103,10 +37103,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -37123,10 +37123,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -37143,7 +37143,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -37157,7 +37157,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
@@ -37171,7 +37171,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -37188,7 +37188,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>141</v>
       </c>
@@ -37202,7 +37202,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -37219,7 +37219,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>165</v>
       </c>
@@ -37248,13 +37248,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>326</v>
       </c>
@@ -37262,7 +37262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>330</v>
       </c>
@@ -37270,7 +37270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>331</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>325</v>
       </c>
@@ -37286,7 +37286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>329</v>
       </c>
@@ -37294,7 +37294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
         <v>332</v>
       </c>
@@ -37302,7 +37302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>333</v>
       </c>
@@ -37326,15 +37326,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>173</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>168</v>
       </c>
@@ -37365,7 +37365,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -37379,7 +37379,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -37393,7 +37393,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -37407,7 +37407,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -37421,7 +37421,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>167</v>
@@ -37430,7 +37430,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>193</v>
       </c>
@@ -37446,7 +37446,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -37458,7 +37458,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -37470,7 +37470,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -37482,7 +37482,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -37494,7 +37494,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>167</v>
@@ -37505,7 +37505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>194</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -37535,7 +37535,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -37549,7 +37549,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -37563,7 +37563,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -37577,7 +37577,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>167</v>
@@ -37604,15 +37604,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>159</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -37638,7 +37638,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>180</v>
       </c>

--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1BF111-0A78-4CFF-BDCE-42A823482AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392020E7-7BB3-45E3-97CD-922E40E0F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -5103,7 +5103,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6528,7 +6528,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6763,6 +6763,7 @@
       <c r="A19" s="36"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FfHkqiZB4+MSNcSvC5AmHSBrL24DJqGBCUSbb1SXht/pvNfKrCwYwGQ0Nh0eFgbT4CtkrPtcdyerMXuqOASMgw==" saltValue="ujhgKiubLrCdAofmJLql6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8676,6 +8677,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="IEixURlTGTRJqZbHQmFhXvPIjUQmIm34YSzPBaRbABxdBmAg46d3JCYkT785QfIT3fChPybYBTXc2AW44XuyhA==" saltValue="fuFHWbJUOjdjm3xu1A1z1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8688,7 +8690,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8880,6 +8882,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="HXM9d/yv0bR0otidlXI4b2tbsdUffgeJ2Wne/gEk97Pr2tTSdJnaP6hu45vmaWFjkHMXK2/VO+Xb1nLy35zSiA==" saltValue="tief35b+X1G5h293iqdAaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8893,8 +8896,8 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10693,7 +10696,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ap4P7JcBDpqTQtm6MYlYh14ybeQbemn6kklmftvLaZMGfb54sZfIKGNzDwetHNmHnka94h7SmhfC3Pd6f08CsA==" saltValue="aKkZemS/2Ya4OcDxk4iN8Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16742,6 +16745,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tLFUmDyoH82P3agTzdNhIl/nrPXW114misPcwvY90QMxHUTQPj6nXWoXArIchS0+Y1PkNffvDNQ/0vLhBaHAnA==" saltValue="GmZrDncYr09T1PgEJ065qQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16751,42 +16790,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -37130,6 +37133,7 @@
       <c r="K14" s="23"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="plogBhsuuJTsWPM2YhbeA1zjOmcXt4sZJzWkbAiBkI+j9As/GpEAx8GRXUW80IMb1WerNe/mHd+FIFLokb/7Jw==" saltValue="vtKvMzIczBBv/AXJ1k8ntg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39442AB4-720E-4168-84DC-D7101B1E1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E2AE98-DC5F-4BDA-A376-7B195B5157D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -2925,12 +2926,12 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5106,7 +5107,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6531,8 +6532,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12989,7 +12990,7 @@
       <c r="A2" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -13012,7 +13013,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="115"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="27" t="s">
         <v>170</v>
       </c>
@@ -13034,7 +13035,7 @@
       <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="27" t="s">
         <v>169</v>
       </c>
@@ -13056,7 +13057,7 @@
       <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13080,7 +13081,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="115"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="27" t="s">
         <v>170</v>
       </c>
@@ -13101,7 +13102,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="27" t="s">
         <v>169</v>
       </c>
@@ -13122,7 +13123,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13145,7 +13146,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="27" t="s">
         <v>170</v>
       </c>
@@ -13166,7 +13167,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="27" t="s">
         <v>169</v>
       </c>
@@ -13187,7 +13188,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13210,7 +13211,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="27" t="s">
         <v>170</v>
       </c>
@@ -13231,7 +13232,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="27" t="s">
         <v>169</v>
       </c>
@@ -13252,7 +13253,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13275,7 +13276,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="27" t="s">
         <v>170</v>
       </c>
@@ -13296,7 +13297,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="115"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="27" t="s">
         <v>169</v>
       </c>
@@ -13350,7 +13351,7 @@
       <c r="A19" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13373,7 +13374,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="115"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="27" t="s">
         <v>170</v>
       </c>
@@ -13394,7 +13395,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="115"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="27" t="s">
         <v>169</v>
       </c>
@@ -13415,7 +13416,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13438,7 +13439,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="115"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="27" t="s">
         <v>170</v>
       </c>
@@ -13459,7 +13460,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="27" t="s">
         <v>169</v>
       </c>
@@ -13480,7 +13481,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13503,7 +13504,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="27" t="s">
         <v>170</v>
       </c>
@@ -13524,7 +13525,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="115"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="27" t="s">
         <v>169</v>
       </c>
@@ -13545,7 +13546,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13568,7 +13569,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="115"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="27" t="s">
         <v>170</v>
       </c>
@@ -13589,7 +13590,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="115"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="27" t="s">
         <v>169</v>
       </c>
@@ -13610,7 +13611,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13633,7 +13634,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="115"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="27" t="s">
         <v>170</v>
       </c>
@@ -13654,7 +13655,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="27" t="s">
         <v>169</v>
       </c>
@@ -13708,7 +13709,7 @@
       <c r="A36" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -13731,7 +13732,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="115"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="27" t="s">
         <v>170</v>
       </c>
@@ -13752,7 +13753,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="27" t="s">
         <v>169</v>
       </c>
@@ -13773,7 +13774,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -13796,7 +13797,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="115"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="27" t="s">
         <v>170</v>
       </c>
@@ -13817,7 +13818,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="115"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="27" t="s">
         <v>169</v>
       </c>
@@ -13838,7 +13839,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -13861,7 +13862,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="115"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="27" t="s">
         <v>170</v>
       </c>
@@ -13882,7 +13883,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="115"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="27" t="s">
         <v>169</v>
       </c>
@@ -13903,7 +13904,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -13926,7 +13927,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="115"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="27" t="s">
         <v>170</v>
       </c>
@@ -13947,7 +13948,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="115"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="27" t="s">
         <v>169</v>
       </c>
@@ -13968,7 +13969,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -13991,7 +13992,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="27" t="s">
         <v>170</v>
       </c>
@@ -14012,7 +14013,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="115"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="27" t="s">
         <v>169</v>
       </c>
@@ -14097,7 +14098,7 @@
       <c r="A55" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14125,7 +14126,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="27" t="s">
         <v>170</v>
       </c>
@@ -14151,7 +14152,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="27" t="s">
         <v>169</v>
       </c>
@@ -14177,7 +14178,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14205,7 +14206,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="115"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="27" t="s">
         <v>170</v>
       </c>
@@ -14231,7 +14232,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="115"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="27" t="s">
         <v>169</v>
       </c>
@@ -14257,7 +14258,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14285,7 +14286,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="27" t="s">
         <v>170</v>
       </c>
@@ -14311,7 +14312,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="115"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="27" t="s">
         <v>169</v>
       </c>
@@ -14337,7 +14338,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="115" t="s">
+      <c r="B64" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14365,7 +14366,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="115"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="27" t="s">
         <v>170</v>
       </c>
@@ -14391,7 +14392,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="115"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="27" t="s">
         <v>169</v>
       </c>
@@ -14417,7 +14418,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14445,7 +14446,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="115"/>
+      <c r="B68" s="116"/>
       <c r="C68" s="27" t="s">
         <v>170</v>
       </c>
@@ -14471,7 +14472,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="115"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="27" t="s">
         <v>169</v>
       </c>
@@ -14535,7 +14536,7 @@
       <c r="A72" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="115" t="s">
+      <c r="B72" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14563,7 +14564,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="115"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="27" t="s">
         <v>170</v>
       </c>
@@ -14589,7 +14590,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="115"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="27" t="s">
         <v>169</v>
       </c>
@@ -14615,7 +14616,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="115" t="s">
+      <c r="B75" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14643,7 +14644,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="115"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="27" t="s">
         <v>170</v>
       </c>
@@ -14669,7 +14670,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="115"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="27" t="s">
         <v>169</v>
       </c>
@@ -14695,7 +14696,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -14723,7 +14724,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="115"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="27" t="s">
         <v>170</v>
       </c>
@@ -14749,7 +14750,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="115"/>
+      <c r="B80" s="116"/>
       <c r="C80" s="27" t="s">
         <v>169</v>
       </c>
@@ -14775,7 +14776,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="115" t="s">
+      <c r="B81" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -14803,7 +14804,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="115"/>
+      <c r="B82" s="116"/>
       <c r="C82" s="27" t="s">
         <v>170</v>
       </c>
@@ -14829,7 +14830,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="115"/>
+      <c r="B83" s="116"/>
       <c r="C83" s="27" t="s">
         <v>169</v>
       </c>
@@ -14855,7 +14856,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -14883,7 +14884,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="115"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="27" t="s">
         <v>170</v>
       </c>
@@ -14909,7 +14910,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="115"/>
+      <c r="B86" s="116"/>
       <c r="C86" s="27" t="s">
         <v>169</v>
       </c>
@@ -14973,7 +14974,7 @@
       <c r="A89" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="115" t="s">
+      <c r="B89" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -15001,7 +15002,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="115"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="27" t="s">
         <v>170</v>
       </c>
@@ -15027,7 +15028,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="115"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="27" t="s">
         <v>169</v>
       </c>
@@ -15053,7 +15054,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15081,7 +15082,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="115"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="27" t="s">
         <v>170</v>
       </c>
@@ -15107,7 +15108,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="115"/>
+      <c r="B94" s="116"/>
       <c r="C94" s="27" t="s">
         <v>169</v>
       </c>
@@ -15133,7 +15134,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15161,7 +15162,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="115"/>
+      <c r="B96" s="116"/>
       <c r="C96" s="27" t="s">
         <v>170</v>
       </c>
@@ -15187,7 +15188,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="115"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="27" t="s">
         <v>169</v>
       </c>
@@ -15213,7 +15214,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="115" t="s">
+      <c r="B98" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15241,7 +15242,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="115"/>
+      <c r="B99" s="116"/>
       <c r="C99" s="27" t="s">
         <v>170</v>
       </c>
@@ -15267,7 +15268,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="115"/>
+      <c r="B100" s="116"/>
       <c r="C100" s="27" t="s">
         <v>169</v>
       </c>
@@ -15293,7 +15294,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15321,7 +15322,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="115"/>
+      <c r="B102" s="116"/>
       <c r="C102" s="27" t="s">
         <v>170</v>
       </c>
@@ -15347,7 +15348,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="115"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="27" t="s">
         <v>169</v>
       </c>
@@ -15442,7 +15443,7 @@
       <c r="A108" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="115" t="s">
+      <c r="B108" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15470,7 +15471,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="115"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="27" t="s">
         <v>170</v>
       </c>
@@ -15496,7 +15497,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="115"/>
+      <c r="B110" s="116"/>
       <c r="C110" s="27" t="s">
         <v>169</v>
       </c>
@@ -15522,7 +15523,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="115" t="s">
+      <c r="B111" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -15550,7 +15551,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="115"/>
+      <c r="B112" s="116"/>
       <c r="C112" s="27" t="s">
         <v>170</v>
       </c>
@@ -15576,7 +15577,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="115"/>
+      <c r="B113" s="116"/>
       <c r="C113" s="27" t="s">
         <v>169</v>
       </c>
@@ -15602,7 +15603,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="115" t="s">
+      <c r="B114" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -15630,7 +15631,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="115"/>
+      <c r="B115" s="116"/>
       <c r="C115" s="27" t="s">
         <v>170</v>
       </c>
@@ -15656,7 +15657,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="115"/>
+      <c r="B116" s="116"/>
       <c r="C116" s="27" t="s">
         <v>169</v>
       </c>
@@ -15682,7 +15683,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="115" t="s">
+      <c r="B117" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -15710,7 +15711,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="115"/>
+      <c r="B118" s="116"/>
       <c r="C118" s="27" t="s">
         <v>170</v>
       </c>
@@ -15736,7 +15737,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="115"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="27" t="s">
         <v>169</v>
       </c>
@@ -15762,7 +15763,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="115" t="s">
+      <c r="B120" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -15790,7 +15791,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="115"/>
+      <c r="B121" s="116"/>
       <c r="C121" s="27" t="s">
         <v>170</v>
       </c>
@@ -15816,7 +15817,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="115"/>
+      <c r="B122" s="116"/>
       <c r="C122" s="27" t="s">
         <v>169</v>
       </c>
@@ -15880,7 +15881,7 @@
       <c r="A125" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="B125" s="115" t="s">
+      <c r="B125" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -15908,7 +15909,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="115"/>
+      <c r="B126" s="116"/>
       <c r="C126" s="27" t="s">
         <v>170</v>
       </c>
@@ -15934,7 +15935,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="115"/>
+      <c r="B127" s="116"/>
       <c r="C127" s="27" t="s">
         <v>169</v>
       </c>
@@ -15960,7 +15961,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="115" t="s">
+      <c r="B128" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -15988,7 +15989,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="115"/>
+      <c r="B129" s="116"/>
       <c r="C129" s="27" t="s">
         <v>170</v>
       </c>
@@ -16014,7 +16015,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="115"/>
+      <c r="B130" s="116"/>
       <c r="C130" s="27" t="s">
         <v>169</v>
       </c>
@@ -16040,7 +16041,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="115" t="s">
+      <c r="B131" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -16068,7 +16069,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="115"/>
+      <c r="B132" s="116"/>
       <c r="C132" s="27" t="s">
         <v>170</v>
       </c>
@@ -16094,7 +16095,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="115"/>
+      <c r="B133" s="116"/>
       <c r="C133" s="27" t="s">
         <v>169</v>
       </c>
@@ -16120,7 +16121,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="115" t="s">
+      <c r="B134" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -16148,7 +16149,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="115"/>
+      <c r="B135" s="116"/>
       <c r="C135" s="27" t="s">
         <v>170</v>
       </c>
@@ -16174,7 +16175,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="115"/>
+      <c r="B136" s="116"/>
       <c r="C136" s="27" t="s">
         <v>169</v>
       </c>
@@ -16200,7 +16201,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="115" t="s">
+      <c r="B137" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -16228,7 +16229,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="115"/>
+      <c r="B138" s="116"/>
       <c r="C138" s="27" t="s">
         <v>170</v>
       </c>
@@ -16254,7 +16255,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="115"/>
+      <c r="B139" s="116"/>
       <c r="C139" s="27" t="s">
         <v>169</v>
       </c>
@@ -16318,7 +16319,7 @@
       <c r="A142" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="B142" s="115" t="s">
+      <c r="B142" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -16346,7 +16347,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="115"/>
+      <c r="B143" s="116"/>
       <c r="C143" s="27" t="s">
         <v>170</v>
       </c>
@@ -16372,7 +16373,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="115"/>
+      <c r="B144" s="116"/>
       <c r="C144" s="27" t="s">
         <v>169</v>
       </c>
@@ -16398,7 +16399,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="115" t="s">
+      <c r="B145" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -16426,7 +16427,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="115"/>
+      <c r="B146" s="116"/>
       <c r="C146" s="27" t="s">
         <v>170</v>
       </c>
@@ -16452,7 +16453,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="115"/>
+      <c r="B147" s="116"/>
       <c r="C147" s="27" t="s">
         <v>169</v>
       </c>
@@ -16478,7 +16479,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="115" t="s">
+      <c r="B148" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -16506,7 +16507,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="115"/>
+      <c r="B149" s="116"/>
       <c r="C149" s="27" t="s">
         <v>170</v>
       </c>
@@ -16532,7 +16533,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="115"/>
+      <c r="B150" s="116"/>
       <c r="C150" s="27" t="s">
         <v>169</v>
       </c>
@@ -16558,7 +16559,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="115" t="s">
+      <c r="B151" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -16586,7 +16587,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="115"/>
+      <c r="B152" s="116"/>
       <c r="C152" s="27" t="s">
         <v>170</v>
       </c>
@@ -16612,7 +16613,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="115"/>
+      <c r="B153" s="116"/>
       <c r="C153" s="27" t="s">
         <v>169</v>
       </c>
@@ -16638,7 +16639,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="115" t="s">
+      <c r="B154" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -16666,7 +16667,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="115"/>
+      <c r="B155" s="116"/>
       <c r="C155" s="27" t="s">
         <v>170</v>
       </c>
@@ -16692,7 +16693,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="115"/>
+      <c r="B156" s="116"/>
       <c r="C156" s="27" t="s">
         <v>169</v>
       </c>
@@ -16748,6 +16749,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tLFUmDyoH82P3agTzdNhIl/nrPXW114misPcwvY90QMxHUTQPj6nXWoXArIchS0+Y1PkNffvDNQ/0vLhBaHAnA==" saltValue="GmZrDncYr09T1PgEJ065qQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16757,42 +16794,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31310,8 +31311,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31370,13 +31371,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31390,13 +31391,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31723,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="104">
         <v>0.62</v>
@@ -31766,7 +31767,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="104">
         <v>0.62</v>
@@ -31786,13 +31787,13 @@
         <v>261</v>
       </c>
       <c r="D21" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="104">
         <v>0</v>
       </c>
       <c r="F21" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="104">
         <v>0</v>
@@ -31812,7 +31813,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="104">
         <v>0</v>
@@ -31832,13 +31833,13 @@
         <v>261</v>
       </c>
       <c r="D23" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="104">
         <v>0</v>
       </c>
       <c r="F23" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="104">
         <v>0</v>
@@ -31858,7 +31859,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="104">
         <v>0</v>
@@ -31878,13 +31879,13 @@
         <v>261</v>
       </c>
       <c r="D25" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="104">
         <v>0</v>
       </c>
       <c r="F25" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="104">
         <v>0</v>
@@ -31904,7 +31905,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="104">
         <v>0</v>
@@ -31930,7 +31931,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="104">
         <v>1</v>
@@ -31950,7 +31951,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="104">
         <v>0</v>
@@ -31970,7 +31971,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="104">
         <v>0</v>
@@ -31996,7 +31997,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="104">
         <v>1</v>
@@ -32016,7 +32017,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="104">
         <v>0</v>
@@ -32036,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="104">
         <v>0</v>
@@ -32062,7 +32063,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="104">
         <v>1</v>
@@ -32082,7 +32083,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="104">
         <v>0</v>
@@ -32102,7 +32103,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="104">
         <v>0</v>
@@ -32128,7 +32129,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="104">
         <v>1</v>
@@ -32148,7 +32149,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="104">
         <v>0</v>
@@ -32168,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="104">
         <v>0</v>
@@ -32194,7 +32195,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="104">
         <v>1</v>
@@ -32214,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="104">
         <v>0</v>
@@ -32234,7 +32235,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="104">
         <v>0</v>
@@ -32260,7 +32261,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="104">
         <v>0.3</v>
@@ -32280,7 +32281,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="104">
         <v>0.5</v>
@@ -32300,7 +32301,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="104">
         <v>0.65</v>
@@ -32323,7 +32324,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="104">
         <v>0.3</v>
@@ -32343,7 +32344,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="104">
         <v>0.49</v>
@@ -32363,7 +32364,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="104">
         <v>0.52</v>
@@ -32389,7 +32390,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="104">
         <v>0.88</v>
@@ -32403,19 +32404,19 @@
         <v>262</v>
       </c>
       <c r="D49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32429,19 +32430,19 @@
         <v>261</v>
       </c>
       <c r="D50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32455,7 +32456,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="104">
         <v>0.86</v>
@@ -32481,7 +32482,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="104">
         <v>0</v>
@@ -32501,7 +32502,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="104">
         <v>0</v>
@@ -32563,15 +32564,15 @@
       </c>
       <c r="F57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32588,15 +32589,15 @@
       </c>
       <c r="F58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32996,7 +32997,7 @@
       </c>
       <c r="F73" s="104">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="104">
         <f t="shared" si="5"/>
@@ -33049,7 +33050,7 @@
       </c>
       <c r="F75" s="104">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="104">
         <f t="shared" si="7"/>
@@ -33072,7 +33073,7 @@
       </c>
       <c r="D76" s="104">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="104">
         <f t="shared" si="8"/>
@@ -33080,7 +33081,7 @@
       </c>
       <c r="F76" s="104">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="104">
         <f t="shared" si="8"/>
@@ -33105,7 +33106,7 @@
       </c>
       <c r="F77" s="104">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="104">
         <f t="shared" si="9"/>
@@ -33128,7 +33129,7 @@
       </c>
       <c r="D78" s="104">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="104">
         <f t="shared" si="10"/>
@@ -33136,7 +33137,7 @@
       </c>
       <c r="F78" s="104">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="104">
         <f t="shared" si="10"/>
@@ -33161,7 +33162,7 @@
       </c>
       <c r="F79" s="104">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="104">
         <f t="shared" si="11"/>
@@ -33184,7 +33185,7 @@
       </c>
       <c r="D80" s="104">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="104">
         <f t="shared" si="12"/>
@@ -33192,7 +33193,7 @@
       </c>
       <c r="F80" s="104">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="104">
         <f t="shared" si="12"/>
@@ -33217,7 +33218,7 @@
       </c>
       <c r="F81" s="104">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="104">
         <f t="shared" si="13"/>
@@ -33248,7 +33249,7 @@
       </c>
       <c r="F82" s="104">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="104">
         <f t="shared" si="14"/>
@@ -33273,7 +33274,7 @@
       </c>
       <c r="F83" s="104">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="104">
         <f t="shared" si="15"/>
@@ -33298,7 +33299,7 @@
       </c>
       <c r="F84" s="104">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="104">
         <f t="shared" si="16"/>
@@ -33329,7 +33330,7 @@
       </c>
       <c r="F85" s="104">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="104">
         <f t="shared" si="17"/>
@@ -33354,7 +33355,7 @@
       </c>
       <c r="F86" s="104">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="104">
         <f t="shared" si="18"/>
@@ -33379,7 +33380,7 @@
       </c>
       <c r="F87" s="104">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="104">
         <f t="shared" si="19"/>
@@ -33410,7 +33411,7 @@
       </c>
       <c r="F88" s="104">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="104">
         <f t="shared" si="20"/>
@@ -33435,7 +33436,7 @@
       </c>
       <c r="F89" s="104">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="104">
         <f t="shared" si="21"/>
@@ -33460,7 +33461,7 @@
       </c>
       <c r="F90" s="104">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="104">
         <f t="shared" si="22"/>
@@ -33491,7 +33492,7 @@
       </c>
       <c r="F91" s="104">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="104">
         <f t="shared" si="23"/>
@@ -33516,7 +33517,7 @@
       </c>
       <c r="F92" s="104">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="104">
         <f t="shared" si="24"/>
@@ -33541,7 +33542,7 @@
       </c>
       <c r="F93" s="104">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="104">
         <f t="shared" si="25"/>
@@ -33572,7 +33573,7 @@
       </c>
       <c r="F94" s="104">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="104">
         <f t="shared" si="26"/>
@@ -33597,7 +33598,7 @@
       </c>
       <c r="F95" s="104">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="104">
         <f t="shared" si="27"/>
@@ -33622,7 +33623,7 @@
       </c>
       <c r="F96" s="104">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="104">
         <f t="shared" si="28"/>
@@ -33653,7 +33654,7 @@
       </c>
       <c r="F97" s="104">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="104">
         <f t="shared" si="29"/>
@@ -33678,7 +33679,7 @@
       </c>
       <c r="F98" s="104">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="104">
         <f t="shared" si="30"/>
@@ -33703,7 +33704,7 @@
       </c>
       <c r="F99" s="104">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="104">
         <f t="shared" si="31"/>
@@ -33731,7 +33732,7 @@
       </c>
       <c r="F100" s="104">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="104">
         <f t="shared" si="32"/>
@@ -33756,7 +33757,7 @@
       </c>
       <c r="F101" s="104">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="104">
         <f t="shared" si="33"/>
@@ -33781,7 +33782,7 @@
       </c>
       <c r="F102" s="104">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="104">
         <f t="shared" si="34"/>
@@ -33812,7 +33813,7 @@
       </c>
       <c r="F103" s="104">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="104">
         <f t="shared" si="35"/>
@@ -33829,23 +33830,23 @@
       </c>
       <c r="D104" s="104">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="104">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33860,23 +33861,23 @@
       </c>
       <c r="D105" s="104">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="104">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33893,7 +33894,7 @@
       </c>
       <c r="F106" s="104">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="104">
         <f t="shared" si="38"/>
@@ -33924,7 +33925,7 @@
       </c>
       <c r="F107" s="104">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="104">
         <f t="shared" si="39"/>
@@ -33949,7 +33950,7 @@
       </c>
       <c r="F108" s="104">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="104">
         <f t="shared" si="40"/>
@@ -34013,15 +34014,15 @@
       </c>
       <c r="F112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34038,15 +34039,15 @@
       </c>
       <c r="F113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34446,7 +34447,7 @@
       </c>
       <c r="F128" s="104">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="104">
         <f t="shared" si="46"/>
@@ -34499,7 +34500,7 @@
       </c>
       <c r="F130" s="104">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="104">
         <f t="shared" si="48"/>
@@ -34522,7 +34523,7 @@
       </c>
       <c r="D131" s="104">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="104">
         <f t="shared" si="49"/>
@@ -34530,7 +34531,7 @@
       </c>
       <c r="F131" s="104">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="104">
         <f t="shared" si="49"/>
@@ -34555,7 +34556,7 @@
       </c>
       <c r="F132" s="104">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="104">
         <f t="shared" si="50"/>
@@ -34578,7 +34579,7 @@
       </c>
       <c r="D133" s="104">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="104">
         <f t="shared" si="51"/>
@@ -34586,7 +34587,7 @@
       </c>
       <c r="F133" s="104">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="104">
         <f t="shared" si="51"/>
@@ -34611,7 +34612,7 @@
       </c>
       <c r="F134" s="104">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="104">
         <f t="shared" si="52"/>
@@ -34634,7 +34635,7 @@
       </c>
       <c r="D135" s="104">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="104">
         <f t="shared" si="53"/>
@@ -34642,7 +34643,7 @@
       </c>
       <c r="F135" s="104">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="104">
         <f t="shared" si="53"/>
@@ -34667,7 +34668,7 @@
       </c>
       <c r="F136" s="104">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="104">
         <f t="shared" si="54"/>
@@ -34698,7 +34699,7 @@
       </c>
       <c r="F137" s="104">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="104">
         <f t="shared" si="55"/>
@@ -34723,7 +34724,7 @@
       </c>
       <c r="F138" s="104">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="104">
         <f t="shared" si="56"/>
@@ -34748,7 +34749,7 @@
       </c>
       <c r="F139" s="104">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="104">
         <f t="shared" si="57"/>
@@ -34779,7 +34780,7 @@
       </c>
       <c r="F140" s="104">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="104">
         <f t="shared" si="58"/>
@@ -34804,7 +34805,7 @@
       </c>
       <c r="F141" s="104">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="104">
         <f t="shared" si="59"/>
@@ -34829,7 +34830,7 @@
       </c>
       <c r="F142" s="104">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="104">
         <f t="shared" si="60"/>
@@ -34860,7 +34861,7 @@
       </c>
       <c r="F143" s="104">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="104">
         <f t="shared" si="61"/>
@@ -34885,7 +34886,7 @@
       </c>
       <c r="F144" s="104">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="104">
         <f t="shared" si="62"/>
@@ -34910,7 +34911,7 @@
       </c>
       <c r="F145" s="104">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="104">
         <f t="shared" si="63"/>
@@ -34941,7 +34942,7 @@
       </c>
       <c r="F146" s="104">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="104">
         <f t="shared" si="64"/>
@@ -34966,7 +34967,7 @@
       </c>
       <c r="F147" s="104">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="104">
         <f t="shared" si="65"/>
@@ -34991,7 +34992,7 @@
       </c>
       <c r="F148" s="104">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="104">
         <f t="shared" si="66"/>
@@ -35022,7 +35023,7 @@
       </c>
       <c r="F149" s="104">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="104">
         <f t="shared" si="67"/>
@@ -35047,7 +35048,7 @@
       </c>
       <c r="F150" s="104">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="104">
         <f t="shared" si="68"/>
@@ -35072,7 +35073,7 @@
       </c>
       <c r="F151" s="104">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="104">
         <f t="shared" si="69"/>
@@ -35103,7 +35104,7 @@
       </c>
       <c r="F152" s="104">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="104">
         <f t="shared" si="70"/>
@@ -35128,7 +35129,7 @@
       </c>
       <c r="F153" s="104">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="104">
         <f t="shared" si="71"/>
@@ -35153,7 +35154,7 @@
       </c>
       <c r="F154" s="104">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="104">
         <f t="shared" si="72"/>
@@ -35181,7 +35182,7 @@
       </c>
       <c r="F155" s="104">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="104">
         <f t="shared" si="73"/>
@@ -35206,7 +35207,7 @@
       </c>
       <c r="F156" s="104">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="104">
         <f t="shared" si="74"/>
@@ -35231,7 +35232,7 @@
       </c>
       <c r="F157" s="104">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="104">
         <f t="shared" si="75"/>
@@ -35262,7 +35263,7 @@
       </c>
       <c r="F158" s="104">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="104">
         <f t="shared" si="76"/>
@@ -35279,23 +35280,23 @@
       </c>
       <c r="D159" s="104">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="104">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35310,23 +35311,23 @@
       </c>
       <c r="D160" s="104">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="104">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35343,7 +35344,7 @@
       </c>
       <c r="F161" s="104">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="104">
         <f t="shared" si="79"/>
@@ -35374,7 +35375,7 @@
       </c>
       <c r="F162" s="104">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="104">
         <f t="shared" si="80"/>
@@ -35399,7 +35400,7 @@
       </c>
       <c r="F163" s="104">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="104">
         <f t="shared" si="81"/>
@@ -35411,7 +35412,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VBTv+g9nkyy4vG1jheeo2V1tj/zq9f+K4NNy4qiHEQRO1b9NZPfBDyjNxKQm+dOfzi9UomxUkfEsx9nmCH6y8w==" saltValue="ad/sA7JzUPFzkg+Z9jAP5Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -37171,7 +37172,7 @@
       <c r="A2" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2" s="115">
         <v>10</v>
       </c>
     </row>
@@ -37179,7 +37180,7 @@
       <c r="A3" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>10</v>
       </c>
     </row>
@@ -37187,7 +37188,7 @@
       <c r="A4" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="115">
         <v>50</v>
       </c>
     </row>
@@ -37195,7 +37196,7 @@
       <c r="A5" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="115">
         <v>100</v>
       </c>
     </row>
@@ -37203,7 +37204,7 @@
       <c r="A6" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="115">
         <v>5</v>
       </c>
     </row>
@@ -37211,7 +37212,7 @@
       <c r="A7" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="115">
         <v>5</v>
       </c>
     </row>

--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39442AB4-720E-4168-84DC-D7101B1E1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C255EA74-B25B-4CA1-B3AB-ADE32E476BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1629,7 +1629,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1799,6 +1799,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2661,7 +2667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2925,12 +2931,15 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5106,18 +5115,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="8"/>
+    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5128,14 +5137,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>188</v>
@@ -5144,7 +5153,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>187</v>
@@ -5153,7 +5162,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -5222,7 +5231,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5362,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
         <v>124</v>
       </c>
@@ -5363,7 +5372,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>130</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5591,19 +5600,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="39" customWidth="1"/>
     <col min="2" max="2" width="20" style="27" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="27"/>
+    <col min="7" max="7" width="22.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.453125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
@@ -6535,15 +6544,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="27"/>
+    <col min="2" max="2" width="47.90625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -6554,7 +6563,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>182</v>
       </c>
@@ -6563,7 +6572,7 @@
       </c>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>202</v>
       </c>
@@ -6572,7 +6581,7 @@
       </c>
       <c r="C3" s="62"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>58</v>
       </c>
@@ -6581,7 +6590,7 @@
       </c>
       <c r="C4" s="62"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>132</v>
       </c>
@@ -6590,77 +6599,77 @@
       </c>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -6684,85 +6693,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="27" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="27"/>
+    <col min="1" max="1" width="30.08984375" style="27" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
     </row>
   </sheetData>
@@ -6783,7 +6792,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6898,19 +6907,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6957,7 +6966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7518,7 +7527,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>86</v>
@@ -7614,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>182</v>
@@ -7663,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>202</v>
@@ -7899,7 +7908,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -8149,7 +8158,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8657,7 +8666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8696,16 +8705,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="27"/>
-    <col min="5" max="5" width="17.44140625" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="27"/>
+    <col min="1" max="1" width="33.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="27"/>
+    <col min="5" max="5" width="17.453125" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>158</v>
       </c>
@@ -8722,7 +8731,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>153</v>
       </c>
@@ -8740,7 +8749,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>152</v>
       </c>
@@ -8758,7 +8767,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -8776,7 +8785,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
@@ -8794,7 +8803,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>149</v>
       </c>
@@ -8812,7 +8821,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>148</v>
       </c>
@@ -8830,7 +8839,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>147</v>
       </c>
@@ -8848,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>146</v>
       </c>
@@ -8866,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>145</v>
       </c>
@@ -8903,20 +8912,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="42"/>
+    <col min="6" max="7" width="13.08984375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
@@ -8963,7 +8972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
         <v>31</v>
       </c>
@@ -9010,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
         <v>144</v>
       </c>
@@ -9054,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>168</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39" t="s">
         <v>193</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="39" t="s">
         <v>194</v>
       </c>
@@ -9186,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="39" t="s">
         <v>190</v>
       </c>
@@ -9230,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="39" t="s">
         <v>131</v>
       </c>
@@ -9274,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="39" t="s">
         <v>132</v>
       </c>
@@ -9318,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="39" t="s">
         <v>84</v>
       </c>
@@ -9362,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="39" t="s">
         <v>58</v>
       </c>
@@ -9406,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="39" t="s">
         <v>337</v>
       </c>
@@ -9450,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="39" t="s">
         <v>67</v>
       </c>
@@ -9494,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="39" t="s">
         <v>28</v>
       </c>
@@ -9538,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="39" t="s">
         <v>85</v>
       </c>
@@ -9582,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="39" t="s">
         <v>60</v>
       </c>
@@ -9626,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="39"/>
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
@@ -9642,7 +9651,7 @@
       <c r="N17" s="98"/>
       <c r="O17" s="98"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
         <v>32</v>
       </c>
@@ -9689,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43"/>
       <c r="B19" s="39" t="s">
         <v>86</v>
@@ -9734,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72" t="s">
         <v>182</v>
       </c>
@@ -9778,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72" t="s">
         <v>202</v>
       </c>
@@ -9822,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="73" t="s">
         <v>57</v>
       </c>
@@ -9866,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="39" t="s">
         <v>88</v>
       </c>
@@ -9910,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="39" t="s">
         <v>87</v>
       </c>
@@ -9954,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="39" t="s">
         <v>59</v>
       </c>
@@ -9998,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="39"/>
       <c r="C26" s="98"/>
       <c r="D26" s="98"/>
@@ -10014,7 +10023,7 @@
       <c r="N26" s="98"/>
       <c r="O26" s="98"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
         <v>37</v>
       </c>
@@ -10062,7 +10071,7 @@
       </c>
       <c r="P27" s="74"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="45" t="s">
         <v>183</v>
       </c>
@@ -10106,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>201</v>
@@ -10151,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="45" t="s">
         <v>184</v>
       </c>
@@ -10195,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="45" t="s">
         <v>185</v>
       </c>
@@ -10239,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="39"/>
       <c r="C32" s="99"/>
       <c r="D32" s="99"/>
@@ -10255,7 +10264,7 @@
       <c r="N32" s="98"/>
       <c r="O32" s="98"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -10302,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="39" t="s">
         <v>64</v>
       </c>
@@ -10346,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="39" t="s">
         <v>62</v>
       </c>
@@ -10390,7 +10399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="39" t="s">
         <v>47</v>
       </c>
@@ -10434,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="39" t="s">
         <v>34</v>
       </c>
@@ -10478,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="39" t="s">
         <v>83</v>
       </c>
@@ -10522,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="39" t="s">
         <v>82</v>
       </c>
@@ -10566,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="39" t="s">
         <v>81</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="39" t="s">
         <v>79</v>
       </c>
@@ -10654,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="39" t="s">
         <v>80</v>
       </c>
@@ -10715,22 +10724,22 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="27"/>
+    <col min="1" max="1" width="58.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -10765,7 +10774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>29</v>
       </c>
@@ -10782,7 +10791,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>86</v>
       </c>
@@ -10799,7 +10808,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>61</v>
       </c>
@@ -10816,7 +10825,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>144</v>
       </c>
@@ -10833,7 +10842,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>192</v>
       </c>
@@ -10852,7 +10861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>63</v>
       </c>
@@ -10871,7 +10880,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>64</v>
       </c>
@@ -10890,7 +10899,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>62</v>
       </c>
@@ -10909,7 +10918,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>183</v>
       </c>
@@ -10926,7 +10935,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>201</v>
       </c>
@@ -10943,7 +10952,7 @@
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>184</v>
       </c>
@@ -10960,7 +10969,7 @@
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>185</v>
       </c>
@@ -10977,7 +10986,7 @@
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>182</v>
       </c>
@@ -10996,7 +11005,7 @@
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>202</v>
       </c>
@@ -11015,7 +11024,7 @@
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>57</v>
       </c>
@@ -11036,7 +11045,7 @@
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>47</v>
       </c>
@@ -11053,7 +11062,7 @@
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>168</v>
       </c>
@@ -11072,7 +11081,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>193</v>
       </c>
@@ -11091,7 +11100,7 @@
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>194</v>
       </c>
@@ -11110,7 +11119,7 @@
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>190</v>
       </c>
@@ -11129,7 +11138,7 @@
       <c r="J21" s="101"/>
       <c r="K21" s="101"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>131</v>
       </c>
@@ -11150,7 +11159,7 @@
       <c r="J22" s="101"/>
       <c r="K22" s="101"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>34</v>
       </c>
@@ -11169,7 +11178,7 @@
       <c r="J23" s="101"/>
       <c r="K23" s="101"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -11186,7 +11195,7 @@
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>87</v>
       </c>
@@ -11203,7 +11212,7 @@
       <c r="J25" s="101"/>
       <c r="K25" s="101"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>132</v>
       </c>
@@ -11220,7 +11229,7 @@
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>59</v>
       </c>
@@ -11239,7 +11248,7 @@
       <c r="J27" s="101"/>
       <c r="K27" s="101"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>84</v>
       </c>
@@ -11256,7 +11265,7 @@
       <c r="J28" s="101"/>
       <c r="K28" s="101"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -11275,7 +11284,7 @@
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>337</v>
       </c>
@@ -11296,7 +11305,7 @@
       <c r="J30" s="101"/>
       <c r="K30" s="101"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>67</v>
       </c>
@@ -11313,7 +11322,7 @@
       <c r="J31" s="101"/>
       <c r="K31" s="101"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>28</v>
       </c>
@@ -11332,7 +11341,7 @@
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>83</v>
       </c>
@@ -11351,7 +11360,7 @@
       <c r="J33" s="101"/>
       <c r="K33" s="101"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>82</v>
       </c>
@@ -11370,7 +11379,7 @@
       <c r="J34" s="101"/>
       <c r="K34" s="101"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>81</v>
       </c>
@@ -11389,7 +11398,7 @@
       <c r="J35" s="101"/>
       <c r="K35" s="101"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>79</v>
       </c>
@@ -11408,7 +11417,7 @@
       <c r="J36" s="101"/>
       <c r="K36" s="101"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>80</v>
       </c>
@@ -11427,7 +11436,7 @@
       <c r="J37" s="101"/>
       <c r="K37" s="101"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>85</v>
       </c>
@@ -11444,7 +11453,7 @@
       <c r="J38" s="101"/>
       <c r="K38" s="101"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>60</v>
       </c>
@@ -11482,22 +11491,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="27"/>
+    <col min="1" max="1" width="16.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>211</v>
       </c>
@@ -11532,7 +11541,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -11561,7 +11570,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -11590,7 +11599,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -11619,7 +11628,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -11648,7 +11657,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -11677,7 +11686,7 @@
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>53</v>
       </c>
@@ -11698,7 +11707,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>54</v>
       </c>
@@ -11719,7 +11728,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>55</v>
       </c>
@@ -11740,7 +11749,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>56</v>
       </c>
@@ -11761,7 +11770,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
@@ -11782,7 +11791,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>50</v>
       </c>
@@ -11801,7 +11810,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>51</v>
       </c>
@@ -11820,7 +11829,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>52</v>
       </c>
@@ -11856,14 +11865,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.88671875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="8"/>
+    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.90625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -12951,15 +12960,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="27" customWidth="1"/>
     <col min="2" max="2" width="15" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="27"/>
+    <col min="3" max="3" width="14.6328125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>212</v>
       </c>
@@ -12985,11 +12994,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -13011,8 +13020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="115"/>
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="116"/>
       <c r="C3" s="27" t="s">
         <v>170</v>
       </c>
@@ -13033,8 +13042,8 @@
       </c>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="116"/>
       <c r="C4" s="27" t="s">
         <v>169</v>
       </c>
@@ -13055,8 +13064,8 @@
       </c>
       <c r="J4" s="75"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="115" t="s">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13079,8 +13088,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="115"/>
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="116"/>
       <c r="C6" s="27" t="s">
         <v>170</v>
       </c>
@@ -13100,8 +13109,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="116"/>
       <c r="C7" s="27" t="s">
         <v>169</v>
       </c>
@@ -13121,8 +13130,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13144,8 +13153,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="116"/>
       <c r="C9" s="27" t="s">
         <v>170</v>
       </c>
@@ -13165,8 +13174,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="116"/>
       <c r="C10" s="27" t="s">
         <v>169</v>
       </c>
@@ -13186,8 +13195,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13209,8 +13218,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="116"/>
       <c r="C12" s="27" t="s">
         <v>170</v>
       </c>
@@ -13230,8 +13239,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="116"/>
       <c r="C13" s="27" t="s">
         <v>169</v>
       </c>
@@ -13251,8 +13260,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13274,8 +13283,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="116"/>
       <c r="C15" s="27" t="s">
         <v>170</v>
       </c>
@@ -13295,8 +13304,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="115"/>
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="116"/>
       <c r="C16" s="27" t="s">
         <v>169</v>
       </c>
@@ -13316,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="76" t="s">
         <v>167</v>
       </c>
@@ -13339,18 +13348,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13372,8 +13381,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="115"/>
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="116"/>
       <c r="C20" s="27" t="s">
         <v>170</v>
       </c>
@@ -13393,8 +13402,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="115"/>
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="116"/>
       <c r="C21" s="27" t="s">
         <v>169</v>
       </c>
@@ -13414,8 +13423,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13437,8 +13446,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="115"/>
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="116"/>
       <c r="C23" s="27" t="s">
         <v>170</v>
       </c>
@@ -13458,8 +13467,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="116"/>
       <c r="C24" s="27" t="s">
         <v>169</v>
       </c>
@@ -13479,8 +13488,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="115" t="s">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13502,8 +13511,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="116"/>
       <c r="C26" s="27" t="s">
         <v>170</v>
       </c>
@@ -13523,8 +13532,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="115"/>
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="116"/>
       <c r="C27" s="27" t="s">
         <v>169</v>
       </c>
@@ -13544,8 +13553,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="115" t="s">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13567,8 +13576,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="116"/>
       <c r="C29" s="27" t="s">
         <v>170</v>
       </c>
@@ -13588,8 +13597,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="115"/>
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="116"/>
       <c r="C30" s="27" t="s">
         <v>169</v>
       </c>
@@ -13609,8 +13618,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="115" t="s">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13632,8 +13641,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="115"/>
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="116"/>
       <c r="C32" s="27" t="s">
         <v>170</v>
       </c>
@@ -13653,8 +13662,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="116"/>
       <c r="C33" s="27" t="s">
         <v>169</v>
       </c>
@@ -13674,7 +13683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="76" t="s">
         <v>167</v>
       </c>
@@ -13697,18 +13706,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D35" s="100"/>
       <c r="E35" s="100"/>
       <c r="F35" s="100"/>
       <c r="G35" s="100"/>
       <c r="H35" s="100"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -13730,8 +13739,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="115"/>
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="116"/>
       <c r="C37" s="27" t="s">
         <v>170</v>
       </c>
@@ -13751,8 +13760,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="116"/>
       <c r="C38" s="27" t="s">
         <v>169</v>
       </c>
@@ -13772,8 +13781,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="115" t="s">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -13795,8 +13804,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="115"/>
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="116"/>
       <c r="C40" s="27" t="s">
         <v>170</v>
       </c>
@@ -13816,8 +13825,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="115"/>
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="116"/>
       <c r="C41" s="27" t="s">
         <v>169</v>
       </c>
@@ -13837,8 +13846,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B42" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -13860,8 +13869,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="115"/>
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="116"/>
       <c r="C43" s="27" t="s">
         <v>170</v>
       </c>
@@ -13881,8 +13890,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="115"/>
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="116"/>
       <c r="C44" s="27" t="s">
         <v>169</v>
       </c>
@@ -13902,8 +13911,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="115" t="s">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -13925,8 +13934,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="115"/>
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B46" s="116"/>
       <c r="C46" s="27" t="s">
         <v>170</v>
       </c>
@@ -13946,8 +13955,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="115"/>
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B47" s="116"/>
       <c r="C47" s="27" t="s">
         <v>169</v>
       </c>
@@ -13967,8 +13976,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="115" t="s">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -13990,8 +13999,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
+    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="116"/>
       <c r="C49" s="27" t="s">
         <v>170</v>
       </c>
@@ -14011,8 +14020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="115"/>
+    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="116"/>
       <c r="C50" s="27" t="s">
         <v>169</v>
       </c>
@@ -14032,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="76" t="s">
         <v>167</v>
       </c>
@@ -14055,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="106" t="s">
         <v>267</v>
       </c>
@@ -14067,7 +14076,7 @@
       <c r="G53" s="106"/>
       <c r="H53" s="106"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>212</v>
       </c>
@@ -14093,11 +14102,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14124,8 +14133,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="115"/>
+    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B56" s="116"/>
       <c r="C56" s="27" t="s">
         <v>170</v>
       </c>
@@ -14150,8 +14159,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
+    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="116"/>
       <c r="C57" s="27" t="s">
         <v>169</v>
       </c>
@@ -14176,8 +14185,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="115" t="s">
+    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14204,8 +14213,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="115"/>
+    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B59" s="116"/>
       <c r="C59" s="27" t="s">
         <v>170</v>
       </c>
@@ -14230,8 +14239,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="115"/>
+    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="116"/>
       <c r="C60" s="27" t="s">
         <v>169</v>
       </c>
@@ -14256,8 +14265,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="115" t="s">
+    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B61" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14284,8 +14293,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
+    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="116"/>
       <c r="C62" s="27" t="s">
         <v>170</v>
       </c>
@@ -14310,8 +14319,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="115"/>
+    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B63" s="116"/>
       <c r="C63" s="27" t="s">
         <v>169</v>
       </c>
@@ -14336,8 +14345,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="115" t="s">
+    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14364,8 +14373,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="115"/>
+    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B65" s="116"/>
       <c r="C65" s="27" t="s">
         <v>170</v>
       </c>
@@ -14390,8 +14399,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="115"/>
+    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="116"/>
       <c r="C66" s="27" t="s">
         <v>169</v>
       </c>
@@ -14416,8 +14425,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="115" t="s">
+    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14444,8 +14453,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="115"/>
+    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="116"/>
       <c r="C68" s="27" t="s">
         <v>170</v>
       </c>
@@ -14470,8 +14479,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="115"/>
+    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="116"/>
       <c r="C69" s="27" t="s">
         <v>169</v>
       </c>
@@ -14496,7 +14505,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B70" s="76" t="s">
         <v>167</v>
       </c>
@@ -14531,11 +14540,11 @@
       <c r="G71" s="100"/>
       <c r="H71" s="100"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="115" t="s">
+      <c r="B72" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14563,7 +14572,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="115"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="27" t="s">
         <v>170</v>
       </c>
@@ -14589,7 +14598,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="115"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="27" t="s">
         <v>169</v>
       </c>
@@ -14615,7 +14624,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="115" t="s">
+      <c r="B75" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14643,7 +14652,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="115"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="27" t="s">
         <v>170</v>
       </c>
@@ -14669,7 +14678,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="115"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="27" t="s">
         <v>169</v>
       </c>
@@ -14695,7 +14704,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -14723,7 +14732,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="115"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="27" t="s">
         <v>170</v>
       </c>
@@ -14749,7 +14758,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="115"/>
+      <c r="B80" s="116"/>
       <c r="C80" s="27" t="s">
         <v>169</v>
       </c>
@@ -14775,7 +14784,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="115" t="s">
+      <c r="B81" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -14803,7 +14812,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="115"/>
+      <c r="B82" s="116"/>
       <c r="C82" s="27" t="s">
         <v>170</v>
       </c>
@@ -14829,7 +14838,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="115"/>
+      <c r="B83" s="116"/>
       <c r="C83" s="27" t="s">
         <v>169</v>
       </c>
@@ -14855,7 +14864,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -14883,7 +14892,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="115"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="27" t="s">
         <v>170</v>
       </c>
@@ -14909,7 +14918,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="115"/>
+      <c r="B86" s="116"/>
       <c r="C86" s="27" t="s">
         <v>169</v>
       </c>
@@ -14934,7 +14943,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B87" s="76" t="s">
         <v>167</v>
       </c>
@@ -14969,11 +14978,11 @@
       <c r="G88" s="100"/>
       <c r="H88" s="100"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="115" t="s">
+      <c r="B89" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -15001,7 +15010,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="115"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="27" t="s">
         <v>170</v>
       </c>
@@ -15027,7 +15036,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="115"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="27" t="s">
         <v>169</v>
       </c>
@@ -15053,7 +15062,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15081,7 +15090,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="115"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="27" t="s">
         <v>170</v>
       </c>
@@ -15107,7 +15116,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="115"/>
+      <c r="B94" s="116"/>
       <c r="C94" s="27" t="s">
         <v>169</v>
       </c>
@@ -15133,7 +15142,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15161,7 +15170,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="115"/>
+      <c r="B96" s="116"/>
       <c r="C96" s="27" t="s">
         <v>170</v>
       </c>
@@ -15187,7 +15196,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="115"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="27" t="s">
         <v>169</v>
       </c>
@@ -15213,7 +15222,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="115" t="s">
+      <c r="B98" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15241,7 +15250,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="115"/>
+      <c r="B99" s="116"/>
       <c r="C99" s="27" t="s">
         <v>170</v>
       </c>
@@ -15267,7 +15276,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="115"/>
+      <c r="B100" s="116"/>
       <c r="C100" s="27" t="s">
         <v>169</v>
       </c>
@@ -15293,7 +15302,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15321,7 +15330,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="115"/>
+      <c r="B102" s="116"/>
       <c r="C102" s="27" t="s">
         <v>170</v>
       </c>
@@ -15347,7 +15356,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="115"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="27" t="s">
         <v>169</v>
       </c>
@@ -15372,7 +15381,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B104" s="76" t="s">
         <v>167</v>
       </c>
@@ -15400,7 +15409,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="106" t="s">
         <v>268</v>
       </c>
@@ -15412,7 +15421,7 @@
       <c r="G106" s="106"/>
       <c r="H106" s="106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="29" t="s">
         <v>212</v>
       </c>
@@ -15438,11 +15447,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="115" t="s">
+      <c r="B108" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15470,7 +15479,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="115"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="27" t="s">
         <v>170</v>
       </c>
@@ -15496,7 +15505,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="115"/>
+      <c r="B110" s="116"/>
       <c r="C110" s="27" t="s">
         <v>169</v>
       </c>
@@ -15522,7 +15531,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="115" t="s">
+      <c r="B111" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -15550,7 +15559,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="115"/>
+      <c r="B112" s="116"/>
       <c r="C112" s="27" t="s">
         <v>170</v>
       </c>
@@ -15576,7 +15585,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="115"/>
+      <c r="B113" s="116"/>
       <c r="C113" s="27" t="s">
         <v>169</v>
       </c>
@@ -15602,7 +15611,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="115" t="s">
+      <c r="B114" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -15630,7 +15639,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="115"/>
+      <c r="B115" s="116"/>
       <c r="C115" s="27" t="s">
         <v>170</v>
       </c>
@@ -15656,7 +15665,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="115"/>
+      <c r="B116" s="116"/>
       <c r="C116" s="27" t="s">
         <v>169</v>
       </c>
@@ -15682,7 +15691,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="115" t="s">
+      <c r="B117" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -15710,7 +15719,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="115"/>
+      <c r="B118" s="116"/>
       <c r="C118" s="27" t="s">
         <v>170</v>
       </c>
@@ -15736,7 +15745,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="115"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="27" t="s">
         <v>169</v>
       </c>
@@ -15762,7 +15771,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="115" t="s">
+      <c r="B120" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -15790,7 +15799,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="115"/>
+      <c r="B121" s="116"/>
       <c r="C121" s="27" t="s">
         <v>170</v>
       </c>
@@ -15816,7 +15825,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="115"/>
+      <c r="B122" s="116"/>
       <c r="C122" s="27" t="s">
         <v>169</v>
       </c>
@@ -15841,7 +15850,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B123" s="76" t="s">
         <v>167</v>
       </c>
@@ -15876,11 +15885,11 @@
       <c r="G124" s="100"/>
       <c r="H124" s="100"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="B125" s="115" t="s">
+      <c r="B125" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -15908,7 +15917,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="115"/>
+      <c r="B126" s="116"/>
       <c r="C126" s="27" t="s">
         <v>170</v>
       </c>
@@ -15934,7 +15943,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="115"/>
+      <c r="B127" s="116"/>
       <c r="C127" s="27" t="s">
         <v>169</v>
       </c>
@@ -15960,7 +15969,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="115" t="s">
+      <c r="B128" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -15988,7 +15997,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="115"/>
+      <c r="B129" s="116"/>
       <c r="C129" s="27" t="s">
         <v>170</v>
       </c>
@@ -16014,7 +16023,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="115"/>
+      <c r="B130" s="116"/>
       <c r="C130" s="27" t="s">
         <v>169</v>
       </c>
@@ -16040,7 +16049,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="115" t="s">
+      <c r="B131" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -16068,7 +16077,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="115"/>
+      <c r="B132" s="116"/>
       <c r="C132" s="27" t="s">
         <v>170</v>
       </c>
@@ -16094,7 +16103,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="115"/>
+      <c r="B133" s="116"/>
       <c r="C133" s="27" t="s">
         <v>169</v>
       </c>
@@ -16120,7 +16129,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="115" t="s">
+      <c r="B134" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -16148,7 +16157,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="115"/>
+      <c r="B135" s="116"/>
       <c r="C135" s="27" t="s">
         <v>170</v>
       </c>
@@ -16174,7 +16183,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="115"/>
+      <c r="B136" s="116"/>
       <c r="C136" s="27" t="s">
         <v>169</v>
       </c>
@@ -16200,7 +16209,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="115" t="s">
+      <c r="B137" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -16228,7 +16237,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="115"/>
+      <c r="B138" s="116"/>
       <c r="C138" s="27" t="s">
         <v>170</v>
       </c>
@@ -16254,7 +16263,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="115"/>
+      <c r="B139" s="116"/>
       <c r="C139" s="27" t="s">
         <v>169</v>
       </c>
@@ -16279,7 +16288,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B140" s="76" t="s">
         <v>167</v>
       </c>
@@ -16314,11 +16323,11 @@
       <c r="G141" s="100"/>
       <c r="H141" s="100"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="B142" s="115" t="s">
+      <c r="B142" s="116" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -16346,7 +16355,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="115"/>
+      <c r="B143" s="116"/>
       <c r="C143" s="27" t="s">
         <v>170</v>
       </c>
@@ -16372,7 +16381,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="115"/>
+      <c r="B144" s="116"/>
       <c r="C144" s="27" t="s">
         <v>169</v>
       </c>
@@ -16398,7 +16407,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="115" t="s">
+      <c r="B145" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -16426,7 +16435,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="115"/>
+      <c r="B146" s="116"/>
       <c r="C146" s="27" t="s">
         <v>170</v>
       </c>
@@ -16452,7 +16461,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="115"/>
+      <c r="B147" s="116"/>
       <c r="C147" s="27" t="s">
         <v>169</v>
       </c>
@@ -16478,7 +16487,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="115" t="s">
+      <c r="B148" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -16506,7 +16515,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="115"/>
+      <c r="B149" s="116"/>
       <c r="C149" s="27" t="s">
         <v>170</v>
       </c>
@@ -16532,7 +16541,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="115"/>
+      <c r="B150" s="116"/>
       <c r="C150" s="27" t="s">
         <v>169</v>
       </c>
@@ -16558,7 +16567,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="115" t="s">
+      <c r="B151" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -16586,7 +16595,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="115"/>
+      <c r="B152" s="116"/>
       <c r="C152" s="27" t="s">
         <v>170</v>
       </c>
@@ -16612,7 +16621,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="115"/>
+      <c r="B153" s="116"/>
       <c r="C153" s="27" t="s">
         <v>169</v>
       </c>
@@ -16638,7 +16647,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="115" t="s">
+      <c r="B154" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -16666,7 +16675,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="115"/>
+      <c r="B155" s="116"/>
       <c r="C155" s="27" t="s">
         <v>170</v>
       </c>
@@ -16692,7 +16701,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="115"/>
+      <c r="B156" s="116"/>
       <c r="C156" s="27" t="s">
         <v>169</v>
       </c>
@@ -16717,7 +16726,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B157" s="76" t="s">
         <v>167</v>
       </c>
@@ -16748,6 +16757,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tLFUmDyoH82P3agTzdNhIl/nrPXW114misPcwvY90QMxHUTQPj6nXWoXArIchS0+Y1PkNffvDNQ/0vLhBaHAnA==" saltValue="GmZrDncYr09T1PgEJ065qQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16757,42 +16802,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16813,22 +16822,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="27" customWidth="1"/>
     <col min="5" max="6" width="15" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="27"/>
+    <col min="7" max="16384" width="16.08984375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="80"/>
       <c r="C2" s="81" t="s">
         <v>26</v>
@@ -16843,7 +16852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>217</v>
       </c>
@@ -16927,7 +16936,7 @@
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>218</v>
       </c>
@@ -16950,7 +16959,7 @@
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
     </row>
-    <row r="11" spans="1:6" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
         <v>219</v>
       </c>
@@ -16959,7 +16968,7 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>220</v>
       </c>
@@ -17019,7 +17028,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="45"/>
       <c r="C16" s="89"/>
@@ -17027,7 +17036,7 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>224</v>
       </c>
@@ -17176,7 +17185,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="106" t="s">
         <v>267</v>
       </c>
@@ -17186,12 +17195,12 @@
       <c r="E27" s="109"/>
       <c r="F27" s="109"/>
     </row>
-    <row r="28" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="80"/>
       <c r="C29" s="81" t="s">
         <v>26</v>
@@ -17206,7 +17215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>297</v>
       </c>
@@ -17306,7 +17315,7 @@
       <c r="E35" s="75"/>
       <c r="F35" s="75"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>304</v>
       </c>
@@ -17327,7 +17336,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
         <v>219</v>
       </c>
@@ -17337,7 +17346,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="88"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>298</v>
       </c>
@@ -17409,7 +17418,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" s="45"/>
       <c r="C43" s="89"/>
@@ -17417,7 +17426,7 @@
       <c r="E43" s="75"/>
       <c r="F43" s="75"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>302</v>
       </c>
@@ -17595,7 +17604,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="106" t="s">
         <v>268</v>
       </c>
@@ -17605,12 +17614,12 @@
       <c r="E54" s="109"/>
       <c r="F54" s="109"/>
     </row>
-    <row r="55" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="80"/>
       <c r="C56" s="81" t="s">
         <v>26</v>
@@ -17625,7 +17634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>303</v>
       </c>
@@ -17725,7 +17734,7 @@
       <c r="E62" s="75"/>
       <c r="F62" s="75"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>305</v>
       </c>
@@ -17746,7 +17755,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
         <v>219</v>
       </c>
@@ -17756,7 +17765,7 @@
       <c r="E65" s="88"/>
       <c r="F65" s="88"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>306</v>
       </c>
@@ -17828,7 +17837,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" s="45"/>
       <c r="C70" s="89"/>
@@ -17836,7 +17845,7 @@
       <c r="E70" s="75"/>
       <c r="F70" s="75"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29" t="s">
         <v>310</v>
       </c>
@@ -18035,23 +18044,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="27" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="27" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="27"/>
+    <col min="1" max="1" width="27.1796875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="27" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="27" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>206</v>
       </c>
@@ -18085,7 +18094,7 @@
       <c r="O2" s="93"/>
       <c r="P2" s="93"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="27" t="s">
         <v>71</v>
@@ -18518,7 +18527,7 @@
       <c r="O17" s="92"/>
       <c r="P17" s="92"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="31" t="s">
         <v>231</v>
       </c>
@@ -18776,12 +18785,12 @@
       <c r="O26" s="92"/>
       <c r="P26" s="92"/>
     </row>
-    <row r="28" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="92" t="s">
         <v>233</v>
       </c>
@@ -18815,7 +18824,7 @@
       <c r="O29" s="93"/>
       <c r="P29" s="93"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="27" t="s">
         <v>71</v>
@@ -19510,12 +19519,12 @@
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
     </row>
-    <row r="55" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="92" t="s">
         <v>70</v>
       </c>
@@ -19543,7 +19552,7 @@
       <c r="O56" s="93"/>
       <c r="P56" s="93"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" s="27" t="s">
         <v>38</v>
@@ -19689,12 +19698,12 @@
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="92" t="s">
         <v>24</v>
       </c>
@@ -19728,7 +19737,7 @@
       <c r="O65" s="93"/>
       <c r="P65" s="93"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="96"/>
       <c r="B66" s="27" t="s">
         <v>73</v>
@@ -20764,12 +20773,12 @@
       <c r="O101" s="92"/>
       <c r="P101" s="92"/>
     </row>
-    <row r="103" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="78" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="92" t="s">
         <v>71</v>
       </c>
@@ -20803,7 +20812,7 @@
       <c r="O104" s="93"/>
       <c r="P104" s="93"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="C105" s="31" t="s">
         <v>161</v>
@@ -20916,13 +20925,13 @@
       <c r="O108" s="92"/>
       <c r="P108" s="92"/>
     </row>
-    <row r="110" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="106" t="s">
         <v>267</v>
       </c>
       <c r="H110" s="106"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="78" t="s">
         <v>225</v>
       </c>
@@ -20934,7 +20943,7 @@
       <c r="G111" s="79"/>
       <c r="H111" s="79"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="92" t="s">
         <v>206</v>
       </c>
@@ -20960,7 +20969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="29"/>
       <c r="B113" s="27" t="s">
         <v>71</v>
@@ -21579,7 +21588,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="78" t="s">
         <v>232</v>
       </c>
@@ -21591,7 +21600,7 @@
       <c r="G138" s="79"/>
       <c r="H138" s="79"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="92" t="s">
         <v>233</v>
       </c>
@@ -21617,7 +21626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="29"/>
       <c r="B140" s="27" t="s">
         <v>71</v>
@@ -22240,7 +22249,7 @@
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="78" t="s">
         <v>235</v>
       </c>
@@ -22252,7 +22261,7 @@
       <c r="G165" s="79"/>
       <c r="H165" s="79"/>
     </row>
-    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A166" s="92" t="s">
         <v>70</v>
       </c>
@@ -22276,7 +22285,7 @@
       </c>
       <c r="H166" s="93"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" s="27" t="s">
         <v>38</v>
@@ -22422,7 +22431,7 @@
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="78" t="s">
         <v>239</v>
       </c>
@@ -22434,7 +22443,7 @@
       <c r="G174" s="79"/>
       <c r="H174" s="79"/>
     </row>
-    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A175" s="92" t="s">
         <v>24</v>
       </c>
@@ -22460,7 +22469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="96"/>
       <c r="B176" s="27" t="s">
         <v>73</v>
@@ -23352,7 +23361,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="78" t="s">
         <v>241</v>
       </c>
@@ -23364,7 +23373,7 @@
       <c r="G213" s="79"/>
       <c r="H213" s="79"/>
     </row>
-    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A214" s="92" t="s">
         <v>71</v>
       </c>
@@ -23390,7 +23399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="29"/>
       <c r="C215" s="31" t="s">
         <v>161</v>
@@ -23487,13 +23496,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A220" s="106" t="s">
         <v>268</v>
       </c>
       <c r="H220" s="106"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A221" s="78" t="s">
         <v>225</v>
       </c>
@@ -23506,7 +23515,7 @@
       <c r="H221" s="79"/>
       <c r="I221" s="79"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A222" s="92" t="s">
         <v>206</v>
       </c>
@@ -23533,7 +23542,7 @@
       </c>
       <c r="I222" s="93"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="29"/>
       <c r="B223" s="27" t="s">
         <v>71</v>
@@ -24176,7 +24185,7 @@
       </c>
       <c r="I246" s="92"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="78" t="s">
         <v>232</v>
       </c>
@@ -24189,7 +24198,7 @@
       <c r="H248" s="79"/>
       <c r="I248" s="79"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="92" t="s">
         <v>233</v>
       </c>
@@ -24216,7 +24225,7 @@
       </c>
       <c r="I249" s="93"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="29"/>
       <c r="B250" s="27" t="s">
         <v>71</v>
@@ -24863,7 +24872,7 @@
       <c r="C274" s="31"/>
       <c r="D274" s="31"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A275" s="78" t="s">
         <v>235</v>
       </c>
@@ -24876,7 +24885,7 @@
       <c r="H275" s="79"/>
       <c r="I275" s="79"/>
     </row>
-    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A276" s="92" t="s">
         <v>70</v>
       </c>
@@ -24900,7 +24909,7 @@
       </c>
       <c r="H276" s="93"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A277" s="29"/>
       <c r="B277" s="27" t="s">
         <v>38</v>
@@ -25046,7 +25055,7 @@
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A284" s="78" t="s">
         <v>239</v>
       </c>
@@ -25059,7 +25068,7 @@
       <c r="H284" s="79"/>
       <c r="I284" s="79"/>
     </row>
-    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A285" s="92" t="s">
         <v>24</v>
       </c>
@@ -25086,7 +25095,7 @@
       </c>
       <c r="I285" s="93"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A286" s="96"/>
       <c r="B286" s="27" t="s">
         <v>73</v>
@@ -26014,7 +26023,7 @@
       </c>
       <c r="I321" s="92"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A323" s="78" t="s">
         <v>241</v>
       </c>
@@ -26027,7 +26036,7 @@
       <c r="H323" s="79"/>
       <c r="I323" s="79"/>
     </row>
-    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A324" s="92" t="s">
         <v>71</v>
       </c>
@@ -26054,7 +26063,7 @@
       </c>
       <c r="I324" s="93"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A325" s="29"/>
       <c r="C325" s="31" t="s">
         <v>161</v>
@@ -26176,24 +26185,24 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="44.90625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="27" customWidth="1"/>
     <col min="6" max="6" width="15" style="27" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="27"/>
+    <col min="7" max="7" width="13.6328125" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>25</v>
       </c>
@@ -26234,7 +26243,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="72" t="s">
         <v>245</v>
@@ -26255,7 +26264,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
         <v>246</v>
       </c>
@@ -26348,12 +26357,12 @@
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
     </row>
-    <row r="11" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="45" t="s">
         <v>190</v>
@@ -26374,16 +26383,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="45"/>
     </row>
-    <row r="14" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="s">
         <v>233</v>
       </c>
@@ -26406,7 +26415,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="72" t="s">
         <v>250</v>
@@ -26427,7 +26436,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="s">
         <v>70</v>
       </c>
@@ -26451,12 +26460,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="43" t="s">
         <v>49</v>
       </c>
@@ -26487,12 +26496,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
         <v>242</v>
       </c>
@@ -26503,7 +26512,7 @@
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="96" t="s">
         <v>25</v>
       </c>
@@ -26548,7 +26557,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="72" t="s">
         <v>278</v>
@@ -26574,7 +26583,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="83" t="s">
         <v>319</v>
       </c>
@@ -26687,7 +26696,7 @@
       <c r="F33" s="72"/>
       <c r="G33" s="72"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
         <v>320</v>
       </c>
@@ -26698,7 +26707,7 @@
       <c r="F34" s="79"/>
       <c r="G34" s="79"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="83"/>
       <c r="B35" s="45" t="s">
         <v>282</v>
@@ -26721,11 +26730,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="83"/>
       <c r="B36" s="45"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
         <v>248</v>
       </c>
@@ -26736,7 +26745,7 @@
       <c r="F37" s="79"/>
       <c r="G37" s="79"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="96" t="s">
         <v>233</v>
       </c>
@@ -26764,7 +26773,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="72" t="s">
         <v>284</v>
@@ -26790,7 +26799,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="96" t="s">
         <v>70</v>
       </c>
@@ -26818,7 +26827,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
         <v>321</v>
       </c>
@@ -26829,7 +26838,7 @@
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="43" t="s">
@@ -26867,12 +26876,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
         <v>242</v>
       </c>
@@ -26883,7 +26892,7 @@
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="96" t="s">
         <v>25</v>
       </c>
@@ -26928,7 +26937,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" s="72" t="s">
         <v>288</v>
@@ -26954,7 +26963,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="83" t="s">
         <v>324</v>
       </c>
@@ -27067,7 +27076,7 @@
       <c r="F56" s="72"/>
       <c r="G56" s="72"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
         <v>322</v>
       </c>
@@ -27078,7 +27087,7 @@
       <c r="F57" s="79"/>
       <c r="G57" s="79"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="83"/>
       <c r="B58" s="45" t="s">
         <v>292</v>
@@ -27101,11 +27110,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="83"/>
       <c r="B59" s="45"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
         <v>248</v>
       </c>
@@ -27116,7 +27125,7 @@
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="96" t="s">
         <v>233</v>
       </c>
@@ -27144,7 +27153,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" s="72" t="s">
         <v>294</v>
@@ -27170,7 +27179,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="96" t="s">
         <v>70</v>
       </c>
@@ -27198,7 +27207,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
         <v>323</v>
       </c>
@@ -27209,7 +27218,7 @@
       <c r="F65" s="79"/>
       <c r="G65" s="79"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="43" t="s">
@@ -27269,16 +27278,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="27" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="27"/>
-    <col min="7" max="7" width="17.21875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="27"/>
+    <col min="1" max="1" width="52.1796875" style="27" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="27"/>
+    <col min="7" max="7" width="17.1796875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
@@ -27524,12 +27533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>69</v>
       </c>
@@ -27823,12 +27832,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>69</v>
       </c>
@@ -28143,15 +28152,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="27"/>
+    <col min="16" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="82" t="s">
@@ -28194,7 +28203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>255</v>
       </c>
@@ -28639,7 +28648,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>132</v>
       </c>
@@ -28771,7 +28780,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>256</v>
       </c>
@@ -28953,12 +28962,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="82" t="s">
@@ -29001,7 +29010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>271</v>
       </c>
@@ -29747,7 +29756,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>272</v>
       </c>
@@ -29981,12 +29990,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="82" t="s">
@@ -30029,7 +30038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>273</v>
       </c>
@@ -30775,7 +30784,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>274</v>
       </c>
@@ -31030,15 +31039,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="27" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="27"/>
+    <col min="1" max="1" width="21.36328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="27" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="41"/>
       <c r="C1" s="29" t="s">
@@ -31057,12 +31066,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="45" t="s">
         <v>67</v>
       </c>
@@ -31082,7 +31091,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>258</v>
       </c>
@@ -31093,7 +31102,7 @@
       <c r="F4" s="97"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
         <v>178</v>
       </c>
@@ -31113,12 +31122,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="106" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="41"/>
       <c r="C8" s="29" t="s">
@@ -31137,12 +31146,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -31167,7 +31176,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>275</v>
       </c>
@@ -31178,7 +31187,7 @@
       <c r="F11" s="97"/>
       <c r="G11" s="97"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="72" t="s">
         <v>178</v>
       </c>
@@ -31203,12 +31212,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="41"/>
       <c r="C15" s="29" t="s">
@@ -31227,12 +31236,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>67</v>
       </c>
@@ -31257,7 +31266,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>277</v>
       </c>
@@ -31268,7 +31277,7 @@
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="72" t="s">
         <v>178</v>
       </c>
@@ -31314,20 +31323,20 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="39" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="39" customWidth="1"/>
     <col min="4" max="4" width="15" style="27" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="27"/>
-    <col min="8" max="8" width="17.5546875" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="27"/>
+    <col min="5" max="5" width="13.6328125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="27"/>
+    <col min="8" max="8" width="17.54296875" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -31353,7 +31362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>28</v>
       </c>
@@ -31379,7 +31388,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="39" t="s">
         <v>262</v>
       </c>
@@ -31399,7 +31408,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="39" t="s">
         <v>263</v>
       </c>
@@ -31419,7 +31428,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>58</v>
       </c>
@@ -31445,7 +31454,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>263</v>
       </c>
@@ -31465,7 +31474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>65</v>
       </c>
@@ -31488,7 +31497,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="39" t="s">
         <v>263</v>
       </c>
@@ -31508,7 +31517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>131</v>
       </c>
@@ -31534,7 +31543,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="39" t="s">
         <v>263</v>
       </c>
@@ -31554,7 +31563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>65</v>
       </c>
@@ -31577,7 +31586,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="39" t="s">
         <v>263</v>
       </c>
@@ -31597,7 +31606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>337</v>
       </c>
@@ -31623,7 +31632,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="39" t="s">
         <v>263</v>
       </c>
@@ -31643,7 +31652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>65</v>
       </c>
@@ -31666,7 +31675,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="39" t="s">
         <v>263</v>
       </c>
@@ -31686,7 +31695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>61</v>
       </c>
@@ -31712,7 +31721,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="39" t="s">
         <v>263</v>
       </c>
@@ -31732,7 +31741,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>65</v>
       </c>
@@ -31755,7 +31764,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="39" t="s">
         <v>263</v>
       </c>
@@ -31775,7 +31784,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>62</v>
       </c>
@@ -31801,7 +31810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="39" t="s">
         <v>262</v>
       </c>
@@ -31821,7 +31830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>63</v>
       </c>
@@ -31847,7 +31856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="39" t="s">
         <v>262</v>
       </c>
@@ -31867,7 +31876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>64</v>
       </c>
@@ -31893,7 +31902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C26" s="39" t="s">
         <v>262</v>
       </c>
@@ -31913,7 +31922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>79</v>
       </c>
@@ -31939,7 +31948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="39" t="s">
         <v>262</v>
       </c>
@@ -31959,7 +31968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C29" s="39" t="s">
         <v>263</v>
       </c>
@@ -31979,7 +31988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>80</v>
       </c>
@@ -32005,7 +32014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="39" t="s">
         <v>262</v>
       </c>
@@ -32025,7 +32034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C32" s="39" t="s">
         <v>263</v>
       </c>
@@ -32045,7 +32054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>81</v>
       </c>
@@ -32071,7 +32080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="39" t="s">
         <v>262</v>
       </c>
@@ -32091,7 +32100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C35" s="39" t="s">
         <v>263</v>
       </c>
@@ -32111,7 +32120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>82</v>
       </c>
@@ -32137,7 +32146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="39" t="s">
         <v>262</v>
       </c>
@@ -32157,7 +32166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C38" s="39" t="s">
         <v>263</v>
       </c>
@@ -32177,7 +32186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>83</v>
       </c>
@@ -32203,7 +32212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="39" t="s">
         <v>262</v>
       </c>
@@ -32223,7 +32232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C41" s="39" t="s">
         <v>263</v>
       </c>
@@ -32243,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>60</v>
       </c>
@@ -32269,7 +32278,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="39" t="s">
         <v>262</v>
       </c>
@@ -32289,7 +32298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C44" s="39" t="s">
         <v>263</v>
       </c>
@@ -32309,7 +32318,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>16</v>
       </c>
@@ -32332,7 +32341,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C46" s="39" t="s">
         <v>262</v>
       </c>
@@ -32352,7 +32361,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="39" t="s">
         <v>263</v>
       </c>
@@ -32372,7 +32381,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>84</v>
       </c>
@@ -32398,7 +32407,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="39" t="s">
         <v>262</v>
       </c>
@@ -32418,7 +32427,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>85</v>
       </c>
@@ -32444,7 +32453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C51" s="39" t="s">
         <v>262</v>
       </c>
@@ -32464,7 +32473,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>190</v>
       </c>
@@ -32490,7 +32499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C53" s="39" t="s">
         <v>262</v>
       </c>
@@ -32510,14 +32519,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="110" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="111"/>
       <c r="C55" s="111"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>69</v>
       </c>
@@ -32543,7 +32552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
         <v>28</v>
       </c>
@@ -32574,7 +32583,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C58" s="39" t="s">
         <v>262</v>
       </c>
@@ -32599,7 +32608,7 @@
         <v>0.47820895522388057</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C59" s="39" t="s">
         <v>263</v>
       </c>
@@ -32624,7 +32633,7 @@
         <v>0.34656716417910466</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>58</v>
       </c>
@@ -32655,7 +32664,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C61" s="39" t="s">
         <v>263</v>
       </c>
@@ -32680,7 +32689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
         <v>65</v>
       </c>
@@ -32708,7 +32717,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C63" s="39" t="s">
         <v>263</v>
       </c>
@@ -32733,7 +32742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>131</v>
       </c>
@@ -32764,7 +32773,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C65" s="39" t="s">
         <v>263</v>
       </c>
@@ -32789,7 +32798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B66" s="39" t="s">
         <v>65</v>
       </c>
@@ -32817,7 +32826,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C67" s="39" t="s">
         <v>263</v>
       </c>
@@ -32842,7 +32851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>337</v>
       </c>
@@ -32873,7 +32882,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C69" s="39" t="s">
         <v>263</v>
       </c>
@@ -32898,7 +32907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
         <v>65</v>
       </c>
@@ -32926,7 +32935,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C71" s="39" t="s">
         <v>263</v>
       </c>
@@ -32951,7 +32960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>61</v>
       </c>
@@ -32982,7 +32991,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C73" s="39" t="s">
         <v>263</v>
       </c>
@@ -33007,7 +33016,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
         <v>65</v>
       </c>
@@ -33035,7 +33044,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C75" s="39" t="s">
         <v>263</v>
       </c>
@@ -33060,7 +33069,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>62</v>
       </c>
@@ -33091,7 +33100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C77" s="39" t="s">
         <v>262</v>
       </c>
@@ -33116,7 +33125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
         <v>63</v>
       </c>
@@ -33147,7 +33156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C79" s="39" t="s">
         <v>262</v>
       </c>
@@ -33172,7 +33181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>64</v>
       </c>
@@ -33203,7 +33212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C81" s="39" t="s">
         <v>262</v>
       </c>
@@ -33228,7 +33237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>79</v>
       </c>
@@ -33259,7 +33268,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C83" s="39" t="s">
         <v>262</v>
       </c>
@@ -33284,7 +33293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C84" s="39" t="s">
         <v>263</v>
       </c>
@@ -33309,7 +33318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
         <v>80</v>
       </c>
@@ -33340,7 +33349,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C86" s="39" t="s">
         <v>262</v>
       </c>
@@ -33365,7 +33374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C87" s="39" t="s">
         <v>263</v>
       </c>
@@ -33390,7 +33399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>81</v>
       </c>
@@ -33421,7 +33430,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C89" s="39" t="s">
         <v>262</v>
       </c>
@@ -33446,7 +33455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C90" s="39" t="s">
         <v>263</v>
       </c>
@@ -33471,7 +33480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>82</v>
       </c>
@@ -33502,7 +33511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C92" s="39" t="s">
         <v>262</v>
       </c>
@@ -33527,7 +33536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C93" s="39" t="s">
         <v>263</v>
       </c>
@@ -33552,7 +33561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>83</v>
       </c>
@@ -33583,7 +33592,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C95" s="39" t="s">
         <v>262</v>
       </c>
@@ -33608,7 +33617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C96" s="39" t="s">
         <v>263</v>
       </c>
@@ -33633,7 +33642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>60</v>
       </c>
@@ -33664,7 +33673,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C98" s="39" t="s">
         <v>262</v>
       </c>
@@ -33689,7 +33698,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C99" s="39" t="s">
         <v>263</v>
       </c>
@@ -33714,7 +33723,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B100" s="39" t="s">
         <v>16</v>
       </c>
@@ -33742,7 +33751,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C101" s="39" t="s">
         <v>262</v>
       </c>
@@ -33767,7 +33776,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C102" s="39" t="s">
         <v>263</v>
       </c>
@@ -33792,7 +33801,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>84</v>
       </c>
@@ -33823,7 +33832,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C104" s="39" t="s">
         <v>262</v>
       </c>
@@ -33848,7 +33857,7 @@
         <v>0.83700000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>85</v>
       </c>
@@ -33879,7 +33888,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C106" s="39" t="s">
         <v>262</v>
       </c>
@@ -33904,7 +33913,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
         <v>190</v>
       </c>
@@ -33935,7 +33944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C108" s="39" t="s">
         <v>262</v>
       </c>
@@ -33960,14 +33969,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="110" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="111"/>
       <c r="C110" s="111"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="29" t="s">
         <v>69</v>
       </c>
@@ -33993,7 +34002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A112" s="39" t="s">
         <v>28</v>
       </c>
@@ -34024,7 +34033,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C113" s="39" t="s">
         <v>262</v>
       </c>
@@ -34049,7 +34058,7 @@
         <v>0.55791044776119403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C114" s="39" t="s">
         <v>263</v>
       </c>
@@ -34074,7 +34083,7 @@
         <v>0.40432835820895546</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A115" s="39" t="s">
         <v>58</v>
       </c>
@@ -34105,7 +34114,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C116" s="39" t="s">
         <v>263</v>
       </c>
@@ -34130,7 +34139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B117" s="39" t="s">
         <v>65</v>
       </c>
@@ -34158,7 +34167,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C118" s="39" t="s">
         <v>263</v>
       </c>
@@ -34183,7 +34192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
         <v>131</v>
       </c>
@@ -34214,7 +34223,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C120" s="39" t="s">
         <v>263</v>
       </c>
@@ -34239,7 +34248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B121" s="39" t="s">
         <v>65</v>
       </c>
@@ -34267,7 +34276,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C122" s="39" t="s">
         <v>263</v>
       </c>
@@ -34292,7 +34301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A123" s="39" t="s">
         <v>337</v>
       </c>
@@ -34323,7 +34332,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C124" s="39" t="s">
         <v>263</v>
       </c>
@@ -34348,7 +34357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B125" s="39" t="s">
         <v>65</v>
       </c>
@@ -34376,7 +34385,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C126" s="39" t="s">
         <v>263</v>
       </c>
@@ -34401,7 +34410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A127" s="39" t="s">
         <v>61</v>
       </c>
@@ -34432,7 +34441,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C128" s="39" t="s">
         <v>263</v>
       </c>
@@ -34457,7 +34466,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B129" s="39" t="s">
         <v>65</v>
       </c>
@@ -34485,7 +34494,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C130" s="39" t="s">
         <v>263</v>
       </c>
@@ -34510,7 +34519,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>62</v>
       </c>
@@ -34541,7 +34550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C132" s="39" t="s">
         <v>262</v>
       </c>
@@ -34566,7 +34575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>63</v>
       </c>
@@ -34597,7 +34606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C134" s="39" t="s">
         <v>262</v>
       </c>
@@ -34622,7 +34631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>64</v>
       </c>
@@ -34653,7 +34662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C136" s="39" t="s">
         <v>262</v>
       </c>
@@ -34678,7 +34687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>79</v>
       </c>
@@ -34709,7 +34718,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C138" s="39" t="s">
         <v>262</v>
       </c>
@@ -34734,7 +34743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C139" s="39" t="s">
         <v>263</v>
       </c>
@@ -34759,7 +34768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>80</v>
       </c>
@@ -34790,7 +34799,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C141" s="39" t="s">
         <v>262</v>
       </c>
@@ -34815,7 +34824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C142" s="39" t="s">
         <v>263</v>
       </c>
@@ -34840,7 +34849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>81</v>
       </c>
@@ -34871,7 +34880,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C144" s="39" t="s">
         <v>262</v>
       </c>
@@ -34896,7 +34905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C145" s="39" t="s">
         <v>263</v>
       </c>
@@ -34921,7 +34930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>82</v>
       </c>
@@ -34952,7 +34961,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C147" s="39" t="s">
         <v>262</v>
       </c>
@@ -34977,7 +34986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C148" s="39" t="s">
         <v>263</v>
       </c>
@@ -35002,7 +35011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>83</v>
       </c>
@@ -35033,7 +35042,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C150" s="39" t="s">
         <v>262</v>
       </c>
@@ -35058,7 +35067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C151" s="39" t="s">
         <v>263</v>
       </c>
@@ -35083,7 +35092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>60</v>
       </c>
@@ -35114,7 +35123,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C153" s="39" t="s">
         <v>262</v>
       </c>
@@ -35139,7 +35148,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C154" s="39" t="s">
         <v>263</v>
       </c>
@@ -35164,7 +35173,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B155" s="39" t="s">
         <v>16</v>
       </c>
@@ -35192,7 +35201,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C156" s="39" t="s">
         <v>262</v>
       </c>
@@ -35217,7 +35226,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C157" s="39" t="s">
         <v>263</v>
       </c>
@@ -35242,7 +35251,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>84</v>
       </c>
@@ -35273,7 +35282,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C159" s="39" t="s">
         <v>262</v>
       </c>
@@ -35298,7 +35307,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>85</v>
       </c>
@@ -35329,7 +35338,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C161" s="39" t="s">
         <v>262</v>
       </c>
@@ -35354,7 +35363,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>190</v>
       </c>
@@ -35385,7 +35394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C163" s="39" t="s">
         <v>262</v>
       </c>
@@ -35431,16 +35440,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="27" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="27"/>
+    <col min="2" max="2" width="27.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="27" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
@@ -35462,7 +35471,7 @@
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
@@ -35486,7 +35495,7 @@
       </c>
       <c r="H2" s="72"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="27" t="s">
         <v>262</v>
       </c>
@@ -35504,7 +35513,7 @@
       </c>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>87</v>
       </c>
@@ -35528,7 +35537,7 @@
       </c>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>262</v>
       </c>
@@ -35546,7 +35555,7 @@
       </c>
       <c r="H5" s="72"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>88</v>
       </c>
@@ -35570,7 +35579,7 @@
       </c>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
         <v>262</v>
       </c>
@@ -35588,12 +35597,12 @@
       </c>
       <c r="H7" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="106" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
@@ -35614,7 +35623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>86</v>
       </c>
@@ -35641,7 +35650,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
         <v>262</v>
       </c>
@@ -35662,7 +35671,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>87</v>
       </c>
@@ -35689,7 +35698,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
         <v>262</v>
       </c>
@@ -35710,7 +35719,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>88</v>
       </c>
@@ -35737,7 +35746,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="27" t="s">
         <v>262</v>
       </c>
@@ -35758,12 +35767,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>69</v>
       </c>
@@ -35784,7 +35793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>86</v>
       </c>
@@ -35811,7 +35820,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
         <v>262</v>
       </c>
@@ -35832,7 +35841,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>87</v>
       </c>
@@ -35859,7 +35868,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
         <v>262</v>
       </c>
@@ -35880,7 +35889,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>88</v>
       </c>
@@ -35907,7 +35916,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="27" t="s">
         <v>262</v>
       </c>
@@ -35944,18 +35953,18 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -35966,7 +35975,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -36065,23 +36074,23 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="117" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="19"/>
@@ -36271,7 +36280,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -36369,10 +36378,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CjUfkZO3ODoRnqTAfv/FpvLKAjAufeGhUKWqr1d5T1ad0D9lV5FXbPX8NIZCbXStR9H4lMBNeB1fHY7fY/fWgQ==" saltValue="zuEA9mHaDeqEQUI/Brmp1Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="giRUGTAUigtczjZs+0JtyH+Gll4T5pd/hJwvlKuUAX/9iLu2HBvPXhDG5QDtnk9dIDbNgxVkYz9KiEWXzp2hug==" saltValue="7eYOdk/62W4Lpi6wHQinCA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36387,13 +36396,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -36811,13 +36820,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -36947,13 +36956,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -36988,7 +36997,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -37005,10 +37014,10 @@
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -37025,10 +37034,10 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -37045,7 +37054,7 @@
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
@@ -37059,7 +37068,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>139</v>
       </c>
@@ -37073,7 +37082,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -37090,7 +37099,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>141</v>
       </c>
@@ -37104,7 +37113,7 @@
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
@@ -37121,7 +37130,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>165</v>
       </c>
@@ -37153,13 +37162,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>326</v>
       </c>
@@ -37167,51 +37176,51 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2" s="115">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="115">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="115">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="115">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="115">
         <v>5</v>
       </c>
     </row>
@@ -37232,15 +37241,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="27"/>
+    <col min="2" max="2" width="19.08984375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>173</v>
       </c>
@@ -37257,7 +37266,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>168</v>
       </c>
@@ -37271,7 +37280,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
@@ -37284,7 +37293,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
@@ -37297,7 +37306,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
@@ -37310,7 +37319,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
@@ -37323,7 +37332,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>167</v>
       </c>
@@ -37331,7 +37340,7 @@
       <c r="D7" s="32"/>
       <c r="E7" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>193</v>
       </c>
@@ -37345,7 +37354,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>1</v>
       </c>
@@ -37358,7 +37367,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>2</v>
       </c>
@@ -37371,7 +37380,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>3</v>
       </c>
@@ -37384,7 +37393,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>4</v>
       </c>
@@ -37397,7 +37406,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>167</v>
       </c>
@@ -37405,7 +37414,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="62"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>194</v>
       </c>
@@ -37419,7 +37428,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>1</v>
       </c>
@@ -37432,7 +37441,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
         <v>2</v>
       </c>
@@ -37445,7 +37454,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>3</v>
       </c>
@@ -37456,7 +37465,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>4</v>
       </c>
@@ -37467,7 +37476,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>167</v>
       </c>
@@ -37493,15 +37502,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>159</v>
       </c>
@@ -37515,7 +37524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>69</v>
       </c>
@@ -37527,7 +37536,7 @@
       </c>
       <c r="D2" s="62"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>180</v>
       </c>

--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -5,12 +5,13 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C255EA74-B25B-4CA1-B3AB-ADE32E476BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E2AE98-DC5F-4BDA-A376-7B195B5157D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1629,7 +1630,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1799,12 +1800,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2667,7 +2662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2937,9 +2932,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5119,14 +5111,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5137,14 +5129,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>188</v>
@@ -5153,7 +5145,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>187</v>
@@ -5162,7 +5154,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -5231,7 +5223,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -5362,7 +5354,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
         <v>124</v>
       </c>
@@ -5372,7 +5364,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>130</v>
       </c>
@@ -5578,7 +5570,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5600,19 +5592,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="39" customWidth="1"/>
     <col min="2" max="2" width="20" style="27" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="27"/>
+    <col min="7" max="7" width="22.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
@@ -6540,19 +6532,19 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="27"/>
+    <col min="2" max="2" width="47.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -6563,7 +6555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>182</v>
       </c>
@@ -6572,7 +6564,7 @@
       </c>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>202</v>
       </c>
@@ -6581,7 +6573,7 @@
       </c>
       <c r="C3" s="62"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>58</v>
       </c>
@@ -6590,7 +6582,7 @@
       </c>
       <c r="C4" s="62"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>132</v>
       </c>
@@ -6599,77 +6591,77 @@
       </c>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -6693,85 +6685,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="27" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="27"/>
+    <col min="1" max="1" width="30.109375" style="27" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
     </row>
   </sheetData>
@@ -6792,7 +6784,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6907,19 +6899,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6966,7 +6958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7527,7 +7519,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7578,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>86</v>
@@ -7623,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>182</v>
@@ -7672,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>202</v>
@@ -7908,7 +7900,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -8158,7 +8150,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8666,7 +8658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8705,16 +8697,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="27"/>
-    <col min="5" max="5" width="17.453125" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="27"/>
+    <col min="1" max="1" width="33.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="27"/>
+    <col min="5" max="5" width="17.44140625" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>158</v>
       </c>
@@ -8731,7 +8723,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>153</v>
       </c>
@@ -8749,7 +8741,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>152</v>
       </c>
@@ -8767,7 +8759,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -8785,7 +8777,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
@@ -8803,7 +8795,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>149</v>
       </c>
@@ -8821,7 +8813,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>148</v>
       </c>
@@ -8839,7 +8831,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>147</v>
       </c>
@@ -8857,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>146</v>
       </c>
@@ -8875,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>145</v>
       </c>
@@ -8912,20 +8904,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="42"/>
+    <col min="6" max="7" width="13.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
@@ -8972,7 +8964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>31</v>
       </c>
@@ -9019,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>144</v>
       </c>
@@ -9063,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
         <v>168</v>
       </c>
@@ -9107,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
         <v>193</v>
       </c>
@@ -9151,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>194</v>
       </c>
@@ -9195,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
         <v>190</v>
       </c>
@@ -9239,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
         <v>131</v>
       </c>
@@ -9283,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
         <v>132</v>
       </c>
@@ -9327,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
         <v>84</v>
       </c>
@@ -9371,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="39" t="s">
         <v>58</v>
       </c>
@@ -9415,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>337</v>
       </c>
@@ -9459,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
         <v>67</v>
       </c>
@@ -9503,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>28</v>
       </c>
@@ -9547,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
         <v>85</v>
       </c>
@@ -9591,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
         <v>60</v>
       </c>
@@ -9635,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="39"/>
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
@@ -9651,7 +9643,7 @@
       <c r="N17" s="98"/>
       <c r="O17" s="98"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>32</v>
       </c>
@@ -9698,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="39" t="s">
         <v>86</v>
@@ -9743,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="72" t="s">
         <v>182</v>
       </c>
@@ -9787,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="72" t="s">
         <v>202</v>
       </c>
@@ -9831,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="73" t="s">
         <v>57</v>
       </c>
@@ -9875,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="39" t="s">
         <v>88</v>
       </c>
@@ -9919,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="39" t="s">
         <v>87</v>
       </c>
@@ -9963,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="39" t="s">
         <v>59</v>
       </c>
@@ -10007,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="39"/>
       <c r="C26" s="98"/>
       <c r="D26" s="98"/>
@@ -10023,7 +10015,7 @@
       <c r="N26" s="98"/>
       <c r="O26" s="98"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>37</v>
       </c>
@@ -10071,7 +10063,7 @@
       </c>
       <c r="P27" s="74"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
         <v>183</v>
       </c>
@@ -10115,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>201</v>
@@ -10160,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="45" t="s">
         <v>184</v>
       </c>
@@ -10204,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
         <v>185</v>
       </c>
@@ -10248,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="39"/>
       <c r="C32" s="99"/>
       <c r="D32" s="99"/>
@@ -10264,7 +10256,7 @@
       <c r="N32" s="98"/>
       <c r="O32" s="98"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -10311,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="39" t="s">
         <v>64</v>
       </c>
@@ -10355,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="39" t="s">
         <v>62</v>
       </c>
@@ -10399,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="39" t="s">
         <v>47</v>
       </c>
@@ -10443,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="39" t="s">
         <v>34</v>
       </c>
@@ -10487,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="39" t="s">
         <v>83</v>
       </c>
@@ -10531,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="39" t="s">
         <v>82</v>
       </c>
@@ -10575,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="39" t="s">
         <v>81</v>
       </c>
@@ -10619,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="39" t="s">
         <v>79</v>
       </c>
@@ -10663,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="39" t="s">
         <v>80</v>
       </c>
@@ -10724,22 +10716,22 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="27"/>
+    <col min="1" max="1" width="58.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -10774,7 +10766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>29</v>
       </c>
@@ -10791,7 +10783,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>86</v>
       </c>
@@ -10808,7 +10800,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>61</v>
       </c>
@@ -10825,7 +10817,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>144</v>
       </c>
@@ -10842,7 +10834,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>192</v>
       </c>
@@ -10861,7 +10853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>63</v>
       </c>
@@ -10880,7 +10872,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>64</v>
       </c>
@@ -10899,7 +10891,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>62</v>
       </c>
@@ -10918,7 +10910,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>183</v>
       </c>
@@ -10935,7 +10927,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>201</v>
       </c>
@@ -10952,7 +10944,7 @@
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>184</v>
       </c>
@@ -10969,7 +10961,7 @@
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>185</v>
       </c>
@@ -10986,7 +10978,7 @@
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>182</v>
       </c>
@@ -11005,7 +10997,7 @@
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>202</v>
       </c>
@@ -11024,7 +11016,7 @@
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>57</v>
       </c>
@@ -11045,7 +11037,7 @@
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>47</v>
       </c>
@@ -11062,7 +11054,7 @@
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>168</v>
       </c>
@@ -11081,7 +11073,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>193</v>
       </c>
@@ -11100,7 +11092,7 @@
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>194</v>
       </c>
@@ -11119,7 +11111,7 @@
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>190</v>
       </c>
@@ -11138,7 +11130,7 @@
       <c r="J21" s="101"/>
       <c r="K21" s="101"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>131</v>
       </c>
@@ -11159,7 +11151,7 @@
       <c r="J22" s="101"/>
       <c r="K22" s="101"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>34</v>
       </c>
@@ -11178,7 +11170,7 @@
       <c r="J23" s="101"/>
       <c r="K23" s="101"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -11195,7 +11187,7 @@
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>87</v>
       </c>
@@ -11212,7 +11204,7 @@
       <c r="J25" s="101"/>
       <c r="K25" s="101"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>132</v>
       </c>
@@ -11229,7 +11221,7 @@
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>59</v>
       </c>
@@ -11248,7 +11240,7 @@
       <c r="J27" s="101"/>
       <c r="K27" s="101"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>84</v>
       </c>
@@ -11265,7 +11257,7 @@
       <c r="J28" s="101"/>
       <c r="K28" s="101"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -11284,7 +11276,7 @@
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>337</v>
       </c>
@@ -11305,7 +11297,7 @@
       <c r="J30" s="101"/>
       <c r="K30" s="101"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>67</v>
       </c>
@@ -11322,7 +11314,7 @@
       <c r="J31" s="101"/>
       <c r="K31" s="101"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>28</v>
       </c>
@@ -11341,7 +11333,7 @@
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>83</v>
       </c>
@@ -11360,7 +11352,7 @@
       <c r="J33" s="101"/>
       <c r="K33" s="101"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>82</v>
       </c>
@@ -11379,7 +11371,7 @@
       <c r="J34" s="101"/>
       <c r="K34" s="101"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>81</v>
       </c>
@@ -11398,7 +11390,7 @@
       <c r="J35" s="101"/>
       <c r="K35" s="101"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>79</v>
       </c>
@@ -11417,7 +11409,7 @@
       <c r="J36" s="101"/>
       <c r="K36" s="101"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>80</v>
       </c>
@@ -11436,7 +11428,7 @@
       <c r="J37" s="101"/>
       <c r="K37" s="101"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>85</v>
       </c>
@@ -11453,7 +11445,7 @@
       <c r="J38" s="101"/>
       <c r="K38" s="101"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>60</v>
       </c>
@@ -11491,22 +11483,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="27"/>
+    <col min="1" max="1" width="16.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>211</v>
       </c>
@@ -11541,7 +11533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -11570,7 +11562,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -11599,7 +11591,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -11628,7 +11620,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -11657,7 +11649,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -11686,7 +11678,7 @@
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>53</v>
       </c>
@@ -11707,7 +11699,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>54</v>
       </c>
@@ -11728,7 +11720,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>55</v>
       </c>
@@ -11749,7 +11741,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>56</v>
       </c>
@@ -11770,7 +11762,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
@@ -11791,7 +11783,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>50</v>
       </c>
@@ -11810,7 +11802,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>51</v>
       </c>
@@ -11829,7 +11821,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>52</v>
       </c>
@@ -11865,14 +11857,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -12960,15 +12952,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="27" customWidth="1"/>
     <col min="2" max="2" width="15" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="27"/>
+    <col min="3" max="3" width="14.6640625" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>212</v>
       </c>
@@ -12994,7 +12986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>213</v>
       </c>
@@ -13020,7 +13012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="116"/>
       <c r="C3" s="27" t="s">
         <v>170</v>
@@ -13042,7 +13034,7 @@
       </c>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="116"/>
       <c r="C4" s="27" t="s">
         <v>169</v>
@@ -13064,7 +13056,7 @@
       </c>
       <c r="J4" s="75"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
@@ -13088,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="116"/>
       <c r="C6" s="27" t="s">
         <v>170</v>
@@ -13109,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="116"/>
       <c r="C7" s="27" t="s">
         <v>169</v>
@@ -13130,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="116" t="s">
         <v>2</v>
       </c>
@@ -13153,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="116"/>
       <c r="C9" s="27" t="s">
         <v>170</v>
@@ -13174,7 +13166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="116"/>
       <c r="C10" s="27" t="s">
         <v>169</v>
@@ -13195,7 +13187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="116" t="s">
         <v>3</v>
       </c>
@@ -13218,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="116"/>
       <c r="C12" s="27" t="s">
         <v>170</v>
@@ -13239,7 +13231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="116"/>
       <c r="C13" s="27" t="s">
         <v>169</v>
@@ -13260,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="116" t="s">
         <v>4</v>
       </c>
@@ -13283,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="116"/>
       <c r="C15" s="27" t="s">
         <v>170</v>
@@ -13304,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="116"/>
       <c r="C16" s="27" t="s">
         <v>169</v>
@@ -13325,7 +13317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="76" t="s">
         <v>167</v>
       </c>
@@ -13348,14 +13340,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>214</v>
       </c>
@@ -13381,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="116"/>
       <c r="C20" s="27" t="s">
         <v>170</v>
@@ -13402,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="116"/>
       <c r="C21" s="27" t="s">
         <v>169</v>
@@ -13423,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="116" t="s">
         <v>1</v>
       </c>
@@ -13446,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="116"/>
       <c r="C23" s="27" t="s">
         <v>170</v>
@@ -13467,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="116"/>
       <c r="C24" s="27" t="s">
         <v>169</v>
@@ -13488,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="116" t="s">
         <v>2</v>
       </c>
@@ -13511,7 +13503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="116"/>
       <c r="C26" s="27" t="s">
         <v>170</v>
@@ -13532,7 +13524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="116"/>
       <c r="C27" s="27" t="s">
         <v>169</v>
@@ -13553,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="116" t="s">
         <v>3</v>
       </c>
@@ -13576,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="116"/>
       <c r="C29" s="27" t="s">
         <v>170</v>
@@ -13597,7 +13589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="116"/>
       <c r="C30" s="27" t="s">
         <v>169</v>
@@ -13618,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="116" t="s">
         <v>4</v>
       </c>
@@ -13641,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="116"/>
       <c r="C32" s="27" t="s">
         <v>170</v>
@@ -13662,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="116"/>
       <c r="C33" s="27" t="s">
         <v>169</v>
@@ -13683,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="76" t="s">
         <v>167</v>
       </c>
@@ -13706,14 +13698,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="100"/>
       <c r="E35" s="100"/>
       <c r="F35" s="100"/>
       <c r="G35" s="100"/>
       <c r="H35" s="100"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>215</v>
       </c>
@@ -13739,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="116"/>
       <c r="C37" s="27" t="s">
         <v>170</v>
@@ -13760,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="116"/>
       <c r="C38" s="27" t="s">
         <v>169</v>
@@ -13781,7 +13773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="116" t="s">
         <v>1</v>
       </c>
@@ -13804,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="116"/>
       <c r="C40" s="27" t="s">
         <v>170</v>
@@ -13825,7 +13817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="116"/>
       <c r="C41" s="27" t="s">
         <v>169</v>
@@ -13846,7 +13838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="116" t="s">
         <v>2</v>
       </c>
@@ -13869,7 +13861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="116"/>
       <c r="C43" s="27" t="s">
         <v>170</v>
@@ -13890,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="116"/>
       <c r="C44" s="27" t="s">
         <v>169</v>
@@ -13911,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="116" t="s">
         <v>3</v>
       </c>
@@ -13934,7 +13926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="116"/>
       <c r="C46" s="27" t="s">
         <v>170</v>
@@ -13955,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="116"/>
       <c r="C47" s="27" t="s">
         <v>169</v>
@@ -13976,7 +13968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="116" t="s">
         <v>4</v>
       </c>
@@ -13999,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="116"/>
       <c r="C49" s="27" t="s">
         <v>170</v>
@@ -14020,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="116"/>
       <c r="C50" s="27" t="s">
         <v>169</v>
@@ -14041,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="76" t="s">
         <v>167</v>
       </c>
@@ -14064,7 +14056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="106" t="s">
         <v>267</v>
       </c>
@@ -14076,7 +14068,7 @@
       <c r="G53" s="106"/>
       <c r="H53" s="106"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>212</v>
       </c>
@@ -14102,7 +14094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>311</v>
       </c>
@@ -14133,7 +14125,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="116"/>
       <c r="C56" s="27" t="s">
         <v>170</v>
@@ -14159,7 +14151,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="116"/>
       <c r="C57" s="27" t="s">
         <v>169</v>
@@ -14185,7 +14177,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="116" t="s">
         <v>1</v>
       </c>
@@ -14213,7 +14205,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="116"/>
       <c r="C59" s="27" t="s">
         <v>170</v>
@@ -14239,7 +14231,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="116"/>
       <c r="C60" s="27" t="s">
         <v>169</v>
@@ -14265,7 +14257,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="116" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14285,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="116"/>
       <c r="C62" s="27" t="s">
         <v>170</v>
@@ -14319,7 +14311,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="116"/>
       <c r="C63" s="27" t="s">
         <v>169</v>
@@ -14345,7 +14337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="116" t="s">
         <v>3</v>
       </c>
@@ -14373,7 +14365,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="116"/>
       <c r="C65" s="27" t="s">
         <v>170</v>
@@ -14399,7 +14391,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="116"/>
       <c r="C66" s="27" t="s">
         <v>169</v>
@@ -14425,7 +14417,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="116" t="s">
         <v>4</v>
       </c>
@@ -14453,7 +14445,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="116"/>
       <c r="C68" s="27" t="s">
         <v>170</v>
@@ -14479,7 +14471,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="116"/>
       <c r="C69" s="27" t="s">
         <v>169</v>
@@ -14505,7 +14497,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="76" t="s">
         <v>167</v>
       </c>
@@ -14540,7 +14532,7 @@
       <c r="G71" s="100"/>
       <c r="H71" s="100"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>312</v>
       </c>
@@ -14943,7 +14935,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="76" t="s">
         <v>167</v>
       </c>
@@ -14978,7 +14970,7 @@
       <c r="G88" s="100"/>
       <c r="H88" s="100"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="77" t="s">
         <v>313</v>
       </c>
@@ -15381,7 +15373,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="76" t="s">
         <v>167</v>
       </c>
@@ -15409,7 +15401,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="106" t="s">
         <v>268</v>
       </c>
@@ -15421,7 +15413,7 @@
       <c r="G106" s="106"/>
       <c r="H106" s="106"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>212</v>
       </c>
@@ -15447,7 +15439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
         <v>314</v>
       </c>
@@ -15850,7 +15842,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="76" t="s">
         <v>167</v>
       </c>
@@ -15885,7 +15877,7 @@
       <c r="G124" s="100"/>
       <c r="H124" s="100"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>315</v>
       </c>
@@ -16288,7 +16280,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="76" t="s">
         <v>167</v>
       </c>
@@ -16323,7 +16315,7 @@
       <c r="G141" s="100"/>
       <c r="H141" s="100"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="77" t="s">
         <v>316</v>
       </c>
@@ -16726,7 +16718,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="76" t="s">
         <v>167</v>
       </c>
@@ -16822,22 +16814,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="27" customWidth="1"/>
     <col min="5" max="6" width="15" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="27"/>
+    <col min="7" max="16384" width="16.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="81" t="s">
         <v>26</v>
@@ -16852,7 +16844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>217</v>
       </c>
@@ -16936,7 +16928,7 @@
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>218</v>
       </c>
@@ -16959,7 +16951,7 @@
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
     </row>
-    <row r="11" spans="1:6" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>219</v>
       </c>
@@ -16968,7 +16960,7 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>220</v>
       </c>
@@ -17028,7 +17020,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="45"/>
       <c r="C16" s="89"/>
@@ -17036,7 +17028,7 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>224</v>
       </c>
@@ -17185,7 +17177,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
         <v>267</v>
       </c>
@@ -17195,12 +17187,12 @@
       <c r="E27" s="109"/>
       <c r="F27" s="109"/>
     </row>
-    <row r="28" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="80"/>
       <c r="C29" s="81" t="s">
         <v>26</v>
@@ -17215,7 +17207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>297</v>
       </c>
@@ -17315,7 +17307,7 @@
       <c r="E35" s="75"/>
       <c r="F35" s="75"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>304</v>
       </c>
@@ -17336,7 +17328,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78" t="s">
         <v>219</v>
       </c>
@@ -17346,7 +17338,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="88"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>298</v>
       </c>
@@ -17418,7 +17410,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="45"/>
       <c r="C43" s="89"/>
@@ -17426,7 +17418,7 @@
       <c r="E43" s="75"/>
       <c r="F43" s="75"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>302</v>
       </c>
@@ -17604,7 +17596,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="106" t="s">
         <v>268</v>
       </c>
@@ -17614,12 +17606,12 @@
       <c r="E54" s="109"/>
       <c r="F54" s="109"/>
     </row>
-    <row r="55" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="78" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
       <c r="C56" s="81" t="s">
         <v>26</v>
@@ -17634,7 +17626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>303</v>
       </c>
@@ -17734,7 +17726,7 @@
       <c r="E62" s="75"/>
       <c r="F62" s="75"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>305</v>
       </c>
@@ -17755,7 +17747,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
         <v>219</v>
       </c>
@@ -17765,7 +17757,7 @@
       <c r="E65" s="88"/>
       <c r="F65" s="88"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>306</v>
       </c>
@@ -17837,7 +17829,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="45"/>
       <c r="C70" s="89"/>
@@ -17845,7 +17837,7 @@
       <c r="E70" s="75"/>
       <c r="F70" s="75"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>310</v>
       </c>
@@ -18044,23 +18036,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="27" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="27" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="27"/>
+    <col min="1" max="1" width="27.21875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="27" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="27" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>206</v>
       </c>
@@ -18094,7 +18086,7 @@
       <c r="O2" s="93"/>
       <c r="P2" s="93"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="27" t="s">
         <v>71</v>
@@ -18527,7 +18519,7 @@
       <c r="O17" s="92"/>
       <c r="P17" s="92"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="31" t="s">
         <v>231</v>
       </c>
@@ -18785,12 +18777,12 @@
       <c r="O26" s="92"/>
       <c r="P26" s="92"/>
     </row>
-    <row r="28" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
         <v>233</v>
       </c>
@@ -18824,7 +18816,7 @@
       <c r="O29" s="93"/>
       <c r="P29" s="93"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="27" t="s">
         <v>71</v>
@@ -19519,12 +19511,12 @@
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
     </row>
-    <row r="55" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="78" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="92" t="s">
         <v>70</v>
       </c>
@@ -19552,7 +19544,7 @@
       <c r="O56" s="93"/>
       <c r="P56" s="93"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="27" t="s">
         <v>38</v>
@@ -19698,12 +19690,12 @@
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="78" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="92" t="s">
         <v>24</v>
       </c>
@@ -19737,7 +19729,7 @@
       <c r="O65" s="93"/>
       <c r="P65" s="93"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="96"/>
       <c r="B66" s="27" t="s">
         <v>73</v>
@@ -20773,12 +20765,12 @@
       <c r="O101" s="92"/>
       <c r="P101" s="92"/>
     </row>
-    <row r="103" spans="1:16" s="79" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="78" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="92" t="s">
         <v>71</v>
       </c>
@@ -20812,7 +20804,7 @@
       <c r="O104" s="93"/>
       <c r="P104" s="93"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
       <c r="C105" s="31" t="s">
         <v>161</v>
@@ -20925,13 +20917,13 @@
       <c r="O108" s="92"/>
       <c r="P108" s="92"/>
     </row>
-    <row r="110" spans="1:16" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="106" t="s">
         <v>267</v>
       </c>
       <c r="H110" s="106"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="78" t="s">
         <v>225</v>
       </c>
@@ -20943,7 +20935,7 @@
       <c r="G111" s="79"/>
       <c r="H111" s="79"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="92" t="s">
         <v>206</v>
       </c>
@@ -20969,7 +20961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
       <c r="B113" s="27" t="s">
         <v>71</v>
@@ -21588,7 +21580,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="78" t="s">
         <v>232</v>
       </c>
@@ -21600,7 +21592,7 @@
       <c r="G138" s="79"/>
       <c r="H138" s="79"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="92" t="s">
         <v>233</v>
       </c>
@@ -21626,7 +21618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
       <c r="B140" s="27" t="s">
         <v>71</v>
@@ -22249,7 +22241,7 @@
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="78" t="s">
         <v>235</v>
       </c>
@@ -22261,7 +22253,7 @@
       <c r="G165" s="79"/>
       <c r="H165" s="79"/>
     </row>
-    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="92" t="s">
         <v>70</v>
       </c>
@@ -22285,7 +22277,7 @@
       </c>
       <c r="H166" s="93"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
       <c r="B167" s="27" t="s">
         <v>38</v>
@@ -22431,7 +22423,7 @@
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="78" t="s">
         <v>239</v>
       </c>
@@ -22443,7 +22435,7 @@
       <c r="G174" s="79"/>
       <c r="H174" s="79"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="92" t="s">
         <v>24</v>
       </c>
@@ -22469,7 +22461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="96"/>
       <c r="B176" s="27" t="s">
         <v>73</v>
@@ -23361,7 +23353,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="78" t="s">
         <v>241</v>
       </c>
@@ -23373,7 +23365,7 @@
       <c r="G213" s="79"/>
       <c r="H213" s="79"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="92" t="s">
         <v>71</v>
       </c>
@@ -23399,7 +23391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
       <c r="C215" s="31" t="s">
         <v>161</v>
@@ -23496,13 +23488,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="106" t="s">
         <v>268</v>
       </c>
       <c r="H220" s="106"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="78" t="s">
         <v>225</v>
       </c>
@@ -23515,7 +23507,7 @@
       <c r="H221" s="79"/>
       <c r="I221" s="79"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="92" t="s">
         <v>206</v>
       </c>
@@ -23542,7 +23534,7 @@
       </c>
       <c r="I222" s="93"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
       <c r="B223" s="27" t="s">
         <v>71</v>
@@ -24185,7 +24177,7 @@
       </c>
       <c r="I246" s="92"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="78" t="s">
         <v>232</v>
       </c>
@@ -24198,7 +24190,7 @@
       <c r="H248" s="79"/>
       <c r="I248" s="79"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="92" t="s">
         <v>233</v>
       </c>
@@ -24225,7 +24217,7 @@
       </c>
       <c r="I249" s="93"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="29"/>
       <c r="B250" s="27" t="s">
         <v>71</v>
@@ -24872,7 +24864,7 @@
       <c r="C274" s="31"/>
       <c r="D274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="78" t="s">
         <v>235</v>
       </c>
@@ -24885,7 +24877,7 @@
       <c r="H275" s="79"/>
       <c r="I275" s="79"/>
     </row>
-    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="92" t="s">
         <v>70</v>
       </c>
@@ -24909,7 +24901,7 @@
       </c>
       <c r="H276" s="93"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
       <c r="B277" s="27" t="s">
         <v>38</v>
@@ -25055,7 +25047,7 @@
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="78" t="s">
         <v>239</v>
       </c>
@@ -25068,7 +25060,7 @@
       <c r="H284" s="79"/>
       <c r="I284" s="79"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="92" t="s">
         <v>24</v>
       </c>
@@ -25095,7 +25087,7 @@
       </c>
       <c r="I285" s="93"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="96"/>
       <c r="B286" s="27" t="s">
         <v>73</v>
@@ -26023,7 +26015,7 @@
       </c>
       <c r="I321" s="92"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="78" t="s">
         <v>241</v>
       </c>
@@ -26036,7 +26028,7 @@
       <c r="H323" s="79"/>
       <c r="I323" s="79"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="92" t="s">
         <v>71</v>
       </c>
@@ -26063,7 +26055,7 @@
       </c>
       <c r="I324" s="93"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="29"/>
       <c r="C325" s="31" t="s">
         <v>161</v>
@@ -26185,24 +26177,24 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="27" customWidth="1"/>
     <col min="6" max="6" width="15" style="27" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="27"/>
+    <col min="7" max="7" width="13.6640625" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>25</v>
       </c>
@@ -26243,7 +26235,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="72" t="s">
         <v>245</v>
@@ -26264,7 +26256,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>246</v>
       </c>
@@ -26357,12 +26349,12 @@
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
     </row>
-    <row r="11" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="83"/>
       <c r="B12" s="45" t="s">
         <v>190</v>
@@ -26383,16 +26375,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="83"/>
       <c r="B13" s="45"/>
     </row>
-    <row r="14" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="s">
         <v>233</v>
       </c>
@@ -26415,7 +26407,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="72" t="s">
         <v>250</v>
@@ -26436,7 +26428,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="s">
         <v>70</v>
       </c>
@@ -26460,12 +26452,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>49</v>
       </c>
@@ -26496,12 +26488,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
         <v>242</v>
       </c>
@@ -26512,7 +26504,7 @@
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="96" t="s">
         <v>25</v>
       </c>
@@ -26557,7 +26549,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="72" t="s">
         <v>278</v>
@@ -26583,7 +26575,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
         <v>319</v>
       </c>
@@ -26696,7 +26688,7 @@
       <c r="F33" s="72"/>
       <c r="G33" s="72"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="78" t="s">
         <v>320</v>
       </c>
@@ -26707,7 +26699,7 @@
       <c r="F34" s="79"/>
       <c r="G34" s="79"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="83"/>
       <c r="B35" s="45" t="s">
         <v>282</v>
@@ -26730,11 +26722,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="83"/>
       <c r="B36" s="45"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
         <v>248</v>
       </c>
@@ -26745,7 +26737,7 @@
       <c r="F37" s="79"/>
       <c r="G37" s="79"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="96" t="s">
         <v>233</v>
       </c>
@@ -26773,7 +26765,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="72" t="s">
         <v>284</v>
@@ -26799,7 +26791,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="96" t="s">
         <v>70</v>
       </c>
@@ -26827,7 +26819,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="78" t="s">
         <v>321</v>
       </c>
@@ -26838,7 +26830,7 @@
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="43" t="s">
@@ -26876,12 +26868,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="78" t="s">
         <v>242</v>
       </c>
@@ -26892,7 +26884,7 @@
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="96" t="s">
         <v>25</v>
       </c>
@@ -26937,7 +26929,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="72" t="s">
         <v>288</v>
@@ -26963,7 +26955,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>324</v>
       </c>
@@ -27076,7 +27068,7 @@
       <c r="F56" s="72"/>
       <c r="G56" s="72"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="78" t="s">
         <v>322</v>
       </c>
@@ -27087,7 +27079,7 @@
       <c r="F57" s="79"/>
       <c r="G57" s="79"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="83"/>
       <c r="B58" s="45" t="s">
         <v>292</v>
@@ -27110,11 +27102,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="83"/>
       <c r="B59" s="45"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
         <v>248</v>
       </c>
@@ -27125,7 +27117,7 @@
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="96" t="s">
         <v>233</v>
       </c>
@@ -27153,7 +27145,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="72" t="s">
         <v>294</v>
@@ -27179,7 +27171,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="96" t="s">
         <v>70</v>
       </c>
@@ -27207,7 +27199,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
         <v>323</v>
       </c>
@@ -27218,7 +27210,7 @@
       <c r="F65" s="79"/>
       <c r="G65" s="79"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="43" t="s">
@@ -27278,16 +27270,16 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="27" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="27"/>
-    <col min="7" max="7" width="17.1796875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="27"/>
+    <col min="1" max="1" width="52.21875" style="27" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="27"/>
+    <col min="7" max="7" width="17.21875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
@@ -27533,12 +27525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>69</v>
       </c>
@@ -27832,12 +27824,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>69</v>
       </c>
@@ -28152,15 +28144,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="27"/>
+    <col min="16" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="82" t="s">
@@ -28203,7 +28195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>255</v>
       </c>
@@ -28648,7 +28640,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>132</v>
       </c>
@@ -28780,7 +28772,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>256</v>
       </c>
@@ -28962,12 +28954,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="106" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="82" t="s">
@@ -29010,7 +29002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>271</v>
       </c>
@@ -29756,7 +29748,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>272</v>
       </c>
@@ -29990,12 +29982,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="106" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="82" t="s">
@@ -30038,7 +30030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>273</v>
       </c>
@@ -30784,7 +30776,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>274</v>
       </c>
@@ -31039,15 +31031,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="27" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="27"/>
+    <col min="1" max="1" width="21.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="27" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="41"/>
       <c r="C1" s="29" t="s">
@@ -31066,12 +31058,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="45" t="s">
         <v>67</v>
       </c>
@@ -31091,7 +31083,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>258</v>
       </c>
@@ -31102,7 +31094,7 @@
       <c r="F4" s="97"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
         <v>178</v>
       </c>
@@ -31122,12 +31114,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="41"/>
       <c r="C8" s="29" t="s">
@@ -31146,12 +31138,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
@@ -31176,7 +31168,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>275</v>
       </c>
@@ -31187,7 +31179,7 @@
       <c r="F11" s="97"/>
       <c r="G11" s="97"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="72" t="s">
         <v>178</v>
       </c>
@@ -31212,12 +31204,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="41"/>
       <c r="C15" s="29" t="s">
@@ -31236,12 +31228,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>67</v>
       </c>
@@ -31266,7 +31258,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>277</v>
       </c>
@@ -31277,7 +31269,7 @@
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="72" t="s">
         <v>178</v>
       </c>
@@ -31319,24 +31311,24 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="39" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="39" customWidth="1"/>
     <col min="4" max="4" width="15" style="27" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="27"/>
-    <col min="8" max="8" width="17.54296875" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="27"/>
+    <col min="5" max="5" width="13.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="27"/>
+    <col min="8" max="8" width="17.5546875" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -31362,7 +31354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>28</v>
       </c>
@@ -31379,16 +31371,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="104">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.39473684210526322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="39" t="s">
         <v>262</v>
       </c>
@@ -31399,16 +31391,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="104">
-        <v>0.53134328358208949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.30769230769230765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="39" t="s">
         <v>263</v>
       </c>
@@ -31428,7 +31420,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>58</v>
       </c>
@@ -31454,7 +31446,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>263</v>
       </c>
@@ -31474,7 +31466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>65</v>
       </c>
@@ -31497,7 +31489,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="39" t="s">
         <v>263</v>
       </c>
@@ -31517,7 +31509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>131</v>
       </c>
@@ -31543,7 +31535,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="39" t="s">
         <v>263</v>
       </c>
@@ -31563,7 +31555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>65</v>
       </c>
@@ -31586,7 +31578,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="39" t="s">
         <v>263</v>
       </c>
@@ -31606,7 +31598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>337</v>
       </c>
@@ -31632,7 +31624,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="39" t="s">
         <v>263</v>
       </c>
@@ -31652,7 +31644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>65</v>
       </c>
@@ -31675,7 +31667,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="39" t="s">
         <v>263</v>
       </c>
@@ -31695,7 +31687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>61</v>
       </c>
@@ -31721,7 +31713,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="39" t="s">
         <v>263</v>
       </c>
@@ -31732,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="104">
         <v>0.62</v>
@@ -31741,7 +31733,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>65</v>
       </c>
@@ -31764,7 +31756,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="39" t="s">
         <v>263</v>
       </c>
@@ -31775,7 +31767,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="104">
         <v>0.62</v>
@@ -31784,7 +31776,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>62</v>
       </c>
@@ -31795,13 +31787,13 @@
         <v>261</v>
       </c>
       <c r="D21" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="104">
         <v>0</v>
       </c>
       <c r="F21" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="104">
         <v>0</v>
@@ -31810,7 +31802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="39" t="s">
         <v>262</v>
       </c>
@@ -31821,7 +31813,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="104">
         <v>0</v>
@@ -31830,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>63</v>
       </c>
@@ -31841,13 +31833,13 @@
         <v>261</v>
       </c>
       <c r="D23" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="104">
         <v>0</v>
       </c>
       <c r="F23" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="104">
         <v>0</v>
@@ -31856,7 +31848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="39" t="s">
         <v>262</v>
       </c>
@@ -31867,7 +31859,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="104">
         <v>0</v>
@@ -31876,7 +31868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>64</v>
       </c>
@@ -31887,13 +31879,13 @@
         <v>261</v>
       </c>
       <c r="D25" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="104">
         <v>0</v>
       </c>
       <c r="F25" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="104">
         <v>0</v>
@@ -31902,7 +31894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="39" t="s">
         <v>262</v>
       </c>
@@ -31913,7 +31905,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="104">
         <v>0</v>
@@ -31922,7 +31914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>79</v>
       </c>
@@ -31939,7 +31931,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="104">
         <v>1</v>
@@ -31948,7 +31940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="39" t="s">
         <v>262</v>
       </c>
@@ -31959,7 +31951,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="104">
         <v>0</v>
@@ -31968,7 +31960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="39" t="s">
         <v>263</v>
       </c>
@@ -31979,7 +31971,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="104">
         <v>0</v>
@@ -31988,7 +31980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>80</v>
       </c>
@@ -32005,7 +31997,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="104">
         <v>1</v>
@@ -32014,7 +32006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="39" t="s">
         <v>262</v>
       </c>
@@ -32025,7 +32017,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="104">
         <v>0</v>
@@ -32034,7 +32026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="39" t="s">
         <v>263</v>
       </c>
@@ -32045,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="104">
         <v>0</v>
@@ -32054,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>81</v>
       </c>
@@ -32071,7 +32063,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="104">
         <v>1</v>
@@ -32080,7 +32072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="39" t="s">
         <v>262</v>
       </c>
@@ -32091,7 +32083,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="104">
         <v>0</v>
@@ -32100,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="39" t="s">
         <v>263</v>
       </c>
@@ -32111,7 +32103,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="104">
         <v>0</v>
@@ -32120,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>82</v>
       </c>
@@ -32137,7 +32129,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="104">
         <v>1</v>
@@ -32146,7 +32138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="39" t="s">
         <v>262</v>
       </c>
@@ -32157,7 +32149,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="104">
         <v>0</v>
@@ -32166,7 +32158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="39" t="s">
         <v>263</v>
       </c>
@@ -32177,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="104">
         <v>0</v>
@@ -32186,7 +32178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>83</v>
       </c>
@@ -32203,7 +32195,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="104">
         <v>1</v>
@@ -32212,7 +32204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="39" t="s">
         <v>262</v>
       </c>
@@ -32223,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="104">
         <v>0</v>
@@ -32232,7 +32224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="39" t="s">
         <v>263</v>
       </c>
@@ -32243,7 +32235,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="104">
         <v>0</v>
@@ -32252,7 +32244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>60</v>
       </c>
@@ -32269,7 +32261,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="104">
         <v>0.3</v>
@@ -32278,7 +32270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="39" t="s">
         <v>262</v>
       </c>
@@ -32289,7 +32281,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="104">
         <v>0.5</v>
@@ -32298,7 +32290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="39" t="s">
         <v>263</v>
       </c>
@@ -32309,7 +32301,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="104">
         <v>0.65</v>
@@ -32318,7 +32310,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>16</v>
       </c>
@@ -32332,7 +32324,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="104">
         <v>0.3</v>
@@ -32341,7 +32333,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="39" t="s">
         <v>262</v>
       </c>
@@ -32352,7 +32344,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="104">
         <v>0.49</v>
@@ -32361,7 +32353,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="39" t="s">
         <v>263</v>
       </c>
@@ -32372,7 +32364,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="104">
         <v>0.52</v>
@@ -32381,7 +32373,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>84</v>
       </c>
@@ -32398,7 +32390,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="104">
         <v>0.88</v>
@@ -32407,27 +32399,27 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="39" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="104">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.78409090909090906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>85</v>
       </c>
@@ -32438,22 +32430,22 @@
         <v>261</v>
       </c>
       <c r="D50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="39" t="s">
         <v>262</v>
       </c>
@@ -32464,7 +32456,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="104">
         <v>0.86</v>
@@ -32473,7 +32465,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>190</v>
       </c>
@@ -32490,7 +32482,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="104">
         <v>0</v>
@@ -32499,7 +32491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="39" t="s">
         <v>262</v>
       </c>
@@ -32510,7 +32502,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="104">
         <v>0</v>
@@ -32519,14 +32511,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="110" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="111"/>
       <c r="C55" s="111"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>69</v>
       </c>
@@ -32552,7 +32544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
         <v>28</v>
       </c>
@@ -32572,18 +32564,18 @@
       </c>
       <c r="F57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.35526315789473689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="39" t="s">
         <v>262</v>
       </c>
@@ -32597,18 +32589,18 @@
       </c>
       <c r="F58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.27692307692307688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="39" t="s">
         <v>263</v>
       </c>
@@ -32633,7 +32625,7 @@
         <v>0.34656716417910466</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>58</v>
       </c>
@@ -32664,7 +32656,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="39" t="s">
         <v>263</v>
       </c>
@@ -32689,7 +32681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
         <v>65</v>
       </c>
@@ -32717,7 +32709,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="39" t="s">
         <v>263</v>
       </c>
@@ -32742,7 +32734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>131</v>
       </c>
@@ -32773,7 +32765,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="39" t="s">
         <v>263</v>
       </c>
@@ -32798,7 +32790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="39" t="s">
         <v>65</v>
       </c>
@@ -32826,7 +32818,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="39" t="s">
         <v>263</v>
       </c>
@@ -32851,7 +32843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>337</v>
       </c>
@@ -32882,7 +32874,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="39" t="s">
         <v>263</v>
       </c>
@@ -32907,7 +32899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
         <v>65</v>
       </c>
@@ -32935,7 +32927,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="39" t="s">
         <v>263</v>
       </c>
@@ -32960,7 +32952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>61</v>
       </c>
@@ -32991,7 +32983,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="39" t="s">
         <v>263</v>
       </c>
@@ -33005,7 +32997,7 @@
       </c>
       <c r="F73" s="104">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="104">
         <f t="shared" si="5"/>
@@ -33016,7 +33008,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
         <v>65</v>
       </c>
@@ -33044,7 +33036,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="39" t="s">
         <v>263</v>
       </c>
@@ -33058,7 +33050,7 @@
       </c>
       <c r="F75" s="104">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="104">
         <f t="shared" si="7"/>
@@ -33069,7 +33061,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>62</v>
       </c>
@@ -33081,7 +33073,7 @@
       </c>
       <c r="D76" s="104">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="104">
         <f t="shared" si="8"/>
@@ -33089,7 +33081,7 @@
       </c>
       <c r="F76" s="104">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="104">
         <f t="shared" si="8"/>
@@ -33100,7 +33092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="39" t="s">
         <v>262</v>
       </c>
@@ -33114,7 +33106,7 @@
       </c>
       <c r="F77" s="104">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="104">
         <f t="shared" si="9"/>
@@ -33125,7 +33117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
         <v>63</v>
       </c>
@@ -33137,7 +33129,7 @@
       </c>
       <c r="D78" s="104">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="104">
         <f t="shared" si="10"/>
@@ -33145,7 +33137,7 @@
       </c>
       <c r="F78" s="104">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="104">
         <f t="shared" si="10"/>
@@ -33156,7 +33148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="39" t="s">
         <v>262</v>
       </c>
@@ -33170,7 +33162,7 @@
       </c>
       <c r="F79" s="104">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="104">
         <f t="shared" si="11"/>
@@ -33181,7 +33173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>64</v>
       </c>
@@ -33193,7 +33185,7 @@
       </c>
       <c r="D80" s="104">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="104">
         <f t="shared" si="12"/>
@@ -33201,7 +33193,7 @@
       </c>
       <c r="F80" s="104">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="104">
         <f t="shared" si="12"/>
@@ -33212,7 +33204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="39" t="s">
         <v>262</v>
       </c>
@@ -33226,7 +33218,7 @@
       </c>
       <c r="F81" s="104">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="104">
         <f t="shared" si="13"/>
@@ -33237,7 +33229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>79</v>
       </c>
@@ -33257,7 +33249,7 @@
       </c>
       <c r="F82" s="104">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="104">
         <f t="shared" si="14"/>
@@ -33268,7 +33260,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="39" t="s">
         <v>262</v>
       </c>
@@ -33282,7 +33274,7 @@
       </c>
       <c r="F83" s="104">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="104">
         <f t="shared" si="15"/>
@@ -33293,7 +33285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="39" t="s">
         <v>263</v>
       </c>
@@ -33307,7 +33299,7 @@
       </c>
       <c r="F84" s="104">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="104">
         <f t="shared" si="16"/>
@@ -33318,7 +33310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
         <v>80</v>
       </c>
@@ -33338,7 +33330,7 @@
       </c>
       <c r="F85" s="104">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="104">
         <f t="shared" si="17"/>
@@ -33349,7 +33341,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="39" t="s">
         <v>262</v>
       </c>
@@ -33363,7 +33355,7 @@
       </c>
       <c r="F86" s="104">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="104">
         <f t="shared" si="18"/>
@@ -33374,7 +33366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="39" t="s">
         <v>263</v>
       </c>
@@ -33388,7 +33380,7 @@
       </c>
       <c r="F87" s="104">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="104">
         <f t="shared" si="19"/>
@@ -33399,7 +33391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>81</v>
       </c>
@@ -33419,7 +33411,7 @@
       </c>
       <c r="F88" s="104">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="104">
         <f t="shared" si="20"/>
@@ -33430,7 +33422,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="39" t="s">
         <v>262</v>
       </c>
@@ -33444,7 +33436,7 @@
       </c>
       <c r="F89" s="104">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="104">
         <f t="shared" si="21"/>
@@ -33455,7 +33447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="39" t="s">
         <v>263</v>
       </c>
@@ -33469,7 +33461,7 @@
       </c>
       <c r="F90" s="104">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="104">
         <f t="shared" si="22"/>
@@ -33480,7 +33472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>82</v>
       </c>
@@ -33500,7 +33492,7 @@
       </c>
       <c r="F91" s="104">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="104">
         <f t="shared" si="23"/>
@@ -33511,7 +33503,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="39" t="s">
         <v>262</v>
       </c>
@@ -33525,7 +33517,7 @@
       </c>
       <c r="F92" s="104">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="104">
         <f t="shared" si="24"/>
@@ -33536,7 +33528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="39" t="s">
         <v>263</v>
       </c>
@@ -33550,7 +33542,7 @@
       </c>
       <c r="F93" s="104">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="104">
         <f t="shared" si="25"/>
@@ -33561,7 +33553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>83</v>
       </c>
@@ -33581,7 +33573,7 @@
       </c>
       <c r="F94" s="104">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="104">
         <f t="shared" si="26"/>
@@ -33592,7 +33584,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="39" t="s">
         <v>262</v>
       </c>
@@ -33606,7 +33598,7 @@
       </c>
       <c r="F95" s="104">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="104">
         <f t="shared" si="27"/>
@@ -33617,7 +33609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="39" t="s">
         <v>263</v>
       </c>
@@ -33631,7 +33623,7 @@
       </c>
       <c r="F96" s="104">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="104">
         <f t="shared" si="28"/>
@@ -33642,7 +33634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>60</v>
       </c>
@@ -33662,7 +33654,7 @@
       </c>
       <c r="F97" s="104">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="104">
         <f t="shared" si="29"/>
@@ -33673,7 +33665,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="39" t="s">
         <v>262</v>
       </c>
@@ -33687,7 +33679,7 @@
       </c>
       <c r="F98" s="104">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="104">
         <f t="shared" si="30"/>
@@ -33698,7 +33690,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="39" t="s">
         <v>263</v>
       </c>
@@ -33712,7 +33704,7 @@
       </c>
       <c r="F99" s="104">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="104">
         <f t="shared" si="31"/>
@@ -33723,7 +33715,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="39" t="s">
         <v>16</v>
       </c>
@@ -33740,7 +33732,7 @@
       </c>
       <c r="F100" s="104">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="104">
         <f t="shared" si="32"/>
@@ -33751,7 +33743,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="39" t="s">
         <v>262</v>
       </c>
@@ -33765,7 +33757,7 @@
       </c>
       <c r="F101" s="104">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="104">
         <f t="shared" si="33"/>
@@ -33776,7 +33768,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="39" t="s">
         <v>263</v>
       </c>
@@ -33790,7 +33782,7 @@
       </c>
       <c r="F102" s="104">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="104">
         <f t="shared" si="34"/>
@@ -33801,7 +33793,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>84</v>
       </c>
@@ -33821,7 +33813,7 @@
       </c>
       <c r="F103" s="104">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="104">
         <f t="shared" si="35"/>
@@ -33832,32 +33824,32 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="39" t="s">
         <v>262</v>
       </c>
       <c r="D104" s="104">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="104">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.70568181818181819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>85</v>
       </c>
@@ -33869,26 +33861,26 @@
       </c>
       <c r="D105" s="104">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="104">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.79534883720930238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="39" t="s">
         <v>262</v>
       </c>
@@ -33902,7 +33894,7 @@
       </c>
       <c r="F106" s="104">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="104">
         <f t="shared" si="38"/>
@@ -33913,7 +33905,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
         <v>190</v>
       </c>
@@ -33933,7 +33925,7 @@
       </c>
       <c r="F107" s="104">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="104">
         <f t="shared" si="39"/>
@@ -33944,7 +33936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="39" t="s">
         <v>262</v>
       </c>
@@ -33958,7 +33950,7 @@
       </c>
       <c r="F108" s="104">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="104">
         <f t="shared" si="40"/>
@@ -33969,14 +33961,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="110" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="111"/>
       <c r="C110" s="111"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>69</v>
       </c>
@@ -34002,7 +33994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="39" t="s">
         <v>28</v>
       </c>
@@ -34022,18 +34014,18 @@
       </c>
       <c r="F112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.41447368421052638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="39" t="s">
         <v>262</v>
       </c>
@@ -34047,18 +34039,18 @@
       </c>
       <c r="F113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.32307692307692304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="39" t="s">
         <v>263</v>
       </c>
@@ -34083,7 +34075,7 @@
         <v>0.40432835820895546</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="39" t="s">
         <v>58</v>
       </c>
@@ -34114,7 +34106,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="39" t="s">
         <v>263</v>
       </c>
@@ -34139,7 +34131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="39" t="s">
         <v>65</v>
       </c>
@@ -34167,7 +34159,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="39" t="s">
         <v>263</v>
       </c>
@@ -34192,7 +34184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
         <v>131</v>
       </c>
@@ -34223,7 +34215,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="39" t="s">
         <v>263</v>
       </c>
@@ -34248,7 +34240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="39" t="s">
         <v>65</v>
       </c>
@@ -34276,7 +34268,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="39" t="s">
         <v>263</v>
       </c>
@@ -34301,7 +34293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="39" t="s">
         <v>337</v>
       </c>
@@ -34332,7 +34324,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="39" t="s">
         <v>263</v>
       </c>
@@ -34357,7 +34349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="39" t="s">
         <v>65</v>
       </c>
@@ -34385,7 +34377,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="39" t="s">
         <v>263</v>
       </c>
@@ -34410,7 +34402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="39" t="s">
         <v>61</v>
       </c>
@@ -34441,7 +34433,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="39" t="s">
         <v>263</v>
       </c>
@@ -34455,7 +34447,7 @@
       </c>
       <c r="F128" s="104">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="104">
         <f t="shared" si="46"/>
@@ -34466,7 +34458,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="39" t="s">
         <v>65</v>
       </c>
@@ -34494,7 +34486,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="39" t="s">
         <v>263</v>
       </c>
@@ -34508,7 +34500,7 @@
       </c>
       <c r="F130" s="104">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="104">
         <f t="shared" si="48"/>
@@ -34519,7 +34511,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>62</v>
       </c>
@@ -34531,7 +34523,7 @@
       </c>
       <c r="D131" s="104">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="104">
         <f t="shared" si="49"/>
@@ -34539,7 +34531,7 @@
       </c>
       <c r="F131" s="104">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="104">
         <f t="shared" si="49"/>
@@ -34550,7 +34542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="39" t="s">
         <v>262</v>
       </c>
@@ -34564,7 +34556,7 @@
       </c>
       <c r="F132" s="104">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="104">
         <f t="shared" si="50"/>
@@ -34575,7 +34567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>63</v>
       </c>
@@ -34587,7 +34579,7 @@
       </c>
       <c r="D133" s="104">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="104">
         <f t="shared" si="51"/>
@@ -34595,7 +34587,7 @@
       </c>
       <c r="F133" s="104">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="104">
         <f t="shared" si="51"/>
@@ -34606,7 +34598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="39" t="s">
         <v>262</v>
       </c>
@@ -34620,7 +34612,7 @@
       </c>
       <c r="F134" s="104">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="104">
         <f t="shared" si="52"/>
@@ -34631,7 +34623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>64</v>
       </c>
@@ -34643,7 +34635,7 @@
       </c>
       <c r="D135" s="104">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="104">
         <f t="shared" si="53"/>
@@ -34651,7 +34643,7 @@
       </c>
       <c r="F135" s="104">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="104">
         <f t="shared" si="53"/>
@@ -34662,7 +34654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="39" t="s">
         <v>262</v>
       </c>
@@ -34676,7 +34668,7 @@
       </c>
       <c r="F136" s="104">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="104">
         <f t="shared" si="54"/>
@@ -34687,7 +34679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>79</v>
       </c>
@@ -34707,7 +34699,7 @@
       </c>
       <c r="F137" s="104">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="104">
         <f t="shared" si="55"/>
@@ -34718,7 +34710,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="39" t="s">
         <v>262</v>
       </c>
@@ -34732,7 +34724,7 @@
       </c>
       <c r="F138" s="104">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="104">
         <f t="shared" si="56"/>
@@ -34743,7 +34735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="39" t="s">
         <v>263</v>
       </c>
@@ -34757,7 +34749,7 @@
       </c>
       <c r="F139" s="104">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="104">
         <f t="shared" si="57"/>
@@ -34768,7 +34760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>80</v>
       </c>
@@ -34788,7 +34780,7 @@
       </c>
       <c r="F140" s="104">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="104">
         <f t="shared" si="58"/>
@@ -34799,7 +34791,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="39" t="s">
         <v>262</v>
       </c>
@@ -34813,7 +34805,7 @@
       </c>
       <c r="F141" s="104">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="104">
         <f t="shared" si="59"/>
@@ -34824,7 +34816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="39" t="s">
         <v>263</v>
       </c>
@@ -34838,7 +34830,7 @@
       </c>
       <c r="F142" s="104">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="104">
         <f t="shared" si="60"/>
@@ -34849,7 +34841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>81</v>
       </c>
@@ -34869,7 +34861,7 @@
       </c>
       <c r="F143" s="104">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="104">
         <f t="shared" si="61"/>
@@ -34880,7 +34872,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="39" t="s">
         <v>262</v>
       </c>
@@ -34894,7 +34886,7 @@
       </c>
       <c r="F144" s="104">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="104">
         <f t="shared" si="62"/>
@@ -34905,7 +34897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="39" t="s">
         <v>263</v>
       </c>
@@ -34919,7 +34911,7 @@
       </c>
       <c r="F145" s="104">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="104">
         <f t="shared" si="63"/>
@@ -34930,7 +34922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>82</v>
       </c>
@@ -34950,7 +34942,7 @@
       </c>
       <c r="F146" s="104">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="104">
         <f t="shared" si="64"/>
@@ -34961,7 +34953,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="39" t="s">
         <v>262</v>
       </c>
@@ -34975,7 +34967,7 @@
       </c>
       <c r="F147" s="104">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="104">
         <f t="shared" si="65"/>
@@ -34986,7 +34978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="39" t="s">
         <v>263</v>
       </c>
@@ -35000,7 +34992,7 @@
       </c>
       <c r="F148" s="104">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="104">
         <f t="shared" si="66"/>
@@ -35011,7 +35003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>83</v>
       </c>
@@ -35031,7 +35023,7 @@
       </c>
       <c r="F149" s="104">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="104">
         <f t="shared" si="67"/>
@@ -35042,7 +35034,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="39" t="s">
         <v>262</v>
       </c>
@@ -35056,7 +35048,7 @@
       </c>
       <c r="F150" s="104">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="104">
         <f t="shared" si="68"/>
@@ -35067,7 +35059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="39" t="s">
         <v>263</v>
       </c>
@@ -35081,7 +35073,7 @@
       </c>
       <c r="F151" s="104">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="104">
         <f t="shared" si="69"/>
@@ -35092,7 +35084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>60</v>
       </c>
@@ -35112,7 +35104,7 @@
       </c>
       <c r="F152" s="104">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="104">
         <f t="shared" si="70"/>
@@ -35123,7 +35115,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="39" t="s">
         <v>262</v>
       </c>
@@ -35137,7 +35129,7 @@
       </c>
       <c r="F153" s="104">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="104">
         <f t="shared" si="71"/>
@@ -35148,7 +35140,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="39" t="s">
         <v>263</v>
       </c>
@@ -35162,7 +35154,7 @@
       </c>
       <c r="F154" s="104">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="104">
         <f t="shared" si="72"/>
@@ -35173,7 +35165,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="39" t="s">
         <v>16</v>
       </c>
@@ -35190,7 +35182,7 @@
       </c>
       <c r="F155" s="104">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="104">
         <f t="shared" si="73"/>
@@ -35201,7 +35193,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="39" t="s">
         <v>262</v>
       </c>
@@ -35215,7 +35207,7 @@
       </c>
       <c r="F156" s="104">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="104">
         <f t="shared" si="74"/>
@@ -35226,7 +35218,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="39" t="s">
         <v>263</v>
       </c>
@@ -35240,7 +35232,7 @@
       </c>
       <c r="F157" s="104">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="104">
         <f t="shared" si="75"/>
@@ -35251,7 +35243,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>84</v>
       </c>
@@ -35271,7 +35263,7 @@
       </c>
       <c r="F158" s="104">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="104">
         <f t="shared" si="76"/>
@@ -35282,32 +35274,32 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="39" t="s">
         <v>262</v>
       </c>
       <c r="D159" s="104">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="104">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.8232954545454545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>85</v>
       </c>
@@ -35319,26 +35311,26 @@
       </c>
       <c r="D160" s="104">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="104">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.9279069767441861</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="39" t="s">
         <v>262</v>
       </c>
@@ -35352,7 +35344,7 @@
       </c>
       <c r="F161" s="104">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="104">
         <f t="shared" si="79"/>
@@ -35363,7 +35355,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>190</v>
       </c>
@@ -35383,7 +35375,7 @@
       </c>
       <c r="F162" s="104">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="104">
         <f t="shared" si="80"/>
@@ -35394,7 +35386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="39" t="s">
         <v>262</v>
       </c>
@@ -35408,7 +35400,7 @@
       </c>
       <c r="F163" s="104">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="104">
         <f t="shared" si="81"/>
@@ -35420,7 +35412,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VBTv+g9nkyy4vG1jheeo2V1tj/zq9f+K4NNy4qiHEQRO1b9NZPfBDyjNxKQm+dOfzi9UomxUkfEsx9nmCH6y8w==" saltValue="ad/sA7JzUPFzkg+Z9jAP5Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35440,16 +35432,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="27" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="27"/>
+    <col min="2" max="2" width="27.44140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="27" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
@@ -35471,7 +35463,7 @@
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
@@ -35495,7 +35487,7 @@
       </c>
       <c r="H2" s="72"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="27" t="s">
         <v>262</v>
       </c>
@@ -35513,7 +35505,7 @@
       </c>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>87</v>
       </c>
@@ -35537,7 +35529,7 @@
       </c>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>262</v>
       </c>
@@ -35555,7 +35547,7 @@
       </c>
       <c r="H5" s="72"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>88</v>
       </c>
@@ -35579,7 +35571,7 @@
       </c>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
         <v>262</v>
       </c>
@@ -35597,12 +35589,12 @@
       </c>
       <c r="H7" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
@@ -35623,7 +35615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>86</v>
       </c>
@@ -35650,7 +35642,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
         <v>262</v>
       </c>
@@ -35671,7 +35663,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>87</v>
       </c>
@@ -35698,7 +35690,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
         <v>262</v>
       </c>
@@ -35719,7 +35711,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>88</v>
       </c>
@@ -35746,7 +35738,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="27" t="s">
         <v>262</v>
       </c>
@@ -35767,12 +35759,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>69</v>
       </c>
@@ -35793,7 +35785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>86</v>
       </c>
@@ -35820,7 +35812,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
         <v>262</v>
       </c>
@@ -35841,7 +35833,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>87</v>
       </c>
@@ -35868,7 +35860,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
         <v>262</v>
       </c>
@@ -35889,7 +35881,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>88</v>
       </c>
@@ -35916,7 +35908,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="27" t="s">
         <v>262</v>
       </c>
@@ -35953,18 +35945,18 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -35975,7 +35967,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -36074,23 +36066,23 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="19"/>
@@ -36280,7 +36272,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -36378,10 +36370,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="giRUGTAUigtczjZs+0JtyH+Gll4T5pd/hJwvlKuUAX/9iLu2HBvPXhDG5QDtnk9dIDbNgxVkYz9KiEWXzp2hug==" saltValue="7eYOdk/62W4Lpi6wHQinCA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CjUfkZO3ODoRnqTAfv/FpvLKAjAufeGhUKWqr1d5T1ad0D9lV5FXbPX8NIZCbXStR9H4lMBNeB1fHY7fY/fWgQ==" saltValue="zuEA9mHaDeqEQUI/Brmp1Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -36396,13 +36388,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -36820,13 +36812,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -36956,13 +36948,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -36997,7 +36989,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -37014,10 +37006,10 @@
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -37034,10 +37026,10 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -37054,7 +37046,7 @@
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
@@ -37068,7 +37060,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>139</v>
       </c>
@@ -37082,7 +37074,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -37099,7 +37091,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>141</v>
       </c>
@@ -37113,7 +37105,7 @@
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
@@ -37130,7 +37122,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>165</v>
       </c>
@@ -37162,13 +37154,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>326</v>
       </c>
@@ -37176,7 +37168,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>330</v>
       </c>
@@ -37184,7 +37176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>331</v>
       </c>
@@ -37192,7 +37184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>325</v>
       </c>
@@ -37200,7 +37192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>329</v>
       </c>
@@ -37208,7 +37200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>332</v>
       </c>
@@ -37216,7 +37208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>333</v>
       </c>
@@ -37241,15 +37233,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="27"/>
+    <col min="2" max="2" width="19.109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>173</v>
       </c>
@@ -37266,7 +37258,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>168</v>
       </c>
@@ -37280,7 +37272,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
@@ -37293,7 +37285,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
@@ -37306,7 +37298,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
@@ -37319,7 +37311,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
@@ -37332,7 +37324,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>167</v>
       </c>
@@ -37340,7 +37332,7 @@
       <c r="D7" s="32"/>
       <c r="E7" s="62"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>193</v>
       </c>
@@ -37354,7 +37346,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>1</v>
       </c>
@@ -37367,7 +37359,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>2</v>
       </c>
@@ -37380,7 +37372,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>3</v>
       </c>
@@ -37393,7 +37385,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>4</v>
       </c>
@@ -37406,7 +37398,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>167</v>
       </c>
@@ -37414,7 +37406,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="62"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>194</v>
       </c>
@@ -37428,7 +37420,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>1</v>
       </c>
@@ -37441,7 +37433,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
         <v>2</v>
       </c>
@@ -37454,7 +37446,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>3</v>
       </c>
@@ -37465,7 +37457,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>4</v>
       </c>
@@ -37476,7 +37468,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>167</v>
       </c>
@@ -37502,15 +37494,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>159</v>
       </c>
@@ -37524,7 +37516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>69</v>
       </c>
@@ -37536,7 +37528,7 @@
       </c>
       <c r="D2" s="62"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>180</v>
       </c>

--- a/inputs/en/demo_demo_input.xlsx
+++ b/inputs/en/demo_demo_input.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E2AE98-DC5F-4BDA-A376-7B195B5157D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44DAFEE-8ADC-4983-B48A-26E662A530D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1630,7 +1630,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1800,6 +1800,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2662,7 +2668,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2932,6 +2938,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -6532,7 +6541,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -16749,12 +16758,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tLFUmDyoH82P3agTzdNhIl/nrPXW114misPcwvY90QMxHUTQPj6nXWoXArIchS0+Y1PkNffvDNQ/0vLhBaHAnA==" saltValue="GmZrDncYr09T1PgEJ065qQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16764,36 +16797,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -35945,8 +35954,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36073,16 +36082,16 @@
       <c r="B13" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="117" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="19"/>
@@ -36370,7 +36379,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CjUfkZO3ODoRnqTAfv/FpvLKAjAufeGhUKWqr1d5T1ad0D9lV5FXbPX8NIZCbXStR9H4lMBNeB1fHY7fY/fWgQ==" saltValue="zuEA9mHaDeqEQUI/Brmp1Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ao+xuJm/6iCCRjr0YhcMradklPKyVHXoRR2Tg9hKUkiSl/BuNpm8VT3cAhKA1DnvrWmy6j6BHMX9zxqs+6Juvw==" saltValue="wAPYFsYwVGiuKvf7WA08/g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
